--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781C269-E8A4-4711-ABA9-4FC09417F69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B0844-16AE-4E7E-B99F-1A4B537FF200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="859">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -2944,6 +2944,9 @@
   </si>
   <si>
     <t>Mohamed Yehia</t>
+  </si>
+  <si>
+    <t>بن سامي</t>
   </si>
 </sst>
 </file>
@@ -4815,6 +4818,30 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4843,30 +4870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5669,7 +5672,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5818,7 +5821,9 @@
       <c r="A6" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="120" t="s">
+        <v>858</v>
+      </c>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
       <c r="E6" s="120"/>
@@ -6379,9 +6384,10 @@
     <hyperlink ref="E3" r:id="rId121" xr:uid="{51240EFF-57BD-4C89-A82E-C98B47706D9D}"/>
     <hyperlink ref="F3" r:id="rId122" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
     <hyperlink ref="E5" r:id="rId123" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
+    <hyperlink ref="B6" r:id="rId124" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId124"/>
+  <pageSetup orientation="portrait" r:id="rId125"/>
 </worksheet>
 </file>
 
@@ -10193,21 +10199,21 @@
       <c r="B1" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="229" t="s">
+      <c r="D1" s="237" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="230"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="239" t="s">
+      <c r="E1" s="238"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="229" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="240"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="225" t="s">
+      <c r="H1" s="230"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="233" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="226"/>
-      <c r="M1" s="223" t="s">
+      <c r="K1" s="234"/>
+      <c r="M1" s="231" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10224,21 +10230,21 @@
       <c r="E2" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="235"/>
+      <c r="F2" s="225"/>
       <c r="G2" s="144" t="s">
         <v>260</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
-      <c r="I2" s="235"/>
+      <c r="I2" s="225"/>
       <c r="J2" s="139" t="s">
         <v>519</v>
       </c>
       <c r="K2" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="M2" s="224"/>
+      <c r="M2" s="232"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -10253,14 +10259,14 @@
       <c r="E3" s="14">
         <v>132</v>
       </c>
-      <c r="F3" s="235"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="144" t="s">
         <v>263</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
-      <c r="I3" s="235"/>
+      <c r="I3" s="225"/>
       <c r="J3" s="139" t="s">
         <v>270</v>
       </c>
@@ -10281,14 +10287,14 @@
       <c r="E4" s="14">
         <v>120</v>
       </c>
-      <c r="F4" s="235"/>
+      <c r="F4" s="225"/>
       <c r="G4" s="144" t="s">
         <v>267</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
-      <c r="I4" s="235"/>
+      <c r="I4" s="225"/>
       <c r="J4" s="139" t="s">
         <v>598</v>
       </c>
@@ -10309,14 +10315,14 @@
       <c r="E5" s="15">
         <v>128</v>
       </c>
-      <c r="F5" s="235"/>
+      <c r="F5" s="225"/>
       <c r="G5" s="144" t="s">
         <v>275</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
-      <c r="I5" s="235"/>
+      <c r="I5" s="225"/>
       <c r="J5" s="139" t="s">
         <v>278</v>
       </c>
@@ -10335,14 +10341,14 @@
       <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="235"/>
+      <c r="F6" s="225"/>
       <c r="G6" s="144" t="s">
         <v>276</v>
       </c>
       <c r="H6" s="145" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="235"/>
+      <c r="I6" s="225"/>
       <c r="J6" s="141" t="s">
         <v>565</v>
       </c>
@@ -10359,14 +10365,14 @@
         <v>551</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="235"/>
+      <c r="F7" s="225"/>
       <c r="G7" s="144" t="s">
         <v>555</v>
       </c>
       <c r="H7" s="145" t="s">
         <v>612</v>
       </c>
-      <c r="I7" s="235"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -10379,16 +10385,16 @@
         <v>552</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="235"/>
+      <c r="F8" s="225"/>
       <c r="G8" s="144" t="s">
         <v>563</v>
       </c>
       <c r="H8" s="145"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="236" t="s">
+      <c r="I8" s="225"/>
+      <c r="J8" s="226" t="s">
         <v>570</v>
       </c>
-      <c r="K8" s="236"/>
+      <c r="K8" s="226"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
@@ -10401,14 +10407,14 @@
         <v>604</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="235"/>
+      <c r="F9" s="225"/>
       <c r="G9" s="144" t="s">
         <v>564</v>
       </c>
       <c r="H9" s="145" t="s">
         <v>611</v>
       </c>
-      <c r="I9" s="235"/>
+      <c r="I9" s="225"/>
       <c r="J9" s="131" t="s">
         <v>272</v>
       </c>
@@ -10423,14 +10429,14 @@
       <c r="E10" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="235"/>
+      <c r="F10" s="225"/>
       <c r="G10" s="144" t="s">
         <v>613</v>
       </c>
       <c r="H10" s="145" t="s">
         <v>614</v>
       </c>
-      <c r="I10" s="235"/>
+      <c r="I10" s="225"/>
       <c r="J10" s="131" t="s">
         <v>561</v>
       </c>
@@ -10451,8 +10457,8 @@
       <c r="E11" s="14">
         <v>143</v>
       </c>
-      <c r="F11" s="235"/>
-      <c r="I11" s="235"/>
+      <c r="F11" s="225"/>
+      <c r="I11" s="225"/>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
     </row>
@@ -10463,12 +10469,12 @@
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="227" t="s">
+      <c r="F12" s="225"/>
+      <c r="G12" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="228"/>
-      <c r="I12" s="235"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="225"/>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
     </row>
@@ -10485,14 +10491,14 @@
       <c r="E13" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="235"/>
+      <c r="F13" s="225"/>
       <c r="G13" s="136" t="s">
         <v>262</v>
       </c>
       <c r="H13" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="235"/>
+      <c r="I13" s="225"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
@@ -10507,14 +10513,14 @@
       <c r="E14" s="14">
         <v>120</v>
       </c>
-      <c r="F14" s="235"/>
+      <c r="F14" s="225"/>
       <c r="G14" s="136" t="s">
         <v>269</v>
       </c>
       <c r="H14" s="136" t="s">
         <v>559</v>
       </c>
-      <c r="I14" s="235"/>
+      <c r="I14" s="225"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
@@ -10525,14 +10531,14 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="235"/>
+      <c r="F15" s="225"/>
       <c r="G15" s="136" t="s">
         <v>596</v>
       </c>
       <c r="H15" s="137" t="s">
         <v>566</v>
       </c>
-      <c r="I15" s="235"/>
+      <c r="I15" s="225"/>
       <c r="J15" s="107" t="s">
         <v>553</v>
       </c>
@@ -10547,14 +10553,14 @@
       <c r="B16" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="235"/>
+      <c r="F16" s="225"/>
       <c r="G16" s="136" t="s">
         <v>597</v>
       </c>
       <c r="H16" s="136" t="s">
         <v>594</v>
       </c>
-      <c r="I16" s="235"/>
+      <c r="I16" s="225"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
     </row>
@@ -10571,14 +10577,14 @@
       <c r="E17" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="235"/>
+      <c r="F17" s="225"/>
       <c r="G17" s="138" t="s">
         <v>599</v>
       </c>
       <c r="H17" s="138" t="s">
         <v>595</v>
       </c>
-      <c r="I17" s="235"/>
+      <c r="I17" s="225"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
     </row>
@@ -10589,8 +10595,8 @@
       <c r="E18" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F18" s="235"/>
-      <c r="I18" s="235"/>
+      <c r="F18" s="225"/>
+      <c r="I18" s="225"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -10605,12 +10611,12 @@
       <c r="E19" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="F19" s="235"/>
-      <c r="G19" s="237" t="s">
+      <c r="F19" s="225"/>
+      <c r="G19" s="227" t="s">
         <v>545</v>
       </c>
-      <c r="H19" s="238"/>
-      <c r="I19" s="235"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="225"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
@@ -10623,14 +10629,14 @@
       <c r="E20" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F20" s="235"/>
+      <c r="F20" s="225"/>
       <c r="G20" s="124" t="s">
         <v>285</v>
       </c>
       <c r="H20" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="235"/>
+      <c r="I20" s="225"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
@@ -10641,14 +10647,14 @@
         <v>609</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="235"/>
+      <c r="F21" s="225"/>
       <c r="G21" s="124" t="s">
         <v>549</v>
       </c>
       <c r="H21" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I21" s="235"/>
+      <c r="I21" s="225"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -10660,10 +10666,10 @@
         <v>610</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="235"/>
+      <c r="F22" s="225"/>
       <c r="G22" s="124"/>
       <c r="H22" s="70"/>
-      <c r="I22" s="235"/>
+      <c r="I22" s="225"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
@@ -10674,10 +10680,10 @@
         <v>297</v>
       </c>
       <c r="E23" s="30"/>
-      <c r="F23" s="235"/>
+      <c r="F23" s="225"/>
       <c r="G23" s="124"/>
       <c r="H23" s="70"/>
-      <c r="I23" s="235"/>
+      <c r="I23" s="225"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
@@ -10690,12 +10696,12 @@
       <c r="E24" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="235"/>
+      <c r="F24" s="225"/>
       <c r="G24" s="143" t="s">
         <v>557</v>
       </c>
       <c r="H24" s="67"/>
-      <c r="I24" s="235"/>
+      <c r="I24" s="225"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
@@ -10731,10 +10737,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="231" t="s">
+      <c r="A30" s="239" t="s">
         <v>287</v>
       </c>
-      <c r="B30" s="232"/>
+      <c r="B30" s="240"/>
       <c r="G30" s="135" t="s">
         <v>314</v>
       </c>
@@ -10803,24 +10809,24 @@
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="233" t="s">
+      <c r="A39" s="223" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="234"/>
+      <c r="B39" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="I1:I24"/>
     <mergeCell ref="F1:F24"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H30" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>

--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B0844-16AE-4E7E-B99F-1A4B537FF200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CA543-85BD-4F52-AAE6-E62B2339F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="862">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -2947,6 +2947,15 @@
   </si>
   <si>
     <t>بن سامي</t>
+  </si>
+  <si>
+    <t>الشيخ حسن أيوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">د. محمد خير الشعّال </t>
+  </si>
+  <si>
+    <t>Omar El-Shenety</t>
   </si>
 </sst>
 </file>
@@ -5672,7 +5681,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5824,9 +5833,15 @@
       <c r="B6" s="120" t="s">
         <v>858</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="C6" s="120" t="s">
+        <v>859</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>860</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>861</v>
+      </c>
       <c r="F6" s="120"/>
       <c r="G6" s="120"/>
       <c r="H6" s="120"/>
@@ -6385,9 +6400,12 @@
     <hyperlink ref="F3" r:id="rId122" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
     <hyperlink ref="E5" r:id="rId123" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
     <hyperlink ref="B6" r:id="rId124" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="C6" r:id="rId125" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="D6" r:id="rId126" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="E6" r:id="rId127" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId125"/>
+  <pageSetup orientation="portrait" r:id="rId128"/>
 </worksheet>
 </file>
 

--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CA543-85BD-4F52-AAE6-E62B2339F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87DDF9-0012-492D-BC00-72D15AA42051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Marketing" sheetId="5" r:id="rId2"/>
-    <sheet name="Repair" sheetId="4" r:id="rId3"/>
-    <sheet name="EG" sheetId="12" r:id="rId4"/>
-    <sheet name="$$" sheetId="14" r:id="rId5"/>
-    <sheet name="Food" sheetId="18" r:id="rId6"/>
-    <sheet name="Freelaning" sheetId="32" r:id="rId7"/>
-    <sheet name="Advise" sheetId="19" r:id="rId8"/>
-    <sheet name="Clothes" sheetId="22" r:id="rId9"/>
-    <sheet name="Sports" sheetId="24" r:id="rId10"/>
-    <sheet name="Home" sheetId="25" r:id="rId11"/>
-    <sheet name="Law" sheetId="30" r:id="rId12"/>
-    <sheet name="Jobs" sheetId="33" r:id="rId13"/>
-    <sheet name="Post" sheetId="34" r:id="rId14"/>
-    <sheet name="Compaines" sheetId="35" r:id="rId15"/>
-    <sheet name="Search" sheetId="36" r:id="rId16"/>
+    <sheet name="AI" sheetId="37" r:id="rId2"/>
+    <sheet name="Marketing" sheetId="5" r:id="rId3"/>
+    <sheet name="Repair" sheetId="4" r:id="rId4"/>
+    <sheet name="EG" sheetId="12" r:id="rId5"/>
+    <sheet name="$$" sheetId="14" r:id="rId6"/>
+    <sheet name="Food" sheetId="18" r:id="rId7"/>
+    <sheet name="Freelaning" sheetId="32" r:id="rId8"/>
+    <sheet name="Advise" sheetId="19" r:id="rId9"/>
+    <sheet name="Clothes" sheetId="22" r:id="rId10"/>
+    <sheet name="Sports" sheetId="24" r:id="rId11"/>
+    <sheet name="Home" sheetId="25" r:id="rId12"/>
+    <sheet name="Law" sheetId="30" r:id="rId13"/>
+    <sheet name="Jobs" sheetId="33" r:id="rId14"/>
+    <sheet name="Post" sheetId="34" r:id="rId15"/>
+    <sheet name="Compaines" sheetId="35" r:id="rId16"/>
+    <sheet name="Search" sheetId="36" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="868">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -1586,9 +1587,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>Influencer</t>
-  </si>
-  <si>
     <t>Prob Solving Sarcasm</t>
   </si>
   <si>
@@ -2002,9 +2000,6 @@
     <t>Good Firms</t>
   </si>
   <si>
-    <t xml:space="preserve">Help ! </t>
-  </si>
-  <si>
     <t>Jobzella</t>
   </si>
   <si>
@@ -2026,9 +2021,6 @@
     <t>Career Jet</t>
   </si>
   <si>
-    <t>Facebook| Groups</t>
-  </si>
-  <si>
     <t>Jobs IN Delta</t>
   </si>
   <si>
@@ -2050,9 +2042,6 @@
     <t>الوظائف الحكومية</t>
   </si>
   <si>
-    <t>[Banks]</t>
-  </si>
-  <si>
     <t>i Career Egy</t>
   </si>
   <si>
@@ -2069,9 +2058,6 @@
   </si>
   <si>
     <t>Muwuzzuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Markets] </t>
   </si>
   <si>
     <t>[Dev.Data]</t>
@@ -2957,12 +2943,45 @@
   <si>
     <t>Omar El-Shenety</t>
   </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Stack AI</t>
+  </si>
+  <si>
+    <t>.NET AI</t>
+  </si>
+  <si>
+    <t>Hugging Face</t>
+  </si>
+  <si>
+    <t>Open AI</t>
+  </si>
+  <si>
+    <t>شيماء خضير</t>
+  </si>
+  <si>
+    <t>luma labs</t>
+  </si>
+  <si>
+    <t>ML .NET</t>
+  </si>
+  <si>
+    <t>هيئة الدواء المصرية</t>
+  </si>
+  <si>
+    <t>onlinesim</t>
+  </si>
+  <si>
+    <t>الشيخ عبد الرزاق البدر</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3053,13 +3072,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3326,13 +3338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="0"/>
@@ -3400,7 +3405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3529,12 +3534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4169,7 +4168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4260,7 +4259,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4278,19 +4277,19 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4299,22 +4298,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4326,64 +4325,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4422,7 +4421,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4449,19 +4448,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4473,65 +4472,65 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4558,16 +4557,16 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4630,69 +4629,60 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4707,7 +4697,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4731,13 +4721,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4746,78 +4733,75 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4839,10 +4823,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4851,10 +4835,10 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4881,16 +4865,16 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4911,10 +4895,10 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4938,7 +4922,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="10" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4968,13 +4952,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5681,7 +5665,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5701,29 +5685,29 @@
       <c r="A1" s="119">
         <v>1</v>
       </c>
-      <c r="B1" s="204">
+      <c r="B1" s="200">
         <v>2</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>490</v>
       </c>
-      <c r="D1" s="204" t="s">
+      <c r="D1" s="200" t="s">
         <v>489</v>
       </c>
       <c r="E1" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="200" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>516</v>
+      </c>
+      <c r="H1" s="200" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="119" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="204" t="s">
-        <v>539</v>
-      </c>
       <c r="I1" s="119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,7 +5724,7 @@
         <v>147</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F2" s="120" t="s">
         <v>132</v>
@@ -5751,8 +5735,8 @@
       <c r="H2" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="204" t="s">
-        <v>537</v>
+      <c r="I2" s="200" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,10 +5753,10 @@
         <v>139</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G3" s="120" t="s">
         <v>134</v>
@@ -5781,488 +5765,485 @@
         <v>138</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="219" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>852</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="200" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>133</v>
+        <v>853</v>
       </c>
       <c r="C5" s="120" t="s">
-        <v>148</v>
+        <v>854</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>541</v>
+        <v>855</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>146</v>
+        <v>856</v>
       </c>
       <c r="F5" s="120" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="119" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="200" t="s">
         <v>857</v>
       </c>
-      <c r="G5" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="204" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>858</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>860</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>861</v>
-      </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="119" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="218"/>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="120" t="s">
-        <v>180</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="120"/>
     </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="218" t="s">
-        <v>540</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-    </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="214" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+    </row>
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="123" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="123" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="123" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F11" s="123" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G11" s="123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="123" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I11" s="123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="123" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E12" s="123" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G12" s="123" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H12" s="123" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I12" s="123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="123" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E13" s="123" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" s="123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="123" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
-        <v>540</v>
-      </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-    </row>
-    <row r="17" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="A14" s="214" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="120" t="s">
         <v>520</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="C15" s="120" t="s">
         <v>521</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="D15" s="120" t="s">
         <v>522</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="E15" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="F15" s="120" t="s">
         <v>524</v>
       </c>
-      <c r="F17" s="120" t="s">
+      <c r="G15" s="120" t="s">
         <v>525</v>
       </c>
-      <c r="G17" s="120" t="s">
+      <c r="H15" s="120" t="s">
         <v>526</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="I15" s="120" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="120" t="s">
         <v>527</v>
       </c>
-      <c r="I17" s="120" t="s">
+      <c r="B16" s="120" t="s">
+        <v>528</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>529</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" s="120" t="s">
+        <v>532</v>
+      </c>
+      <c r="G16" s="120" t="s">
+        <v>533</v>
+      </c>
+      <c r="H16" s="120" t="s">
         <v>535</v>
       </c>
+      <c r="I16" s="120" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="214" t="s">
+        <v>791</v>
+      </c>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
     </row>
     <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
-        <v>528</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18" s="120" t="s">
-        <v>530</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="E18" s="120" t="s">
-        <v>532</v>
-      </c>
-      <c r="F18" s="120" t="s">
-        <v>533</v>
-      </c>
-      <c r="G18" s="120" t="s">
-        <v>534</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>536</v>
-      </c>
-      <c r="I18" s="120"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="218" t="s">
-        <v>796</v>
-      </c>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-    </row>
-    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="213" t="s">
+      <c r="A18" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="213" t="s">
+      <c r="B18" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="213" t="s">
+      <c r="C18" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="213" t="s">
+      <c r="D18" s="209" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="213" t="s">
+      <c r="E18" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="213" t="s">
+      <c r="F18" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="213" t="s">
+      <c r="G18" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="213" t="s">
+      <c r="H18" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="214" t="s">
+      <c r="I18" s="210" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213" t="s">
+    <row r="19" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="213" t="s">
+      <c r="B19" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="213" t="s">
+      <c r="C19" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="213" t="s">
+      <c r="D19" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="213" t="s">
+      <c r="E19" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="213" t="s">
+      <c r="F19" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="213" t="s">
+      <c r="G19" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="213" t="s">
+      <c r="H19" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="215" t="s">
+      <c r="I19" s="211" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213" t="s">
+    <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="213" t="s">
+      <c r="B20" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="213" t="s">
+      <c r="C20" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="213" t="s">
+      <c r="D20" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="213" t="s">
+      <c r="E20" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="213" t="s">
+      <c r="F20" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="213" t="s">
+      <c r="G20" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="213" t="s">
+      <c r="H20" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="216"/>
-    </row>
-    <row r="23" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213" t="s">
+      <c r="I20" s="212"/>
+    </row>
+    <row r="21" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="213" t="s">
+      <c r="B21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="213" t="s">
+      <c r="C21" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="213" t="s">
+      <c r="D21" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="213" t="s">
+      <c r="E21" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="213" t="s">
+      <c r="F21" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="213" t="s">
+      <c r="G21" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="213" t="s">
+      <c r="H21" s="209" t="s">
         <v>111</v>
       </c>
-      <c r="I23" s="216"/>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213" t="s">
+      <c r="I21" s="212"/>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B22" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="213" t="s">
+      <c r="C22" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="216"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="212"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="214"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+    </row>
+    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="209" t="s">
+        <v>866</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A4:I4"/>
+  <mergeCells count="5">
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
@@ -6284,132 +6265,492 @@
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="I3" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
-    <hyperlink ref="A21" r:id="rId11" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
-    <hyperlink ref="B21" r:id="rId12" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
-    <hyperlink ref="C21" r:id="rId13" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
-    <hyperlink ref="C22" r:id="rId14" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
-    <hyperlink ref="F21" r:id="rId15" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
-    <hyperlink ref="G21" r:id="rId16" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
-    <hyperlink ref="D21" r:id="rId17" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
-    <hyperlink ref="E21" r:id="rId18" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
-    <hyperlink ref="A22" r:id="rId19" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
-    <hyperlink ref="I21" r:id="rId20" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
-    <hyperlink ref="F22" r:id="rId21" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
-    <hyperlink ref="G22" r:id="rId22" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
-    <hyperlink ref="B23" r:id="rId24" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
-    <hyperlink ref="E22" r:id="rId25" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
-    <hyperlink ref="E23" r:id="rId26" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
-    <hyperlink ref="F23" r:id="rId27" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
-    <hyperlink ref="C23" r:id="rId28" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
-    <hyperlink ref="D23" r:id="rId29" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
-    <hyperlink ref="H22" r:id="rId30" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
-    <hyperlink ref="H21" r:id="rId31" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
-    <hyperlink ref="B24" r:id="rId32" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
-    <hyperlink ref="D22" r:id="rId33" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
-    <hyperlink ref="C24" r:id="rId34" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
-    <hyperlink ref="B22" r:id="rId35" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
-    <hyperlink ref="A24" r:id="rId36" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
-    <hyperlink ref="H23" r:id="rId37" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
-    <hyperlink ref="G23" r:id="rId38" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
-    <hyperlink ref="I5" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
-    <hyperlink ref="H20" r:id="rId39" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
-    <hyperlink ref="I20" r:id="rId40" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
-    <hyperlink ref="E20" r:id="rId41" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
-    <hyperlink ref="F20" r:id="rId42" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
-    <hyperlink ref="G20" r:id="rId43" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
-    <hyperlink ref="B20" r:id="rId44" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
-    <hyperlink ref="A20" r:id="rId45" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
-    <hyperlink ref="H18" r:id="rId46" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
-    <hyperlink ref="I17" r:id="rId47" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
-    <hyperlink ref="G18" r:id="rId48" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
-    <hyperlink ref="F18" r:id="rId49" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
-    <hyperlink ref="E18" r:id="rId50" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
-    <hyperlink ref="D18" r:id="rId51" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
-    <hyperlink ref="C18" r:id="rId52" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
-    <hyperlink ref="B18" r:id="rId53" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
-    <hyperlink ref="A18" r:id="rId54" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
-    <hyperlink ref="H17" r:id="rId55" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
-    <hyperlink ref="G17" r:id="rId56" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
-    <hyperlink ref="F17" r:id="rId57" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
-    <hyperlink ref="E17" r:id="rId58" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
-    <hyperlink ref="D17" r:id="rId59" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
-    <hyperlink ref="C17" r:id="rId60" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
-    <hyperlink ref="B17" r:id="rId61" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
-    <hyperlink ref="A17" r:id="rId62" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
-    <hyperlink ref="H15" r:id="rId63" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="G15" r:id="rId64" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="I15" r:id="rId65" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="F15" r:id="rId66" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="C15" r:id="rId67" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="E15" r:id="rId68" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="D15" r:id="rId69" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="B15" r:id="rId70" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="A15" r:id="rId71" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
-    <hyperlink ref="I6" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
-    <hyperlink ref="F13" r:id="rId72" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="D13" r:id="rId73" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="E13" r:id="rId74" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="G13" r:id="rId75" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="H13" r:id="rId76" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="A13" r:id="rId77" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="B13" r:id="rId78" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="C13" r:id="rId79" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C11" r:id="rId80" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="I12" r:id="rId81" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="G11" r:id="rId82" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="F12" r:id="rId83" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="E12" r:id="rId84" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="D12" r:id="rId85" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="G12" r:id="rId86" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="C12" r:id="rId87" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="A12" r:id="rId88" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="B12" r:id="rId89" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="E11" r:id="rId90" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="I11" r:id="rId91" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="H12" r:id="rId92" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="B11" r:id="rId93" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H11" r:id="rId94" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="D11" r:id="rId95" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="F11" r:id="rId96" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="A11" r:id="rId97" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="B9" r:id="rId98" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
-    <hyperlink ref="A9" r:id="rId99" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
-    <hyperlink ref="C9" r:id="rId100" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
-    <hyperlink ref="H8" r:id="rId101" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
-    <hyperlink ref="G8" r:id="rId102" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
-    <hyperlink ref="F8" r:id="rId103" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
-    <hyperlink ref="E8" r:id="rId104" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
-    <hyperlink ref="D8" r:id="rId105" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
-    <hyperlink ref="C8" r:id="rId106" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="B8" r:id="rId107" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
-    <hyperlink ref="A8" r:id="rId108" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
+    <hyperlink ref="B19" r:id="rId12" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
+    <hyperlink ref="C20" r:id="rId14" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
+    <hyperlink ref="F19" r:id="rId15" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
+    <hyperlink ref="G19" r:id="rId16" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
+    <hyperlink ref="E19" r:id="rId18" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
+    <hyperlink ref="I19" r:id="rId20" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
+    <hyperlink ref="F20" r:id="rId21" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
+    <hyperlink ref="G20" r:id="rId22" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
+    <hyperlink ref="A21" r:id="rId23" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
+    <hyperlink ref="B21" r:id="rId24" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
+    <hyperlink ref="E20" r:id="rId25" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
+    <hyperlink ref="E21" r:id="rId26" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
+    <hyperlink ref="F21" r:id="rId27" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
+    <hyperlink ref="C21" r:id="rId28" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
+    <hyperlink ref="D21" r:id="rId29" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
+    <hyperlink ref="H20" r:id="rId30" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
+    <hyperlink ref="H19" r:id="rId31" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
+    <hyperlink ref="B22" r:id="rId32" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
+    <hyperlink ref="D20" r:id="rId33" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
+    <hyperlink ref="C22" r:id="rId34" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
+    <hyperlink ref="B20" r:id="rId35" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
+    <hyperlink ref="A22" r:id="rId36" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
+    <hyperlink ref="H21" r:id="rId37" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
+    <hyperlink ref="G21" r:id="rId38" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="I4" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
+    <hyperlink ref="H18" r:id="rId39" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
+    <hyperlink ref="I18" r:id="rId40" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
+    <hyperlink ref="E18" r:id="rId41" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
+    <hyperlink ref="F18" r:id="rId42" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
+    <hyperlink ref="G18" r:id="rId43" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
+    <hyperlink ref="B18" r:id="rId44" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
+    <hyperlink ref="A18" r:id="rId45" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
+    <hyperlink ref="H16" r:id="rId46" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
+    <hyperlink ref="I15" r:id="rId47" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
+    <hyperlink ref="G16" r:id="rId48" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
+    <hyperlink ref="F16" r:id="rId49" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
+    <hyperlink ref="E16" r:id="rId50" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
+    <hyperlink ref="D16" r:id="rId51" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
+    <hyperlink ref="C16" r:id="rId52" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
+    <hyperlink ref="B16" r:id="rId53" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
+    <hyperlink ref="A16" r:id="rId54" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
+    <hyperlink ref="H15" r:id="rId55" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
+    <hyperlink ref="G15" r:id="rId56" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
+    <hyperlink ref="F15" r:id="rId57" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
+    <hyperlink ref="E15" r:id="rId58" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
+    <hyperlink ref="D15" r:id="rId59" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
+    <hyperlink ref="C15" r:id="rId60" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
+    <hyperlink ref="B15" r:id="rId61" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
+    <hyperlink ref="A15" r:id="rId62" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
+    <hyperlink ref="H13" r:id="rId63" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="G13" r:id="rId64" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="I12" r:id="rId65" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="F13" r:id="rId66" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C13" r:id="rId67" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="E13" r:id="rId68" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="D13" r:id="rId69" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="B13" r:id="rId70" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="A13" r:id="rId71" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
+    <hyperlink ref="F12" r:id="rId72" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="D12" r:id="rId73" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="E12" r:id="rId74" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="G12" r:id="rId75" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="H12" r:id="rId76" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="A12" r:id="rId77" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="B12" r:id="rId78" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="C12" r:id="rId79" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C10" r:id="rId80" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="I11" r:id="rId81" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="G10" r:id="rId82" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="F11" r:id="rId83" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="E11" r:id="rId84" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="D11" r:id="rId85" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="G11" r:id="rId86" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="C11" r:id="rId87" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="A11" r:id="rId88" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="B11" r:id="rId89" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="E10" r:id="rId90" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="I10" r:id="rId91" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="H11" r:id="rId92" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="B10" r:id="rId93" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H10" r:id="rId94" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="D10" r:id="rId95" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="F10" r:id="rId96" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="A10" r:id="rId97" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="B8" r:id="rId98" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
+    <hyperlink ref="A8" r:id="rId99" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
+    <hyperlink ref="C8" r:id="rId100" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
+    <hyperlink ref="H7" r:id="rId101" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
+    <hyperlink ref="G7" r:id="rId102" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
+    <hyperlink ref="F7" r:id="rId103" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
+    <hyperlink ref="E7" r:id="rId104" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
+    <hyperlink ref="D7" r:id="rId105" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
+    <hyperlink ref="C7" r:id="rId106" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
+    <hyperlink ref="B7" r:id="rId107" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
+    <hyperlink ref="A7" r:id="rId108" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
     <hyperlink ref="C3" r:id="rId109" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
-    <hyperlink ref="D5" r:id="rId110" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
-    <hyperlink ref="F5" r:id="rId111" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="D4" r:id="rId110" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
+    <hyperlink ref="F4" r:id="rId111" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
     <hyperlink ref="B3" r:id="rId112" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
     <hyperlink ref="D3" r:id="rId113" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
     <hyperlink ref="H3" r:id="rId114" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
-    <hyperlink ref="H5" r:id="rId115" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="C5" r:id="rId116" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="H4" r:id="rId115" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="C4" r:id="rId116" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
     <hyperlink ref="A3" r:id="rId117" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
-    <hyperlink ref="A5" r:id="rId118" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
+    <hyperlink ref="A4" r:id="rId118" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
     <hyperlink ref="G3" r:id="rId119" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="B5" r:id="rId120" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="B4" r:id="rId120" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
     <hyperlink ref="E3" r:id="rId121" xr:uid="{51240EFF-57BD-4C89-A82E-C98B47706D9D}"/>
     <hyperlink ref="F3" r:id="rId122" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
-    <hyperlink ref="E5" r:id="rId123" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
-    <hyperlink ref="B6" r:id="rId124" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
-    <hyperlink ref="C6" r:id="rId125" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
-    <hyperlink ref="D6" r:id="rId126" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
-    <hyperlink ref="E6" r:id="rId127" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="E4" r:id="rId123" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
+    <hyperlink ref="B5" r:id="rId124" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="C5" r:id="rId125" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="D5" r:id="rId126" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="E5" r:id="rId127" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="I7" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
+    <hyperlink ref="F5" r:id="rId128" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
+    <hyperlink ref="D8" r:id="rId129" xr:uid="{D3DF5142-51DD-4A58-8E71-4E214B905677}"/>
+    <hyperlink ref="A24" r:id="rId130" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
+    <hyperlink ref="I16" r:id="rId131" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId128"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC2E5-A839-4CFE-81CB-B3D389005C51}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="25" style="44" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24" style="44" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="237" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="244" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="258" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="I2" s="83"/>
+      <c r="K2" s="238"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="244"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="259"/>
+      <c r="F3" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="244"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="79" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="78">
+        <v>44</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" s="246" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="244"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="53"/>
+      <c r="E5" s="249" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="247"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="244"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53"/>
+      <c r="E6" s="250"/>
+      <c r="F6" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="244" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="251"/>
+      <c r="F7" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="244"/>
+      <c r="B8" s="255" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="252" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="256">
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="244"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="253"/>
+      <c r="F9" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="257"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="244"/>
+      <c r="B10" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="244" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="E11" s="254" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="I11" s="245" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="244"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="53"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" s="245"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="244"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="53"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="57"/>
+      <c r="I13" s="245"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="244"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="53"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="57"/>
+      <c r="I14" s="55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="244"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="53"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="56"/>
+      <c r="I15" s="55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="244"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="244" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="244"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="53"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="244"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="248"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="241" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="242"/>
+      <c r="C22" s="243"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{B988A63C-7553-41F6-967C-BC88E6F5E3DD}"/>
+    <hyperlink ref="B8:B9" r:id="rId2" display="الحفاظ علي البنطلون الجينس" xr:uid="{880237D1-1B91-4C64-A6CC-22BC2270CA94}"/>
+    <hyperlink ref="B11" r:id="rId3" display="انواع الريحة لازم في الخطوبة" xr:uid="{B7F74BA0-EC89-4678-95F7-816C16AFC981}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{31AFDD69-1797-4DAD-8122-5ED1B8D405D5}"/>
+    <hyperlink ref="K1" location="Food!A1" display="رجوع" xr:uid="{6CB8AB43-919C-4D43-A984-3DA84D1F460C}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{6B4AFA1A-2287-47DD-875E-678BCED22632}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{698456EB-C81D-445D-9CE2-1B1D1C262E82}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{C73669CA-12C8-4426-9434-BBBFFBC26F01}"/>
+    <hyperlink ref="K4:K5" location="Suit!A1" display="Good Suit" xr:uid="{7F379537-317A-44E4-8081-EAD6202FE71E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6618AA-AE09-4C49-A204-1817CC12D7FC}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -6444,7 +6785,7 @@
       <c r="F1" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="H1" s="242" t="s">
+      <c r="H1" s="237" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6467,7 +6808,7 @@
       <c r="F2" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="243"/>
+      <c r="H2" s="238"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
@@ -6714,11 +7055,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938CE309-CBD9-4E7B-AEF7-6480C043974A}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6766,7 +7109,7 @@
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -7090,66 +7433,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC843F6-2887-4BE1-A36B-BE9F1EA31AD0}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>504</v>
-      </c>
+    <row r="3" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7159,7 +7502,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7170,7 +7513,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7181,7 +7524,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7192,7 +7535,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7202,17 +7545,6 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7228,18 +7560,18 @@
     <hyperlink ref="B2" r:id="rId10" display="https://www.facebook.com/groups/1432743533609453" xr:uid="{6E4F59D0-63C9-441E-802B-8AC69D55ECBD}"/>
     <hyperlink ref="C2" r:id="rId11" display="https://www.youtube.com/@user-oz8mi7be9k/videos" xr:uid="{604326BE-E87E-4D67-B6E3-6CF7162D31C2}"/>
     <hyperlink ref="D2" r:id="rId12" display="https://www.youtube.com/@avocatobelal/videos" xr:uid="{9801534D-F4AF-43A6-A58F-E6A05E2F853A}"/>
-    <hyperlink ref="A3" r:id="rId13" display="https://www.youtube.com/@Egyptian-Bar-Association/videos" xr:uid="{B3C103AD-D49D-44A3-AC36-8B50802678AA}"/>
+    <hyperlink ref="E2" r:id="rId13" display="https://www.youtube.com/@Egyptian-Bar-Association/videos" xr:uid="{B3C103AD-D49D-44A3-AC36-8B50802678AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B540495-B4AD-4CA9-A206-F86AB5A39250}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7249,31 +7581,31 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="165" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="C1" s="165" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="D1" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="166" t="s">
         <v>618</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="F1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="H1" s="167"/>
       <c r="I1" s="168" t="s">
@@ -7282,822 +7614,882 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="166" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="D2" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="H2" s="167"/>
-      <c r="I2" s="169" t="s">
-        <v>629</v>
-      </c>
+      <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>636</v>
-      </c>
       <c r="H3" s="167"/>
-      <c r="I3" s="170" t="s">
-        <v>637</v>
-      </c>
+      <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="166" t="s">
         <v>641</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="G4" s="166" t="s">
-        <v>644</v>
-      </c>
       <c r="H4" s="167"/>
-      <c r="I4" s="171" t="s">
-        <v>645</v>
-      </c>
+      <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="166" t="s">
         <v>646</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="167" t="s">
         <v>648</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+    </row>
+    <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="B6" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="171" t="s">
+      <c r="D6" s="169" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167" t="s">
+      <c r="E6" s="169" t="s">
         <v>653</v>
       </c>
+      <c r="F6" s="169" t="s">
+        <v>654</v>
+      </c>
+      <c r="G6" s="169" t="s">
+        <v>655</v>
+      </c>
       <c r="H6" s="167"/>
-      <c r="I6" s="171" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>657</v>
-      </c>
-      <c r="E7" s="172" t="s">
-        <v>658</v>
-      </c>
-      <c r="F7" s="172" t="s">
-        <v>659</v>
-      </c>
-      <c r="G7" s="172" t="s">
-        <v>660</v>
-      </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="I6" s="167"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="170" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="184" t="s">
+        <v>718</v>
+      </c>
+      <c r="C9" s="184" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="184" t="s">
+        <v>716</v>
+      </c>
+      <c r="E9" s="186" t="s">
+        <v>715</v>
+      </c>
+      <c r="F9" s="185" t="s">
+        <v>714</v>
+      </c>
+      <c r="G9" s="184" t="s">
+        <v>713</v>
+      </c>
+      <c r="H9" s="183" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="261" t="s">
+        <v>711</v>
+      </c>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="263"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="182" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="178" t="s">
+        <v>707</v>
+      </c>
+      <c r="F11" s="178" t="s">
+        <v>706</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="181"/>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="173" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="187" t="s">
-        <v>723</v>
-      </c>
-      <c r="C12" s="187" t="s">
-        <v>722</v>
-      </c>
-      <c r="D12" s="187" t="s">
-        <v>721</v>
-      </c>
-      <c r="E12" s="189" t="s">
-        <v>720</v>
-      </c>
-      <c r="F12" s="188" t="s">
-        <v>719</v>
-      </c>
-      <c r="G12" s="187" t="s">
-        <v>718</v>
-      </c>
-      <c r="H12" s="186" t="s">
-        <v>717</v>
-      </c>
+      <c r="A12" s="182"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="181"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="266" t="s">
-        <v>716</v>
-      </c>
-      <c r="B13" s="267"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
-      <c r="F13" s="267"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="268"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="181"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
-        <v>715</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>714</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>713</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>686</v>
-      </c>
-      <c r="E14" s="181" t="s">
-        <v>712</v>
-      </c>
-      <c r="F14" s="181" t="s">
-        <v>711</v>
-      </c>
+      <c r="A14" s="182"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="184"/>
+      <c r="H14" s="181"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="185"/>
+      <c r="A15" s="182"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="184"/>
+      <c r="H15" s="181"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="185"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="55"/>
-      <c r="H16" s="184"/>
+      <c r="H16" s="181"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="185"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="184"/>
+      <c r="H17" s="181"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="185"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="55"/>
-      <c r="H18" s="184"/>
+      <c r="H18" s="181"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="184"/>
+      <c r="A19" s="261" t="s">
+        <v>705</v>
+      </c>
+      <c r="B19" s="262"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="263"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="184"/>
+      <c r="A20" s="180" t="s">
+        <v>704</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>702</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="E20" s="178" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" s="177">
+        <v>25898039</v>
+      </c>
+      <c r="G20" s="264" t="s">
+        <v>700</v>
+      </c>
+      <c r="H20" s="176" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="184"/>
+      <c r="A21" s="179" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
+        <v>698</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>681</v>
+      </c>
+      <c r="E21" s="178"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="264"/>
+      <c r="H21" s="176" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="266" t="s">
-        <v>710</v>
-      </c>
-      <c r="B22" s="267"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="268"/>
+      <c r="A22" s="179" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="E22" s="178"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="H22" s="176" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
-        <v>709</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>708</v>
-      </c>
+      <c r="A23" s="179" t="s">
+        <v>695</v>
+      </c>
+      <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="E23" s="181" t="s">
-        <v>706</v>
-      </c>
-      <c r="F23" s="180">
-        <v>25898039</v>
-      </c>
-      <c r="G23" s="269" t="s">
-        <v>705</v>
-      </c>
-      <c r="H23" s="179" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="E23" s="178" t="s">
+        <v>693</v>
+      </c>
+      <c r="F23" s="177" t="s">
+        <v>692</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="H23" s="176" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
-        <v>704</v>
-      </c>
+      <c r="A24" s="179"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="176"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="179"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="176"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="179"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="176"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="179" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>681</v>
+      </c>
+      <c r="E27" s="178" t="s">
         <v>686</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="269"/>
-      <c r="H24" s="179" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
-        <v>702</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="E25" s="181"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="H25" s="179" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
-        <v>700</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>699</v>
-      </c>
-      <c r="E26" s="181" t="s">
-        <v>698</v>
-      </c>
-      <c r="F26" s="180" t="s">
-        <v>697</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="H26" s="179" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="180"/>
+      <c r="F27" s="177" t="s">
+        <v>685</v>
+      </c>
       <c r="G27" s="43"/>
-      <c r="H27" s="179"/>
+      <c r="H27" s="176"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="180"/>
+      <c r="A28" s="180" t="s">
+        <v>684</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>681</v>
+      </c>
+      <c r="E28" s="178" t="s">
+        <v>680</v>
+      </c>
+      <c r="F28" s="178" t="s">
+        <v>679</v>
+      </c>
       <c r="G28" s="43"/>
-      <c r="H28" s="179"/>
+      <c r="H28" s="176"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="180"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="43"/>
-      <c r="H29" s="179"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="182" t="s">
-        <v>694</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>693</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>692</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="E30" s="181" t="s">
-        <v>691</v>
-      </c>
-      <c r="F30" s="180" t="s">
-        <v>690</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="179"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="183" t="s">
-        <v>689</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>688</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>687</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="E31" s="181" t="s">
-        <v>685</v>
-      </c>
-      <c r="F31" s="181" t="s">
-        <v>684</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="179"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="179"/>
-    </row>
-    <row r="35" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="s">
+      <c r="H29" s="176"/>
+    </row>
+    <row r="32" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
+        <v>733</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>732</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>731</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>730</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>729</v>
+      </c>
+      <c r="F32" s="103" t="s">
+        <v>724</v>
+      </c>
+      <c r="G32" s="103" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="100" t="s">
+        <v>728</v>
+      </c>
+      <c r="B33" s="187" t="s">
+        <v>727</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>725</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>721</v>
+      </c>
+      <c r="G33" s="100" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
+        <v>723</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>722</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F36" s="188" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="192" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" s="192" t="s">
+        <v>758</v>
+      </c>
+      <c r="C38" s="192" t="s">
+        <v>757</v>
+      </c>
+      <c r="D38" s="192" t="s">
+        <v>756</v>
+      </c>
+      <c r="E38" s="192" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="191" t="s">
+        <v>754</v>
+      </c>
+      <c r="B39" s="189" t="s">
+        <v>753</v>
+      </c>
+      <c r="C39" s="191" t="s">
+        <v>752</v>
+      </c>
+      <c r="D39" s="189">
+        <v>1153332210</v>
+      </c>
+      <c r="E39" s="189"/>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="191" t="s">
+        <v>751</v>
+      </c>
+      <c r="B40" s="189" t="s">
+        <v>750</v>
+      </c>
+      <c r="C40" s="189"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="191" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="191" t="s">
+        <v>748</v>
+      </c>
+      <c r="B42" s="189" t="s">
+        <v>747</v>
+      </c>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="191" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="191" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44" s="189"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="191" t="s">
+        <v>744</v>
+      </c>
+      <c r="B45" s="189"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="189"/>
+      <c r="E45" s="189" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="191" t="s">
+        <v>743</v>
+      </c>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="189" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="191" t="s">
+        <v>742</v>
+      </c>
+      <c r="B47" s="189"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="189" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="189"/>
+      <c r="B48" s="189"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="189"/>
+      <c r="E48" s="189"/>
+    </row>
+    <row r="49" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="189"/>
+      <c r="B49" s="189"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="189"/>
+    </row>
+    <row r="50" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="189"/>
+      <c r="B50" s="189"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="189"/>
+      <c r="E50" s="189"/>
+    </row>
+    <row r="51" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="189"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="189"/>
+    </row>
+    <row r="52" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="191" t="s">
+        <v>740</v>
+      </c>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="189"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+    </row>
+    <row r="54" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="190" t="s">
         <v>738</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B54" s="189"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="189"/>
+    </row>
+    <row r="55" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="189" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="B55" s="189"/>
+      <c r="C55" s="189"/>
+      <c r="D55" s="189"/>
+      <c r="E55" s="189"/>
+    </row>
+    <row r="56" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="189" t="s">
         <v>736</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="B56" s="189"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
+    </row>
+    <row r="57" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="189" t="s">
         <v>735</v>
       </c>
-      <c r="E35" s="100" t="s">
-        <v>734</v>
-      </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="191" t="s">
+      <c r="B57" s="189"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
+    </row>
+    <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="B60" s="193" t="s">
+        <v>775</v>
+      </c>
+      <c r="C60" s="100" t="s">
+        <v>774</v>
+      </c>
+      <c r="D60" s="193"/>
+      <c r="E60" s="193"/>
+      <c r="F60" s="193"/>
+      <c r="G60" s="196" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
-        <v>733</v>
-      </c>
-      <c r="B36" s="190" t="s">
-        <v>732</v>
-      </c>
-      <c r="C36" s="100" t="s">
-        <v>731</v>
-      </c>
-      <c r="D36" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="E36" s="100" t="s">
-        <v>730</v>
-      </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="103" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
-        <v>728</v>
-      </c>
-      <c r="B37" s="100" t="s">
-        <v>727</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>726</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>725</v>
-      </c>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="103" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="F40" s="192" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="196" t="s">
-        <v>466</v>
-      </c>
-      <c r="B46" s="196" t="s">
-        <v>763</v>
-      </c>
-      <c r="C46" s="196" t="s">
-        <v>762</v>
-      </c>
-      <c r="D46" s="196" t="s">
-        <v>761</v>
-      </c>
-      <c r="E46" s="196" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="195" t="s">
-        <v>759</v>
-      </c>
-      <c r="B47" s="193" t="s">
-        <v>758</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>757</v>
-      </c>
-      <c r="D47" s="193">
-        <v>1153332210</v>
-      </c>
-      <c r="E47" s="193"/>
-    </row>
-    <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="195" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" s="193" t="s">
-        <v>755</v>
-      </c>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-    </row>
-    <row r="49" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="195" t="s">
-        <v>754</v>
-      </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="195" t="s">
-        <v>753</v>
-      </c>
-      <c r="B50" s="193" t="s">
-        <v>752</v>
-      </c>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="195" t="s">
-        <v>751</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="195" t="s">
-        <v>750</v>
-      </c>
-      <c r="B52" s="193"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="195" t="s">
-        <v>749</v>
-      </c>
-      <c r="B53" s="193"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="193" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="195" t="s">
-        <v>748</v>
-      </c>
-      <c r="B54" s="193"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="195" t="s">
-        <v>747</v>
-      </c>
-      <c r="B55" s="193"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="193" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="193"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-    </row>
-    <row r="57" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="193"/>
-      <c r="B57" s="193"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-    </row>
-    <row r="58" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="193"/>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-    </row>
-    <row r="59" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-    </row>
-    <row r="60" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="195" t="s">
-        <v>745</v>
-      </c>
-      <c r="B60" s="193"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="193" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="193"/>
-      <c r="B61" s="193"/>
+    <row r="61" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="100" t="s">
+        <v>773</v>
+      </c>
+      <c r="B61" s="100" t="s">
+        <v>772</v>
+      </c>
       <c r="C61" s="193"/>
       <c r="D61" s="193"/>
       <c r="E61" s="193"/>
-    </row>
-    <row r="62" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="194" t="s">
-        <v>743</v>
-      </c>
+      <c r="F61" s="193"/>
+      <c r="G61" s="193"/>
+    </row>
+    <row r="62" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="193"/>
       <c r="B62" s="193"/>
       <c r="C62" s="193"/>
       <c r="D62" s="193"/>
       <c r="E62" s="193"/>
-    </row>
-    <row r="63" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="193" t="s">
-        <v>742</v>
-      </c>
+      <c r="F62" s="193"/>
+      <c r="G62" s="195" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="193"/>
       <c r="B63" s="193"/>
       <c r="C63" s="193"/>
       <c r="D63" s="193"/>
       <c r="E63" s="193"/>
-    </row>
-    <row r="64" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="193" t="s">
-        <v>741</v>
-      </c>
-      <c r="B64" s="193"/>
-      <c r="C64" s="193"/>
-      <c r="D64" s="193"/>
-      <c r="E64" s="193"/>
+      <c r="F63" s="193"/>
+      <c r="G63" s="193"/>
+    </row>
+    <row r="64" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="194" t="s">
+        <v>770</v>
+      </c>
+      <c r="B64" s="193" t="s">
+        <v>769</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>768</v>
+      </c>
+      <c r="D64" s="100" t="s">
+        <v>767</v>
+      </c>
+      <c r="E64" s="100" t="s">
+        <v>766</v>
+      </c>
+      <c r="F64" s="193"/>
+      <c r="G64" s="193"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="193" t="s">
-        <v>740</v>
+      <c r="A65" s="100" t="s">
+        <v>765</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
       <c r="D65" s="193"/>
       <c r="E65" s="193"/>
-    </row>
-    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="100" t="s">
+      <c r="F65" s="193"/>
+      <c r="G65" s="193"/>
+    </row>
+    <row r="66" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="193"/>
+      <c r="B66" s="193"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="193"/>
+      <c r="E66" s="193"/>
+      <c r="F66" s="193"/>
+      <c r="G66" s="193"/>
+    </row>
+    <row r="67" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="193"/>
+      <c r="B67" s="193"/>
+      <c r="C67" s="193"/>
+      <c r="D67" s="193"/>
+      <c r="E67" s="193"/>
+      <c r="F67" s="193"/>
+      <c r="G67" s="193"/>
+    </row>
+    <row r="68" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="194" t="s">
+        <v>764</v>
+      </c>
+      <c r="B68" s="193" t="s">
+        <v>763</v>
+      </c>
+      <c r="C68" s="193" t="s">
+        <v>762</v>
+      </c>
+      <c r="D68" s="193" t="s">
+        <v>761</v>
+      </c>
+      <c r="E68" s="193" t="s">
+        <v>760</v>
+      </c>
+      <c r="F68" s="193"/>
+      <c r="G68" s="193"/>
+    </row>
+    <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="193" t="s">
+        <v>759</v>
+      </c>
+      <c r="B69" s="193"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="193"/>
+      <c r="E69" s="193"/>
+      <c r="F69" s="193"/>
+      <c r="G69" s="193"/>
+    </row>
+    <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="B73" s="199" t="s">
+        <v>788</v>
+      </c>
+      <c r="C73" s="199" t="s">
+        <v>787</v>
+      </c>
+      <c r="D73" s="198" t="s">
+        <v>786</v>
+      </c>
+      <c r="E73" s="199" t="s">
+        <v>785</v>
+      </c>
+      <c r="F73" s="199" t="s">
+        <v>784</v>
+      </c>
+      <c r="G73" s="197"/>
+    </row>
+    <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="198" t="s">
+        <v>783</v>
+      </c>
+      <c r="B74" s="198" t="s">
+        <v>782</v>
+      </c>
+      <c r="C74" s="199" t="s">
         <v>781</v>
       </c>
-      <c r="B68" s="197" t="s">
+      <c r="D74" s="198" t="s">
         <v>780</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="E74" s="198" t="s">
         <v>779</v>
       </c>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197"/>
-      <c r="G68" s="200" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="100" t="s">
+      <c r="F74" s="198" t="s">
         <v>778</v>
       </c>
-      <c r="B69" s="100" t="s">
+      <c r="G74" s="197"/>
+    </row>
+    <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="198" t="s">
         <v>777</v>
       </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197"/>
-      <c r="G69" s="197"/>
-    </row>
-    <row r="70" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="197"/>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="197"/>
-      <c r="G70" s="199" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="197"/>
-      <c r="B71" s="197"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="197"/>
-      <c r="G71" s="197"/>
-    </row>
-    <row r="72" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="198" t="s">
-        <v>775</v>
-      </c>
-      <c r="B72" s="197" t="s">
-        <v>774</v>
-      </c>
-      <c r="C72" s="100" t="s">
-        <v>773</v>
-      </c>
-      <c r="D72" s="100" t="s">
-        <v>772</v>
-      </c>
-      <c r="E72" s="100" t="s">
-        <v>771</v>
-      </c>
-      <c r="F72" s="197"/>
-      <c r="G72" s="197"/>
-    </row>
-    <row r="73" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="100" t="s">
-        <v>770</v>
-      </c>
-      <c r="B73" s="197"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
-      <c r="F73" s="197"/>
-      <c r="G73" s="197"/>
-    </row>
-    <row r="74" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="197"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
-      <c r="F74" s="197"/>
-      <c r="G74" s="197"/>
-    </row>
-    <row r="75" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="197"/>
       <c r="B75" s="197"/>
       <c r="C75" s="197"/>
       <c r="D75" s="197"/>
@@ -8105,97 +8497,13 @@
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
     </row>
-    <row r="76" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="198" t="s">
-        <v>769</v>
-      </c>
-      <c r="B76" s="197" t="s">
-        <v>768</v>
-      </c>
-      <c r="C76" s="197" t="s">
-        <v>767</v>
-      </c>
-      <c r="D76" s="197" t="s">
-        <v>766</v>
-      </c>
-      <c r="E76" s="197" t="s">
-        <v>765</v>
-      </c>
-      <c r="F76" s="197"/>
-      <c r="G76" s="197"/>
-    </row>
-    <row r="77" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="197" t="s">
-        <v>764</v>
-      </c>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="197"/>
-      <c r="E77" s="197"/>
-      <c r="F77" s="197"/>
-      <c r="G77" s="197"/>
-    </row>
-    <row r="81" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A81" s="202" t="s">
-        <v>794</v>
-      </c>
-      <c r="B81" s="203" t="s">
-        <v>793</v>
-      </c>
-      <c r="C81" s="203" t="s">
-        <v>792</v>
-      </c>
-      <c r="D81" s="202" t="s">
-        <v>791</v>
-      </c>
-      <c r="E81" s="203" t="s">
-        <v>790</v>
-      </c>
-      <c r="F81" s="203" t="s">
-        <v>789</v>
-      </c>
-      <c r="G81" s="201"/>
-    </row>
-    <row r="82" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A82" s="202" t="s">
-        <v>788</v>
-      </c>
-      <c r="B82" s="202" t="s">
-        <v>787</v>
-      </c>
-      <c r="C82" s="203" t="s">
-        <v>786</v>
-      </c>
-      <c r="D82" s="202" t="s">
-        <v>785</v>
-      </c>
-      <c r="E82" s="202" t="s">
-        <v>784</v>
-      </c>
-      <c r="F82" s="202" t="s">
-        <v>783</v>
-      </c>
-      <c r="G82" s="201"/>
-    </row>
-    <row r="83" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A83" s="202" t="s">
-        <v>782</v>
-      </c>
-      <c r="B83" s="201"/>
-      <c r="C83" s="201"/>
-      <c r="D83" s="201"/>
-      <c r="E83" s="201"/>
-      <c r="F83" s="201"/>
-      <c r="G83" s="201"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" location="Banks!A1" display="[Banks]" xr:uid="{E863C263-B121-46B5-B250-90A63C3318BB}"/>
     <hyperlink ref="D1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{8A1DD4C6-4794-4F1C-AE4C-F7CB12594ECC}"/>
     <hyperlink ref="F1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{A1A9996F-AE82-4447-8F49-5BDDBF6756B1}"/>
     <hyperlink ref="E5" r:id="rId3" display="https://www.men7h.com/" xr:uid="{57D5D091-2A41-43CB-A181-0FA20CE9D608}"/>
@@ -8218,93 +8526,88 @@
     <hyperlink ref="A2" r:id="rId20" display="https://i-need.dev/" xr:uid="{C6042B67-7D04-47AF-B110-6D9D0BF0DCFC}"/>
     <hyperlink ref="D5" r:id="rId21" display="https://drjobs.ae/en/egypt/jobs" xr:uid="{340F538D-91DF-4C86-B222-24FDD07C6E37}"/>
     <hyperlink ref="C4" r:id="rId22" display="https://jobmaster.jobmastergroup.com/" xr:uid="{0E209B63-34C3-46D7-87EE-CFCA82280F6E}"/>
-    <hyperlink ref="B7" r:id="rId23" display="https://www.facebook.com/andrewashraf.me" xr:uid="{AFD025F4-EF99-470B-916C-3B94104E77CF}"/>
+    <hyperlink ref="B6" r:id="rId23" display="https://www.facebook.com/andrewashraf.me" xr:uid="{AFD025F4-EF99-470B-916C-3B94104E77CF}"/>
     <hyperlink ref="D4" r:id="rId24" display="https://www.pgcareers.com/search-jobs?ascf=%5b%7b%27key%27:%27custom_fields.Language%27,%27value%27:%27English%27%7d,%5d&amp;alp=357994&amp;alt=2" xr:uid="{A24D1056-275E-43A6-9B54-7A97C642A79B}"/>
     <hyperlink ref="E4" r:id="rId25" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{B69CEECA-50A7-4368-AF90-67B7BFFC867C}"/>
     <hyperlink ref="B5" r:id="rId26" display="https://www.facebook.com/yallawork.ngo" xr:uid="{BB53B9D3-9129-4274-A30E-F49EE8E67B55}"/>
-    <hyperlink ref="F7" r:id="rId27" display="http://www.ibsns.com/" xr:uid="{4B2B41C8-0E6A-4523-AFF6-AA2BB188658B}"/>
+    <hyperlink ref="F6" r:id="rId27" display="http://www.ibsns.com/" xr:uid="{4B2B41C8-0E6A-4523-AFF6-AA2BB188658B}"/>
     <hyperlink ref="B1" location="Companies!A1" display="شركات" xr:uid="{CDFA0870-5DE2-4F3F-B148-F1FBDEEB98A3}"/>
-    <hyperlink ref="I2" location="Help!A1" display="Help ! " xr:uid="{81BF30DA-3498-4749-9880-636946F2669F}"/>
     <hyperlink ref="A1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{3E3174E2-59F8-47D3-9D1E-C30083509782}"/>
     <hyperlink ref="C1" location="training!A1" display="منح و تدريب" xr:uid="{48237D30-2424-4A0E-ACF6-702A80C93AA6}"/>
     <hyperlink ref="B4" r:id="rId28" display="https://www.facebook.com/Jobeexjobs" xr:uid="{1C80701E-8D1F-415D-98EB-ADEE7EE9DB73}"/>
     <hyperlink ref="F3" r:id="rId29" display="freeejobs" xr:uid="{AF6E842B-278C-4DD9-96BD-4A98FEDC10F5}"/>
-    <hyperlink ref="A7" r:id="rId30" display="Salsabeel Elsanhory" xr:uid="{DCA96FF7-D15B-4E7B-91C5-7022F4F3D4BF}"/>
+    <hyperlink ref="A6" r:id="rId30" display="Salsabeel Elsanhory" xr:uid="{DCA96FF7-D15B-4E7B-91C5-7022F4F3D4BF}"/>
     <hyperlink ref="I1" r:id="rId31" xr:uid="{7AA4A900-3FDC-4FE6-AF18-195FCA813159}"/>
     <hyperlink ref="G3" r:id="rId32" display="careerjet" xr:uid="{E6B44DCE-81B2-45FC-8C7D-E6DB120BBE24}"/>
     <hyperlink ref="C5" r:id="rId33" xr:uid="{822D81DE-F845-46C9-BCDA-54535AED662B}"/>
-    <hyperlink ref="I5" location="Markets!A1" display="أسواق" xr:uid="{36F13ACE-B3F0-4CD7-B9E9-8E3108C1D492}"/>
-    <hyperlink ref="D7" r:id="rId34" xr:uid="{CD5BE00A-662A-482E-9BB2-00F7653F5AEE}"/>
-    <hyperlink ref="C7" r:id="rId35" xr:uid="{16332ECD-6AC9-4E60-9AB9-C8CDED7CB114}"/>
-    <hyperlink ref="E7" r:id="rId36" xr:uid="{497B7B28-C4B6-4DC8-A0DD-9CD174F3EA2C}"/>
+    <hyperlink ref="D6" r:id="rId34" xr:uid="{CD5BE00A-662A-482E-9BB2-00F7653F5AEE}"/>
+    <hyperlink ref="C6" r:id="rId35" xr:uid="{16332ECD-6AC9-4E60-9AB9-C8CDED7CB114}"/>
+    <hyperlink ref="E6" r:id="rId36" xr:uid="{497B7B28-C4B6-4DC8-A0DD-9CD174F3EA2C}"/>
     <hyperlink ref="A5" r:id="rId37" display="iCareerEgy" xr:uid="{86CC2BAE-A0EF-4862-A2C2-60751E6F2A24}"/>
     <hyperlink ref="G2" r:id="rId38" display="https://www.goodfirms.co/" xr:uid="{F7393069-7D33-46BB-A062-8F9359424D47}"/>
-    <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{DDC6475F-88F5-4B17-B6E7-2951F64D105E}"/>
-    <hyperlink ref="I6" location="'O-Lvl'!A1" display="Other Level" xr:uid="{7BA28BD3-A9CD-4BF2-A94E-0BF81568972E}"/>
-    <hyperlink ref="G7" location="Oth.Comp!A1" display="دليل شركات" xr:uid="{23170B6D-0052-45B2-97B4-AA1CB0CACFDB}"/>
-    <hyperlink ref="A36" r:id="rId39" display="https://egfwd.com/" xr:uid="{5B7FE5DC-C5AD-4094-8331-25AC95C2055F}"/>
-    <hyperlink ref="G35" location="Jobs!A1" display="Back &lt;--" xr:uid="{B55804E4-A8F2-40CC-B643-5E720B9D6EDE}"/>
-    <hyperlink ref="D37" r:id="rId40" display="https://www.facebook.com/AMIT.Learning" xr:uid="{59F5BBAD-16A4-4726-B749-0D5FF7D6DBB3}"/>
-    <hyperlink ref="B37" r:id="rId41" display="https://www.facebook.com/groups/402958410979164" xr:uid="{B268C425-417E-43D3-864D-EA712BAD71A7}"/>
-    <hyperlink ref="C36" r:id="rId42" display="https://millionrowad.com/" xr:uid="{F94ABC4C-6D4C-4667-9BBD-0C015C153110}"/>
-    <hyperlink ref="E36" r:id="rId43" display="https://eduhub21.com/" xr:uid="{97F5A4FD-093A-4C1A-89B9-66BA73056522}"/>
-    <hyperlink ref="D36" r:id="rId44" display="http://techleaders.eg/" xr:uid="{4E63B5C4-59E9-4869-BD19-1E8088830769}"/>
-    <hyperlink ref="A37" r:id="rId45" display="http://techleaders.eg/aal" xr:uid="{1C099C0C-BBEE-4C89-9BCA-17BB27D1EB04}"/>
-    <hyperlink ref="C37" r:id="rId46" display="https://assess.sovaonline.com/hub/?ar=eNoBsABP_84CZZsEw2cT_eL0lv9k67svWuYqmMx7QEXe4QtavJXfTRtkVX3sz1uXETWS-hYGbqvqhEmJxIP-5-RQ1_1O5HP7hLlCvmupEhLUZqR1lOkWAUHtu2pEZojcq4uTL71lnMKG6MshdwSs7nJ2DpnelCBRKBuOrGej7dKpCseMXOwZ-vQXfCwhnMOVwiIHxweiWV_sJA7XovenneiJnZceBTUUFoGrD6Az47UIIP2FU1KMUJZaTQ==" xr:uid="{0C1058FE-BAB9-4C41-BDF8-3BEE8BBF3141}"/>
-    <hyperlink ref="D35" r:id="rId47" display="https://www.egyincs.me/" xr:uid="{7B93414B-9E2F-43E4-9550-5FDAE1DC8B92}"/>
-    <hyperlink ref="A35" r:id="rId48" display="https://www.facebook.com/groups/cseknowledgeexchange" xr:uid="{2222AF30-0A43-4280-A8A6-2D79D96D134E}"/>
-    <hyperlink ref="C35" r:id="rId49" display="https://www.facebook.com/groups/463038787444078" xr:uid="{18024996-8770-4DF3-8677-81710D152970}"/>
-    <hyperlink ref="E35" r:id="rId50" display="https://www.facebook.com/internmenow2020" xr:uid="{00EA00CA-7B4C-4EE4-822A-3680BB4BFD16}"/>
-    <hyperlink ref="G37" r:id="rId51" xr:uid="{8D288077-281C-4C5C-82C0-2E3D58D3AC59}"/>
-    <hyperlink ref="G36" r:id="rId52" xr:uid="{C0D8C43E-0366-4773-9D6C-1CFEDF801A8A}"/>
-    <hyperlink ref="B35" r:id="rId53" display="https://www.facebook.com/groups/314004286793745" xr:uid="{96D96201-75A9-4749-AB55-969BB5F2ED0C}"/>
-    <hyperlink ref="B36" r:id="rId54" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{5684784C-F2E4-475B-ACBD-5BBC1B99FDFF}"/>
-    <hyperlink ref="F40" r:id="rId55" display="https://www.egycompanies.com/" xr:uid="{324D4F45-7920-4D95-9FD9-5ECB0288C622}"/>
-    <hyperlink ref="A47" r:id="rId56" display="https://www.sts-egypt.com/" xr:uid="{C972BF91-C523-4965-96E8-2428D62F334F}"/>
-    <hyperlink ref="C47" r:id="rId57" display="mailto:info@sts-egypt.com" xr:uid="{34E9691A-2913-4026-BC3C-8AA7520CAB68}"/>
-    <hyperlink ref="A48" r:id="rId58" display="https://inovaeg.com/jobs" xr:uid="{78D3F8FA-22D8-4A75-82DD-903989586DD7}"/>
-    <hyperlink ref="A49" r:id="rId59" display="https://www.gizasystemscareers.com/en" xr:uid="{74361B15-AFC9-47EE-B3AC-F2FCCCA7FD5C}"/>
-    <hyperlink ref="A50" r:id="rId60" display="https://valeo.taleo.net/careersection/link/default.ftl?lang=en" xr:uid="{340EBC9A-321C-499B-8D1A-BE158A146414}"/>
-    <hyperlink ref="A51" r:id="rId61" display="https://dell.wd1.myworkdayjobs.com/en-US/External" xr:uid="{0A364A1F-5AF3-483E-B965-68D19F146312}"/>
-    <hyperlink ref="A52" r:id="rId62" display="https://jobs.dell.com/location/egypt-jobs/375/357994/2" xr:uid="{B5CBFBD0-1156-4C27-B514-4F3C14E65E5B}"/>
-    <hyperlink ref="A53" r:id="rId63" display="https://www.ibm.com/careers/us-en/search/?filters=primary_country:EG" xr:uid="{F413F53F-909D-4285-82C2-630DF0BF760A}"/>
-    <hyperlink ref="A54" r:id="rId64" location="/" display="https://e.huawei.com/en/talent/portal/ - /" xr:uid="{0392AD1C-D6C5-4107-9242-C1684B6E83A0}"/>
-    <hyperlink ref="A60" r:id="rId65" display="https://www.facebook.com/web.Developers.Jobs.Egypt" xr:uid="{C74B164C-0ED4-4573-B6E1-4C6DB757C371}"/>
-    <hyperlink ref="A64" r:id="rId66" display="https://itida.gov.eg/Arabic/Pages/default.aspx" xr:uid="{38CBB516-842A-4164-9C05-C6D535196E29}"/>
-    <hyperlink ref="A62" r:id="rId67" display="https://secc.org.eg/arabic/pages/default.aspx" xr:uid="{AE240F5D-438A-4A28-8E2B-CB424FE6643C}"/>
-    <hyperlink ref="A63" r:id="rId68" display="https://tiec.gov.eg/Arabic/Pages/default.aspx" xr:uid="{90974C4C-5B3B-47A0-BF91-C3E6A98CA2B6}"/>
-    <hyperlink ref="A65" r:id="rId69" display="https://www.facebook.com/Instabug" xr:uid="{A5775D45-923F-4B17-966D-81D1FB0B5303}"/>
-    <hyperlink ref="A55" r:id="rId70" xr:uid="{01679DDF-83AA-4319-BE5A-8E9862C78D74}"/>
-    <hyperlink ref="A68" r:id="rId71" display="https://www.javatpoint.com/interview-questions-and-answers" xr:uid="{2BA43989-E785-44F7-B86D-D586B2594E83}"/>
-    <hyperlink ref="B68" r:id="rId72" display="https://www.facebook.com/sou2el3amal" xr:uid="{48D706C8-3D79-437E-869B-8904F1A38EDF}"/>
-    <hyperlink ref="G68" location="Jobs!A1" display="Back &lt;--" xr:uid="{910A0D80-B5DC-464F-92D8-BD35C571B6AD}"/>
-    <hyperlink ref="C68" r:id="rId73" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{45CA1540-4F3F-491B-A863-458D827ED6D8}"/>
-    <hyperlink ref="B72" r:id="rId74" display="https://www.facebook.com/groups/402958410979164" xr:uid="{9E98DCFA-E6BA-4A05-AA25-452543EAAE39}"/>
-    <hyperlink ref="C72" r:id="rId75" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{2D0CC0E8-FA3A-48C9-8FCD-709201DDA6AC}"/>
-    <hyperlink ref="A73" r:id="rId76" display="https://www.facebook.com/groups/767725120055206" xr:uid="{71F71AFF-405C-4DC2-A0FF-A87D7917788C}"/>
-    <hyperlink ref="B69" r:id="rId77" xr:uid="{2E9C545B-F645-4A24-8E91-7BFE59466C1E}"/>
-    <hyperlink ref="D72" r:id="rId78" display="بلغ عن شركات النصب" xr:uid="{B74E46DD-F205-45CF-9F67-AA0E16883327}"/>
-    <hyperlink ref="E72" r:id="rId79" display="https://www.facebook.com/groups/253221952434585/" xr:uid="{79EB9432-7EFA-49DA-B9B5-2B6CB3FFEAF8}"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://www.carrefouregypt.com/mafegy/ar" xr:uid="{5B55F5D2-E138-4E16-A6D3-EB5A57825CC8}"/>
-    <hyperlink ref="B81" r:id="rId81" display="https://www.jumia.com.eg/ar" xr:uid="{7D18826D-C5DE-402D-BE73-694958E65A77}"/>
-    <hyperlink ref="C81" r:id="rId82" display="https://www.raneen.com/ar" xr:uid="{A7D6AD86-B5AB-4B12-BFAA-D407089499FB}"/>
-    <hyperlink ref="D81" r:id="rId83" display="https://ar.aliexpress.com/" xr:uid="{7B29632D-E4A5-4990-993C-0F54BBE4657C}"/>
-    <hyperlink ref="E81" r:id="rId84" display="https://riz.shop/" xr:uid="{EC02BF4F-24E4-4F76-8A44-B73FC82B2C8E}"/>
-    <hyperlink ref="F81" r:id="rId85" display="https://ehabcenter.com/" xr:uid="{04985C63-238D-48C5-9959-57F080E55C63}"/>
-    <hyperlink ref="A82" r:id="rId86" display="https://noon.com/egypt-ar" xr:uid="{3BC21AE9-6120-471B-B649-DA95F10DB512}"/>
-    <hyperlink ref="B82" r:id="rId87" display="https://www.valu.com.eg/home" xr:uid="{0CB3E5D6-0D05-4CE2-8F09-1A90697DBF14}"/>
-    <hyperlink ref="C82" r:id="rId88" display="https://www.facebook.com/Al.morshedy" xr:uid="{95EEF36C-7511-461B-A94B-0F31B53C2736}"/>
-    <hyperlink ref="D82" r:id="rId89" display="https://homzmart.com/" xr:uid="{6834D860-33DC-4268-B3FC-E46D363F8C14}"/>
-    <hyperlink ref="E82" r:id="rId90" display="https://lacasa-egy.com/" xr:uid="{6026C1E5-CD3E-4D67-A23C-B21BE1C342A6}"/>
-    <hyperlink ref="F82" r:id="rId91" display="https://www.facebook.com/MilanStore4phones" xr:uid="{E5B00E6B-1831-4533-B473-B39346B00B9F}"/>
-    <hyperlink ref="A83" r:id="rId92" display="https://www.elarabygroup.com/ar" xr:uid="{D10B500F-04F2-43C4-9C51-39507CB3B198}"/>
+    <hyperlink ref="G6" location="Oth.Comp!A1" display="دليل شركات" xr:uid="{23170B6D-0052-45B2-97B4-AA1CB0CACFDB}"/>
+    <hyperlink ref="A33" r:id="rId39" display="https://egfwd.com/" xr:uid="{5B7FE5DC-C5AD-4094-8331-25AC95C2055F}"/>
+    <hyperlink ref="G33" r:id="rId40" display="https://www.facebook.com/AMIT.Learning" xr:uid="{59F5BBAD-16A4-4726-B749-0D5FF7D6DBB3}"/>
+    <hyperlink ref="B34" r:id="rId41" display="https://www.facebook.com/groups/402958410979164" xr:uid="{B268C425-417E-43D3-864D-EA712BAD71A7}"/>
+    <hyperlink ref="C33" r:id="rId42" display="https://millionrowad.com/" xr:uid="{F94ABC4C-6D4C-4667-9BBD-0C015C153110}"/>
+    <hyperlink ref="E33" r:id="rId43" display="https://eduhub21.com/" xr:uid="{97F5A4FD-093A-4C1A-89B9-66BA73056522}"/>
+    <hyperlink ref="D33" r:id="rId44" display="http://techleaders.eg/" xr:uid="{4E63B5C4-59E9-4869-BD19-1E8088830769}"/>
+    <hyperlink ref="A34" r:id="rId45" display="http://techleaders.eg/aal" xr:uid="{1C099C0C-BBEE-4C89-9BCA-17BB27D1EB04}"/>
+    <hyperlink ref="F33" r:id="rId46" display="https://assess.sovaonline.com/hub/?ar=eNoBsABP_84CZZsEw2cT_eL0lv9k67svWuYqmMx7QEXe4QtavJXfTRtkVX3sz1uXETWS-hYGbqvqhEmJxIP-5-RQ1_1O5HP7hLlCvmupEhLUZqR1lOkWAUHtu2pEZojcq4uTL71lnMKG6MshdwSs7nJ2DpnelCBRKBuOrGej7dKpCseMXOwZ-vQXfCwhnMOVwiIHxweiWV_sJA7XovenneiJnZceBTUUFoGrD6Az47UIIP2FU1KMUJZaTQ==" xr:uid="{0C1058FE-BAB9-4C41-BDF8-3BEE8BBF3141}"/>
+    <hyperlink ref="D32" r:id="rId47" display="https://www.egyincs.me/" xr:uid="{7B93414B-9E2F-43E4-9550-5FDAE1DC8B92}"/>
+    <hyperlink ref="A32" r:id="rId48" display="https://www.facebook.com/groups/cseknowledgeexchange" xr:uid="{2222AF30-0A43-4280-A8A6-2D79D96D134E}"/>
+    <hyperlink ref="C32" r:id="rId49" display="https://www.facebook.com/groups/463038787444078" xr:uid="{18024996-8770-4DF3-8677-81710D152970}"/>
+    <hyperlink ref="E32" r:id="rId50" display="https://www.facebook.com/internmenow2020" xr:uid="{00EA00CA-7B4C-4EE4-822A-3680BB4BFD16}"/>
+    <hyperlink ref="G32" r:id="rId51" xr:uid="{8D288077-281C-4C5C-82C0-2E3D58D3AC59}"/>
+    <hyperlink ref="F32" r:id="rId52" xr:uid="{C0D8C43E-0366-4773-9D6C-1CFEDF801A8A}"/>
+    <hyperlink ref="B32" r:id="rId53" display="https://www.facebook.com/groups/314004286793745" xr:uid="{96D96201-75A9-4749-AB55-969BB5F2ED0C}"/>
+    <hyperlink ref="B33" r:id="rId54" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{5684784C-F2E4-475B-ACBD-5BBC1B99FDFF}"/>
+    <hyperlink ref="F36" r:id="rId55" display="https://www.egycompanies.com/" xr:uid="{324D4F45-7920-4D95-9FD9-5ECB0288C622}"/>
+    <hyperlink ref="A39" r:id="rId56" display="https://www.sts-egypt.com/" xr:uid="{C972BF91-C523-4965-96E8-2428D62F334F}"/>
+    <hyperlink ref="C39" r:id="rId57" display="mailto:info@sts-egypt.com" xr:uid="{34E9691A-2913-4026-BC3C-8AA7520CAB68}"/>
+    <hyperlink ref="A40" r:id="rId58" display="https://inovaeg.com/jobs" xr:uid="{78D3F8FA-22D8-4A75-82DD-903989586DD7}"/>
+    <hyperlink ref="A41" r:id="rId59" display="https://www.gizasystemscareers.com/en" xr:uid="{74361B15-AFC9-47EE-B3AC-F2FCCCA7FD5C}"/>
+    <hyperlink ref="A42" r:id="rId60" display="https://valeo.taleo.net/careersection/link/default.ftl?lang=en" xr:uid="{340EBC9A-321C-499B-8D1A-BE158A146414}"/>
+    <hyperlink ref="A43" r:id="rId61" display="https://dell.wd1.myworkdayjobs.com/en-US/External" xr:uid="{0A364A1F-5AF3-483E-B965-68D19F146312}"/>
+    <hyperlink ref="A44" r:id="rId62" display="https://jobs.dell.com/location/egypt-jobs/375/357994/2" xr:uid="{B5CBFBD0-1156-4C27-B514-4F3C14E65E5B}"/>
+    <hyperlink ref="A45" r:id="rId63" display="https://www.ibm.com/careers/us-en/search/?filters=primary_country:EG" xr:uid="{F413F53F-909D-4285-82C2-630DF0BF760A}"/>
+    <hyperlink ref="A46" r:id="rId64" location="/" display="https://e.huawei.com/en/talent/portal/ - /" xr:uid="{0392AD1C-D6C5-4107-9242-C1684B6E83A0}"/>
+    <hyperlink ref="A52" r:id="rId65" display="https://www.facebook.com/web.Developers.Jobs.Egypt" xr:uid="{C74B164C-0ED4-4573-B6E1-4C6DB757C371}"/>
+    <hyperlink ref="A56" r:id="rId66" display="https://itida.gov.eg/Arabic/Pages/default.aspx" xr:uid="{38CBB516-842A-4164-9C05-C6D535196E29}"/>
+    <hyperlink ref="A54" r:id="rId67" display="https://secc.org.eg/arabic/pages/default.aspx" xr:uid="{AE240F5D-438A-4A28-8E2B-CB424FE6643C}"/>
+    <hyperlink ref="A55" r:id="rId68" display="https://tiec.gov.eg/Arabic/Pages/default.aspx" xr:uid="{90974C4C-5B3B-47A0-BF91-C3E6A98CA2B6}"/>
+    <hyperlink ref="A57" r:id="rId69" display="https://www.facebook.com/Instabug" xr:uid="{A5775D45-923F-4B17-966D-81D1FB0B5303}"/>
+    <hyperlink ref="A47" r:id="rId70" xr:uid="{01679DDF-83AA-4319-BE5A-8E9862C78D74}"/>
+    <hyperlink ref="A60" r:id="rId71" display="https://www.javatpoint.com/interview-questions-and-answers" xr:uid="{2BA43989-E785-44F7-B86D-D586B2594E83}"/>
+    <hyperlink ref="B60" r:id="rId72" display="https://www.facebook.com/sou2el3amal" xr:uid="{48D706C8-3D79-437E-869B-8904F1A38EDF}"/>
+    <hyperlink ref="G60" location="Jobs!A1" display="Back &lt;--" xr:uid="{910A0D80-B5DC-464F-92D8-BD35C571B6AD}"/>
+    <hyperlink ref="C60" r:id="rId73" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{45CA1540-4F3F-491B-A863-458D827ED6D8}"/>
+    <hyperlink ref="B64" r:id="rId74" display="https://www.facebook.com/groups/402958410979164" xr:uid="{9E98DCFA-E6BA-4A05-AA25-452543EAAE39}"/>
+    <hyperlink ref="C64" r:id="rId75" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{2D0CC0E8-FA3A-48C9-8FCD-709201DDA6AC}"/>
+    <hyperlink ref="A65" r:id="rId76" display="https://www.facebook.com/groups/767725120055206" xr:uid="{71F71AFF-405C-4DC2-A0FF-A87D7917788C}"/>
+    <hyperlink ref="B61" r:id="rId77" xr:uid="{2E9C545B-F645-4A24-8E91-7BFE59466C1E}"/>
+    <hyperlink ref="D64" r:id="rId78" display="بلغ عن شركات النصب" xr:uid="{B74E46DD-F205-45CF-9F67-AA0E16883327}"/>
+    <hyperlink ref="E64" r:id="rId79" display="https://www.facebook.com/groups/253221952434585/" xr:uid="{79EB9432-7EFA-49DA-B9B5-2B6CB3FFEAF8}"/>
+    <hyperlink ref="A73" r:id="rId80" display="https://www.carrefouregypt.com/mafegy/ar" xr:uid="{5B55F5D2-E138-4E16-A6D3-EB5A57825CC8}"/>
+    <hyperlink ref="B73" r:id="rId81" display="https://www.jumia.com.eg/ar" xr:uid="{7D18826D-C5DE-402D-BE73-694958E65A77}"/>
+    <hyperlink ref="C73" r:id="rId82" display="https://www.raneen.com/ar" xr:uid="{A7D6AD86-B5AB-4B12-BFAA-D407089499FB}"/>
+    <hyperlink ref="D73" r:id="rId83" display="https://ar.aliexpress.com/" xr:uid="{7B29632D-E4A5-4990-993C-0F54BBE4657C}"/>
+    <hyperlink ref="E73" r:id="rId84" display="https://riz.shop/" xr:uid="{EC02BF4F-24E4-4F76-8A44-B73FC82B2C8E}"/>
+    <hyperlink ref="F73" r:id="rId85" display="https://ehabcenter.com/" xr:uid="{04985C63-238D-48C5-9959-57F080E55C63}"/>
+    <hyperlink ref="A74" r:id="rId86" display="https://noon.com/egypt-ar" xr:uid="{3BC21AE9-6120-471B-B649-DA95F10DB512}"/>
+    <hyperlink ref="B74" r:id="rId87" display="https://www.valu.com.eg/home" xr:uid="{0CB3E5D6-0D05-4CE2-8F09-1A90697DBF14}"/>
+    <hyperlink ref="C74" r:id="rId88" display="https://www.facebook.com/Al.morshedy" xr:uid="{95EEF36C-7511-461B-A94B-0F31B53C2736}"/>
+    <hyperlink ref="D74" r:id="rId89" display="https://homzmart.com/" xr:uid="{6834D860-33DC-4268-B3FC-E46D363F8C14}"/>
+    <hyperlink ref="E74" r:id="rId90" display="https://lacasa-egy.com/" xr:uid="{6026C1E5-CD3E-4D67-A23C-B21BE1C342A6}"/>
+    <hyperlink ref="F74" r:id="rId91" display="https://www.facebook.com/MilanStore4phones" xr:uid="{E5B00E6B-1831-4533-B473-B39346B00B9F}"/>
+    <hyperlink ref="A75" r:id="rId92" display="https://www.elarabygroup.com/ar" xr:uid="{D10B500F-04F2-43C4-9C51-39507CB3B198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5549999C-E578-4234-8F52-C87BE36B46AE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8318,82 +8621,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1" s="178" t="s">
-        <v>679</v>
-      </c>
-      <c r="C1" s="174" t="s">
-        <v>678</v>
+      <c r="A1" s="175" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="175" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="171" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="177" t="s">
-        <v>677</v>
-      </c>
-      <c r="B2" s="175" t="s">
-        <v>676</v>
-      </c>
-      <c r="C2" s="174"/>
+      <c r="A2" s="174" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" s="171"/>
     </row>
     <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
-        <v>675</v>
-      </c>
-      <c r="B3" s="175" t="s">
-        <v>674</v>
-      </c>
-      <c r="C3" s="176" t="s">
-        <v>673</v>
+      <c r="A3" s="172" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="172" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4" s="175" t="s">
-        <v>671</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>670</v>
+      <c r="A4" s="172" t="s">
+        <v>667</v>
+      </c>
+      <c r="B4" s="172" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175" t="s">
-        <v>669</v>
-      </c>
-      <c r="B5" s="175" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" s="174"/>
+      <c r="A5" s="172" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>663</v>
+      </c>
+      <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
-        <v>667</v>
-      </c>
-      <c r="B6" s="175" t="s">
-        <v>666</v>
-      </c>
-      <c r="C6" s="174" t="s">
-        <v>665</v>
+      <c r="A6" s="172" t="s">
+        <v>662</v>
+      </c>
+      <c r="B6" s="172" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="171" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>664</v>
-      </c>
-      <c r="B7" s="175" t="s">
-        <v>663</v>
-      </c>
-      <c r="C7" s="174"/>
+      <c r="A7" s="172" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="172" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="270" t="s">
-        <v>662</v>
-      </c>
-      <c r="B8" s="271"/>
-      <c r="C8" s="174"/>
+      <c r="A8" s="265" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="266"/>
+      <c r="C8" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8407,7 +8710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7DE2B-0259-424A-B2BB-9A2C47A35DC5}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -8417,104 +8720,104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="209" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="209" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="209" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="209" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="209" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="209" customWidth="1"/>
-    <col min="7" max="9" width="0" style="209" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="209" hidden="1"/>
+    <col min="1" max="1" width="39.42578125" style="205" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="205" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="205" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="205" customWidth="1"/>
+    <col min="7" max="9" width="0" style="205" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="205" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="205" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+    <row r="1" spans="1:6" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="201" t="s">
+        <v>805</v>
+      </c>
+      <c r="B1" s="201" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1" s="201" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1" s="201" t="s">
+        <v>815</v>
+      </c>
+      <c r="E1" s="201" t="s">
+        <v>808</v>
+      </c>
+      <c r="F1" s="206" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" s="204"/>
+      <c r="E2" s="120" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="204"/>
+      <c r="B3" s="203" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="203" t="s">
+        <v>813</v>
+      </c>
+      <c r="D3" s="204"/>
+      <c r="E3" s="120" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="204"/>
+      <c r="B4" s="203" t="s">
+        <v>811</v>
+      </c>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="120" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="204"/>
+      <c r="B5" s="203" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="205" t="s">
-        <v>812</v>
-      </c>
-      <c r="C1" s="205" t="s">
-        <v>809</v>
-      </c>
-      <c r="D1" s="205" t="s">
-        <v>820</v>
-      </c>
-      <c r="E1" s="205" t="s">
-        <v>813</v>
-      </c>
-      <c r="F1" s="210" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
-        <v>799</v>
-      </c>
-      <c r="B2" s="207" t="s">
-        <v>797</v>
-      </c>
-      <c r="C2" s="207" t="s">
+      <c r="D5" s="204"/>
+      <c r="E5" s="120" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="204"/>
+      <c r="D6" s="204"/>
+    </row>
+    <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="204"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+    </row>
+    <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="267" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" s="267"/>
+      <c r="C8" s="201" t="s">
         <v>814</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="120" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="208"/>
-      <c r="B3" s="207" t="s">
-        <v>817</v>
-      </c>
-      <c r="C3" s="207" t="s">
-        <v>818</v>
-      </c>
-      <c r="D3" s="208"/>
-      <c r="E3" s="120" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="208"/>
-      <c r="B4" s="207" t="s">
-        <v>816</v>
-      </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="120" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
-      <c r="B5" s="207" t="s">
-        <v>815</v>
-      </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="120" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="208"/>
-      <c r="D6" s="208"/>
-    </row>
-    <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-    </row>
-    <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="272" t="s">
-        <v>811</v>
-      </c>
-      <c r="B8" s="272"/>
-      <c r="C8" s="205" t="s">
-        <v>819</v>
-      </c>
-      <c r="D8" s="208"/>
+      <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
@@ -8531,52 +8834,52 @@
       <c r="B10" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="208"/>
+      <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>802</v>
-      </c>
-      <c r="D11" s="208"/>
-      <c r="E11" s="208" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208" t="s">
-        <v>801</v>
+      <c r="B12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="120"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208" t="s">
-        <v>807</v>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="208"/>
-      <c r="B14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208" t="s">
-        <v>808</v>
+      <c r="A14" s="204"/>
+      <c r="B14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="120"/>
       <c r="B15" s="120"/>
       <c r="D15" s="120"/>
-      <c r="E15" s="208"/>
+      <c r="E15" s="204"/>
     </row>
     <row r="16" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
@@ -8635,158 +8938,158 @@
       <c r="E23" s="120"/>
     </row>
     <row r="24" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="208"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
     </row>
     <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="208"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
     </row>
     <row r="26" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="208"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="208"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="208"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
     </row>
     <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="208"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
     </row>
     <row r="29" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="208"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="208"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
     </row>
     <row r="30" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
+      <c r="A30" s="204"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
     </row>
     <row r="31" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="208"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="204"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
     </row>
     <row r="32" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="208"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="208"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
     </row>
     <row r="33" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="208"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="208"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
     </row>
     <row r="34" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="208"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="208"/>
-      <c r="E34" s="208"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
     </row>
     <row r="35" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="204"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="208"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="204"/>
+      <c r="C36" s="204"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
     </row>
     <row r="37" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="208"/>
-      <c r="B37" s="208"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="204"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
     </row>
     <row r="38" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="208"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
+      <c r="A38" s="204"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
     </row>
     <row r="39" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="208"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
     </row>
     <row r="40" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="208"/>
-      <c r="B40" s="208"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="208"/>
-      <c r="E40" s="208"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
     </row>
     <row r="41" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="208"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
     </row>
     <row r="42" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="208"/>
-      <c r="B42" s="208"/>
-      <c r="C42" s="208"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="208"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
     </row>
     <row r="43" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
-      <c r="E43" s="208"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
     </row>
     <row r="44" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="204"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="204"/>
     </row>
     <row r="45" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="208"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="208"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="208"/>
+      <c r="A45" s="204"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8813,7 +9116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C25B2-BD25-4D56-89FD-7E7E1C826C18}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -8827,164 +9130,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="207" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="207" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" s="207" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="207" t="s">
+        <v>819</v>
+      </c>
+      <c r="B2" s="207" t="s">
+        <v>820</v>
+      </c>
+      <c r="C2" s="207" t="s">
         <v>821</v>
-      </c>
-      <c r="B1" s="211" t="s">
-        <v>822</v>
-      </c>
-      <c r="C1" s="211" t="s">
-        <v>823</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211" t="s">
-        <v>824</v>
-      </c>
-      <c r="B2" s="211" t="s">
-        <v>825</v>
-      </c>
-      <c r="C2" s="211" t="s">
-        <v>826</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="208" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="207" t="s">
+        <v>823</v>
+      </c>
+      <c r="C3" s="207" t="s">
+        <v>818</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="207" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4" s="207" t="s">
+        <v>825</v>
+      </c>
+      <c r="C4" s="208" t="s">
+        <v>828</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="207" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" s="207" t="s">
         <v>827</v>
       </c>
-      <c r="B3" s="211" t="s">
-        <v>828</v>
-      </c>
-      <c r="C3" s="211" t="s">
-        <v>823</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="211" t="s">
+      <c r="C5" s="207" t="s">
         <v>829</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="207" t="s">
         <v>830</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="B6" s="207" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="207" t="s">
+        <v>832</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="207" t="s">
         <v>833</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="211" t="s">
-        <v>831</v>
-      </c>
-      <c r="B5" s="211" t="s">
-        <v>832</v>
-      </c>
-      <c r="C5" s="211" t="s">
+      <c r="B7" s="207" t="s">
         <v>834</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="211" t="s">
+      <c r="C7" s="207" t="s">
         <v>835</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="208" t="s">
         <v>836</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="B8" s="207" t="s">
+        <v>843</v>
+      </c>
+      <c r="C8" s="207" t="s">
         <v>837</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="211" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="207" t="s">
         <v>838</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B9" s="207" t="s">
         <v>839</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C9" s="207" t="s">
         <v>840</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="212" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207" t="s">
         <v>841</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B10" s="207" t="s">
+        <v>842</v>
+      </c>
+      <c r="C10" s="207" t="s">
+        <v>843</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="208" t="s">
+        <v>844</v>
+      </c>
+      <c r="B11" s="207" t="s">
+        <v>847</v>
+      </c>
+      <c r="C11" s="207" t="s">
+        <v>845</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="207" t="s">
+        <v>846</v>
+      </c>
+      <c r="B12" s="207" t="s">
+        <v>842</v>
+      </c>
+      <c r="C12" s="207" t="s">
         <v>848</v>
       </c>
-      <c r="C8" s="211" t="s">
-        <v>842</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
-        <v>843</v>
-      </c>
-      <c r="B9" s="211" t="s">
-        <v>844</v>
-      </c>
-      <c r="C9" s="211" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="207" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" s="207" t="s">
         <v>845</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211" t="s">
-        <v>846</v>
-      </c>
-      <c r="B10" s="211" t="s">
-        <v>847</v>
-      </c>
-      <c r="C10" s="211" t="s">
-        <v>848</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="212" t="s">
-        <v>849</v>
-      </c>
-      <c r="B11" s="211" t="s">
-        <v>852</v>
-      </c>
-      <c r="C11" s="211" t="s">
-        <v>850</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
-        <v>851</v>
-      </c>
-      <c r="B12" s="211" t="s">
-        <v>847</v>
-      </c>
-      <c r="C12" s="211" t="s">
-        <v>853</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="211" t="s">
-        <v>846</v>
-      </c>
-      <c r="B13" s="211" t="s">
-        <v>850</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211" t="s">
-        <v>849</v>
+      <c r="A14" s="207" t="s">
+        <v>844</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8999,16 +9302,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351CB7F5-0732-4C7D-AB4A-38AEE92C8DA0}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EABE8F6-4A32-498B-B882-928553FE5363}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{67D9A7D7-13E8-4CBB-AB6B-496CD8B2A24A}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{85A498E3-BF2D-4555-BA26-8984512F2849}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{7F96FF10-E0A4-4296-9746-8497F280E6A9}"/>
+    <hyperlink ref="B1" r:id="rId4" xr:uid="{04A596D0-C798-4281-A4B2-B0CC6351F864}"/>
+    <hyperlink ref="E1" r:id="rId5" display="lumalabs" xr:uid="{6F636338-DC00-4072-8F05-938FC38DCE6D}"/>
+    <hyperlink ref="F1" r:id="rId6" xr:uid="{A7DB4B4A-6F74-42AD-83F8-0AAB6C08A6D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351CB7F5-0732-4C7D-AB4A-38AEE92C8DA0}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -9024,8 +9435,11 @@
       <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -9039,10 +9453,13 @@
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="93" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -9053,13 +9470,16 @@
         <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="93" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -9070,53 +9490,44 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="116.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9129,30 +9540,30 @@
     <hyperlink ref="B2" r:id="rId7" display="https://www.curata.com/" xr:uid="{30C2FBC9-ADD6-41DF-8D7D-622941F24843}"/>
     <hyperlink ref="C2" r:id="rId8" display="https://answerthepublic.com/" xr:uid="{CD381823-77A4-4273-978F-CDF517FBE952}"/>
     <hyperlink ref="D2" r:id="rId9" display="https://www.iab.com/" xr:uid="{1499867C-52B4-408D-92C7-A591E54D7B44}"/>
-    <hyperlink ref="E2" r:id="rId10" display="https://unbounce.com/" xr:uid="{5C134868-6CB2-48FB-B4BE-232714B71760}"/>
+    <hyperlink ref="F1" r:id="rId10" display="https://unbounce.com/" xr:uid="{5C134868-6CB2-48FB-B4BE-232714B71760}"/>
     <hyperlink ref="A3" r:id="rId11" display="https://www.scoop.it/" xr:uid="{CF39CDF8-2C87-41EB-9589-992B2CA87AFC}"/>
     <hyperlink ref="B3" r:id="rId12" display="https://www.optimizely.com/" xr:uid="{02CBC964-4B24-4884-B5B6-F9273B7F067C}"/>
     <hyperlink ref="C3" r:id="rId13" display="https://bitly.com/" xr:uid="{16AE793A-D5BD-442C-9895-5CE0F58A99E5}"/>
-    <hyperlink ref="D3" r:id="rId14" display="https://www.brandbucket.com/names" xr:uid="{80B0C519-709E-4C31-A1BC-CE087A448948}"/>
-    <hyperlink ref="E3" r:id="rId15" display="https://trends.google.com/trends/story/US_cu_b4fsy3IBAADxzM_en" xr:uid="{49F0A6B0-52D4-44C7-B84F-352AA0F4E333}"/>
+    <hyperlink ref="E2" r:id="rId14" display="https://www.brandbucket.com/names" xr:uid="{80B0C519-709E-4C31-A1BC-CE087A448948}"/>
+    <hyperlink ref="F2" r:id="rId15" display="https://trends.google.com/trends/story/US_cu_b4fsy3IBAADxzM_en" xr:uid="{49F0A6B0-52D4-44C7-B84F-352AA0F4E333}"/>
     <hyperlink ref="A4" r:id="rId16" display="https://feedly.com/i/welcome" xr:uid="{BD204EDA-907A-4D65-8327-9F78464B2818}"/>
     <hyperlink ref="B4" r:id="rId17" display="https://backlinko.com/hub/content/repurposing" xr:uid="{C49A0E29-FDFC-4961-AA10-301C220A94D5}"/>
     <hyperlink ref="C4" r:id="rId18" display="https://www.betterment.com/" xr:uid="{BBA87353-0F89-4BED-8B55-76706B7F8EDC}"/>
-    <hyperlink ref="D4" r:id="rId19" display="https://growthhackers.com/posts" xr:uid="{74065AEC-06EA-451F-BA78-A76EDBE7DDFB}"/>
-    <hyperlink ref="E4" r:id="rId20" display="https://www.spiderstrategies.com/kpi" xr:uid="{48D3FFA2-D0FD-429C-812E-A310E7C85C53}"/>
+    <hyperlink ref="D3" r:id="rId19" display="https://growthhackers.com/posts" xr:uid="{74065AEC-06EA-451F-BA78-A76EDBE7DDFB}"/>
+    <hyperlink ref="E3" r:id="rId20" display="https://www.spiderstrategies.com/kpi" xr:uid="{48D3FFA2-D0FD-429C-812E-A310E7C85C53}"/>
     <hyperlink ref="A5" r:id="rId21" display="https://ga-dev-tools.appspot.com/campaign-url-builder" xr:uid="{8BBD85A3-8C4A-4731-9684-9E1FB344D23E}"/>
-    <hyperlink ref="B5" r:id="rId22" display="https://www.portent.com/tools/title-maker" xr:uid="{F5FD3F48-3C50-4101-B8FA-D5F172AF0F62}"/>
-    <hyperlink ref="C5" r:id="rId23" display="https://www.strategyzer.com/" xr:uid="{B534C035-5033-4C1A-92F7-486EB4927FF2}"/>
-    <hyperlink ref="D5" r:id="rId24" display="https://pixabay.com/" xr:uid="{CABF9B73-FB0A-4B32-820B-F8B048ED8C6C}"/>
-    <hyperlink ref="E5" r:id="rId25" display="https://www.flickr.com/explore" xr:uid="{5D2F8BA2-E15D-4AB5-B096-A62B505EB9ED}"/>
-    <hyperlink ref="A7" r:id="rId26" display="https://www.facebook.com/groups/yallamarketingegypt" xr:uid="{FDB10270-7848-4471-9802-C5B7C21CFCC0}"/>
-    <hyperlink ref="E8" location="'0'!A1" display="Back" xr:uid="{BADD3BBE-FFDD-497F-8DA1-FBFC96BDC341}"/>
+    <hyperlink ref="E4" r:id="rId22" display="https://www.portent.com/tools/title-maker" xr:uid="{F5FD3F48-3C50-4101-B8FA-D5F172AF0F62}"/>
+    <hyperlink ref="F4" r:id="rId23" display="https://www.strategyzer.com/" xr:uid="{B534C035-5033-4C1A-92F7-486EB4927FF2}"/>
+    <hyperlink ref="F3" r:id="rId24" display="https://pixabay.com/" xr:uid="{CABF9B73-FB0A-4B32-820B-F8B048ED8C6C}"/>
+    <hyperlink ref="D4" r:id="rId25" display="https://www.flickr.com/explore" xr:uid="{5D2F8BA2-E15D-4AB5-B096-A62B505EB9ED}"/>
+    <hyperlink ref="B5" r:id="rId26" display="https://www.facebook.com/groups/yallamarketingegypt" xr:uid="{FDB10270-7848-4471-9802-C5B7C21CFCC0}"/>
+    <hyperlink ref="F6" location="'0'!A1" display="Back" xr:uid="{BADD3BBE-FFDD-497F-8DA1-FBFC96BDC341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EBAE04-CE5D-484A-B110-BB80EB69EBB2}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -9332,10 +9743,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9347,7 +9758,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9361,7 +9772,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9370,10 +9781,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9382,10 +9793,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9394,10 +9805,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="117" t="s">
         <v>515</v>
-      </c>
-      <c r="B22" s="117" t="s">
-        <v>516</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9457,7 +9868,7 @@
         <v>144</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9602,12 +10013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131FDDF8-672D-481C-98BD-73BCE07A5B98}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9717,12 +10128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF34A33-1541-472F-8CDA-F0757201BC40}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9837,22 +10248,22 @@
         <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="222"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="217"/>
     </row>
     <row r="6" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -9901,22 +10312,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="222"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="217"/>
     </row>
     <row r="9" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>224</v>
@@ -9939,10 +10350,10 @@
         <v>229</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>231</v>
@@ -9952,15 +10363,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220"/>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="222"/>
+      <c r="A11" s="215"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="217"/>
     </row>
     <row r="12" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -9979,7 +10390,7 @@
         <v>236</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>243</v>
@@ -10184,7 +10595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A93-9C4A-4E25-9D64-A0FBE0508D58}">
   <dimension ref="A1:M39"/>
   <sheetViews>
@@ -10217,27 +10628,27 @@
       <c r="B1" s="147" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="237" t="s">
+      <c r="D1" s="232" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="238"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="229" t="s">
-        <v>546</v>
-      </c>
-      <c r="H1" s="230"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="233" t="s">
+      <c r="E1" s="233"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="224" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="225"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="M1" s="231" t="s">
+      <c r="K1" s="229"/>
+      <c r="M1" s="226" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="127">
         <v>77.5</v>
@@ -10248,43 +10659,43 @@
       <c r="E2" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="225"/>
+      <c r="F2" s="220"/>
       <c r="G2" s="144" t="s">
         <v>260</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
-      <c r="I2" s="225"/>
+      <c r="I2" s="220"/>
       <c r="J2" s="139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K2" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="M2" s="232"/>
+      <c r="M2" s="227"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3" s="127">
         <v>98</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E3" s="14">
         <v>132</v>
       </c>
-      <c r="F3" s="225"/>
+      <c r="F3" s="220"/>
       <c r="G3" s="144" t="s">
         <v>263</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
-      <c r="I3" s="225"/>
+      <c r="I3" s="220"/>
       <c r="J3" s="139" t="s">
         <v>270</v>
       </c>
@@ -10305,19 +10716,19 @@
       <c r="E4" s="14">
         <v>120</v>
       </c>
-      <c r="F4" s="225"/>
+      <c r="F4" s="220"/>
       <c r="G4" s="144" t="s">
         <v>267</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
-      <c r="I4" s="225"/>
+      <c r="I4" s="220"/>
       <c r="J4" s="139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K4" s="140" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10333,14 +10744,14 @@
       <c r="E5" s="15">
         <v>128</v>
       </c>
-      <c r="F5" s="225"/>
+      <c r="F5" s="220"/>
       <c r="G5" s="144" t="s">
         <v>275</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
-      <c r="I5" s="225"/>
+      <c r="I5" s="220"/>
       <c r="J5" s="139" t="s">
         <v>278</v>
       </c>
@@ -10350,69 +10761,69 @@
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B6" s="127"/>
       <c r="D6" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="225"/>
+      <c r="F6" s="220"/>
       <c r="G6" s="144" t="s">
         <v>276</v>
       </c>
       <c r="H6" s="145" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="225"/>
+      <c r="I6" s="220"/>
       <c r="J6" s="141" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B7" s="127"/>
       <c r="D7" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="225"/>
+      <c r="F7" s="220"/>
       <c r="G7" s="144" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>612</v>
-      </c>
-      <c r="I7" s="225"/>
+        <v>611</v>
+      </c>
+      <c r="I7" s="220"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8" s="111" t="s">
         <v>283</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="225"/>
+      <c r="F8" s="220"/>
       <c r="G8" s="144" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H8" s="145"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="226" t="s">
-        <v>570</v>
-      </c>
-      <c r="K8" s="226"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="221" t="s">
+        <v>569</v>
+      </c>
+      <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
@@ -10422,22 +10833,22 @@
         <v>283</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="225"/>
+      <c r="F9" s="220"/>
       <c r="G9" s="144" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>611</v>
-      </c>
-      <c r="I9" s="225"/>
+        <v>610</v>
+      </c>
+      <c r="I9" s="220"/>
       <c r="J9" s="131" t="s">
         <v>272</v>
       </c>
       <c r="K9" s="131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10447,19 +10858,19 @@
       <c r="E10" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="225"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="144" t="s">
+        <v>612</v>
+      </c>
+      <c r="H10" s="145" t="s">
         <v>613</v>
       </c>
-      <c r="H10" s="145" t="s">
-        <v>614</v>
-      </c>
-      <c r="I10" s="225"/>
+      <c r="I10" s="220"/>
       <c r="J10" s="131" t="s">
+        <v>560</v>
+      </c>
+      <c r="K10" s="131" t="s">
         <v>561</v>
-      </c>
-      <c r="K10" s="131" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10475,24 +10886,24 @@
       <c r="E11" s="14">
         <v>143</v>
       </c>
-      <c r="F11" s="225"/>
-      <c r="I11" s="225"/>
+      <c r="F11" s="220"/>
+      <c r="I11" s="220"/>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="235" t="s">
+      <c r="F12" s="220"/>
+      <c r="G12" s="230" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="236"/>
-      <c r="I12" s="225"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="220"/>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
     </row>
@@ -10509,14 +10920,14 @@
       <c r="E13" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="225"/>
+      <c r="F13" s="220"/>
       <c r="G13" s="136" t="s">
         <v>262</v>
       </c>
       <c r="H13" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="225"/>
+      <c r="I13" s="220"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
@@ -10531,14 +10942,14 @@
       <c r="E14" s="14">
         <v>120</v>
       </c>
-      <c r="F14" s="225"/>
+      <c r="F14" s="220"/>
       <c r="G14" s="136" t="s">
         <v>269</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>559</v>
-      </c>
-      <c r="I14" s="225"/>
+        <v>558</v>
+      </c>
+      <c r="I14" s="220"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
@@ -10549,19 +10960,19 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="225"/>
+      <c r="F15" s="220"/>
       <c r="G15" s="136" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H15" s="137" t="s">
-        <v>566</v>
-      </c>
-      <c r="I15" s="225"/>
+        <v>565</v>
+      </c>
+      <c r="I15" s="220"/>
       <c r="J15" s="107" t="s">
+        <v>552</v>
+      </c>
+      <c r="K15" s="107" t="s">
         <v>553</v>
-      </c>
-      <c r="K15" s="107" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10571,14 +10982,14 @@
       <c r="B16" s="153" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="225"/>
+      <c r="F16" s="220"/>
       <c r="G16" s="136" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H16" s="136" t="s">
-        <v>594</v>
-      </c>
-      <c r="I16" s="225"/>
+        <v>593</v>
+      </c>
+      <c r="I16" s="220"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
     </row>
@@ -10595,14 +11006,14 @@
       <c r="E17" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="225"/>
+      <c r="F17" s="220"/>
       <c r="G17" s="138" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>595</v>
-      </c>
-      <c r="I17" s="225"/>
+        <v>594</v>
+      </c>
+      <c r="I17" s="220"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
     </row>
@@ -10613,12 +11024,12 @@
       <c r="E18" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F18" s="225"/>
-      <c r="I18" s="225"/>
+      <c r="F18" s="220"/>
+      <c r="I18" s="220"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B19" s="128" t="s">
         <v>256</v>
@@ -10629,16 +11040,16 @@
       <c r="E19" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="F19" s="225"/>
-      <c r="G19" s="227" t="s">
-        <v>545</v>
-      </c>
-      <c r="H19" s="228"/>
-      <c r="I19" s="225"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="222" t="s">
+        <v>544</v>
+      </c>
+      <c r="H19" s="223"/>
+      <c r="I19" s="220"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="21" t="s">
@@ -10647,65 +11058,65 @@
       <c r="E20" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F20" s="225"/>
+      <c r="F20" s="220"/>
       <c r="G20" s="124" t="s">
         <v>285</v>
       </c>
       <c r="H20" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="225"/>
+      <c r="I20" s="220"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="225"/>
+      <c r="F21" s="220"/>
       <c r="G21" s="124" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H21" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I21" s="225"/>
+      <c r="I21" s="220"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="225"/>
+      <c r="F22" s="220"/>
       <c r="G22" s="124"/>
       <c r="H22" s="70"/>
-      <c r="I22" s="225"/>
+      <c r="I22" s="220"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="21" t="s">
         <v>297</v>
       </c>
       <c r="E23" s="30"/>
-      <c r="F23" s="225"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="124"/>
       <c r="H23" s="70"/>
-      <c r="I23" s="225"/>
+      <c r="I23" s="220"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="28" t="s">
@@ -10714,22 +11125,22 @@
       <c r="E24" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="225"/>
+      <c r="F24" s="220"/>
       <c r="G24" s="143" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H24" s="67"/>
-      <c r="I24" s="225"/>
+      <c r="I24" s="220"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B25" s="80"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B26" s="80"/>
     </row>
@@ -10755,10 +11166,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="239" t="s">
+      <c r="A30" s="234" t="s">
         <v>287</v>
       </c>
-      <c r="B30" s="240"/>
+      <c r="B30" s="235"/>
       <c r="G30" s="135" t="s">
         <v>314</v>
       </c>
@@ -10827,10 +11238,10 @@
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="223" t="s">
+      <c r="A39" s="218" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="224"/>
+      <c r="B39" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10859,11 +11270,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407928FC-3F3D-40A9-A482-DAE5DC3CE4C9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -10871,25 +11282,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="C1" s="156" t="s">
         <v>572</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="D1" s="156" t="s">
         <v>573</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="E1" s="156" t="s">
         <v>574</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="F1" s="156" t="s">
         <v>575</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="G1" s="156" t="s">
         <v>576</v>
-      </c>
-      <c r="G1" s="156" t="s">
-        <v>577</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>70</v>
@@ -10897,61 +11308,61 @@
     </row>
     <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="156" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="C2" s="156" t="s">
         <v>579</v>
-      </c>
-      <c r="C2" s="156" t="s">
-        <v>580</v>
       </c>
       <c r="D2" s="157"/>
       <c r="E2" s="156" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F2" s="158"/>
       <c r="G2" s="159" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="156" t="s">
         <v>583</v>
-      </c>
-      <c r="B3" s="156" t="s">
-        <v>584</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="156" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
       <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="241" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
+      <c r="A4" s="236" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
       <c r="F4" s="158"/>
       <c r="G4" s="158"/>
       <c r="H4" s="160"/>
     </row>
     <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" s="161" t="s">
         <v>587</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="C5" s="161" t="s">
         <v>588</v>
-      </c>
-      <c r="C5" s="161" t="s">
-        <v>589</v>
       </c>
       <c r="D5" s="162" t="s">
         <v>137</v>
@@ -10963,15 +11374,15 @@
     </row>
     <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="161" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="163" t="s">
         <v>590</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>591</v>
       </c>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F6" s="158"/>
       <c r="G6" s="158"/>
@@ -11010,7 +11421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B73DE-53F2-44B5-9617-ECC017AFCAD6}">
   <dimension ref="B1:N23"/>
   <sheetViews>
@@ -11042,14 +11453,14 @@
       <c r="D1" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="242" t="s">
+      <c r="F1" s="237" t="s">
         <v>70</v>
       </c>
       <c r="I1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="243"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -11116,17 +11527,17 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="245" t="s">
-        <v>683</v>
-      </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
+      <c r="B15" s="240" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" s="240"/>
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="240"/>
     </row>
     <row r="16" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>259</v>
@@ -11134,10 +11545,10 @@
       <c r="D16" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="E16" s="244" t="s">
+      <c r="E16" s="239" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="244"/>
+      <c r="F16" s="239"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
@@ -11251,359 +11662,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC2E5-A839-4CFE-81CB-B3D389005C51}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="25" style="44" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="24" style="44" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>404</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>403</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" s="87" t="s">
-        <v>401</v>
-      </c>
-      <c r="K1" s="242" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="249" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="263" t="s">
-        <v>397</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" s="83"/>
-      <c r="K2" s="243"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="249"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="264"/>
-      <c r="F3" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>391</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="249"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="53"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="78">
-        <v>44</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="K4" s="251" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="249"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="53"/>
-      <c r="E5" s="254" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>383</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="K5" s="252"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="249"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="249" t="s">
-        <v>383</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="249"/>
-      <c r="B8" s="260" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="257" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="261">
-        <v>1.8229166666666667</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="258"/>
-      <c r="F9" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="G9" s="262"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="61"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="249"/>
-      <c r="B10" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="249" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="E11" s="259" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" s="250" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="249"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="53"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I12" s="250"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="249"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="53"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="57"/>
-      <c r="I13" s="250"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="249"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="53"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="57"/>
-      <c r="I14" s="55" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="249"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="53"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="56"/>
-      <c r="I15" s="55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="249" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="53"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="53"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="253"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="246" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="247"/>
-      <c r="C22" s="248"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>358</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E2:E4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{B988A63C-7553-41F6-967C-BC88E6F5E3DD}"/>
-    <hyperlink ref="B8:B9" r:id="rId2" display="الحفاظ علي البنطلون الجينس" xr:uid="{880237D1-1B91-4C64-A6CC-22BC2270CA94}"/>
-    <hyperlink ref="B11" r:id="rId3" display="انواع الريحة لازم في الخطوبة" xr:uid="{B7F74BA0-EC89-4678-95F7-816C16AFC981}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{31AFDD69-1797-4DAD-8122-5ED1B8D405D5}"/>
-    <hyperlink ref="K1" location="Food!A1" display="رجوع" xr:uid="{6CB8AB43-919C-4D43-A984-3DA84D1F460C}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{6B4AFA1A-2287-47DD-875E-678BCED22632}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{698456EB-C81D-445D-9CE2-1B1D1C262E82}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{C73669CA-12C8-4426-9434-BBBFFBC26F01}"/>
-    <hyperlink ref="K4:K5" location="Suit!A1" display="Good Suit" xr:uid="{7F379537-317A-44E4-8081-EAD6202FE71E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
-</worksheet>
 </file>
--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87DDF9-0012-492D-BC00-72D15AA42051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8758C8-24EA-4AAC-B454-B37DDA1A7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="862">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -399,9 +399,6 @@
     <t>7ESL Learning English</t>
   </si>
   <si>
-    <t>وليد عيسي</t>
-  </si>
-  <si>
     <t>الجزيرة الوثائقية</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>DW وثائقية</t>
   </si>
   <si>
-    <t>DR. Same7 8zaly</t>
-  </si>
-  <si>
     <t>Alaa Elwakil</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>محمود علام</t>
   </si>
   <si>
-    <t>عمرو عبدالعزيز</t>
-  </si>
-  <si>
     <t>ميسم مجدي</t>
   </si>
   <si>
@@ -495,9 +486,6 @@
     <t>محمد صبري</t>
   </si>
   <si>
-    <t>Pinterest</t>
-  </si>
-  <si>
     <t>تامر احمد</t>
   </si>
   <si>
@@ -573,12 +561,6 @@
     <t>وزارة الداخلية F</t>
   </si>
   <si>
-    <t>عبدالسلام محمد</t>
-  </si>
-  <si>
-    <t>مصطفى جمال</t>
-  </si>
-  <si>
     <t>احمد رجب</t>
   </si>
   <si>
@@ -586,18 +568,6 @@
   </si>
   <si>
     <t>فارماستان</t>
-  </si>
-  <si>
-    <t>احمد كامل</t>
-  </si>
-  <si>
-    <t>Medical Streaming</t>
-  </si>
-  <si>
-    <t>Good Clinic</t>
-  </si>
-  <si>
-    <t>جودة محمد</t>
   </si>
   <si>
     <t>الدكتور</t>
@@ -2975,6 +2945,18 @@
   </si>
   <si>
     <t>الشيخ عبد الرزاق البدر</t>
+  </si>
+  <si>
+    <t>GlassDoor</t>
+  </si>
+  <si>
+    <t>AdpList</t>
+  </si>
+  <si>
+    <t>SRI Hash Generator</t>
+  </si>
+  <si>
+    <t>Personal Finance EG</t>
   </si>
 </sst>
 </file>
@@ -5662,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5689,137 +5671,133 @@
         <v>2</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D1" s="200" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F1" s="200" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="H1" s="200" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="I1" s="119" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>491</v>
+        <v>130</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G2" s="120" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H2" s="120" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="I2" s="200" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>140</v>
+        <v>840</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>143</v>
+        <v>841</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>850</v>
+        <v>133</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>851</v>
+        <v>131</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H3" s="120" t="s">
-        <v>138</v>
+        <v>530</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>135</v>
+        <v>843</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C4" s="120" t="s">
-        <v>148</v>
+        <v>846</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>540</v>
+        <v>852</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G4" s="120" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I4" s="200" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
-        <v>142</v>
+        <v>844</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C5" s="120" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>855</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>856</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>862</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="120"/>
       <c r="H5" s="120"/>
       <c r="I5" s="119" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5835,563 +5813,542 @@
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>174</v>
+        <v>855</v>
       </c>
       <c r="C7" s="120" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" s="120" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E7" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>180</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="200" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="214" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+    </row>
+    <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="120"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="214" t="s">
+        <v>780</v>
+      </c>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>514</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="I14" s="120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>521</v>
+      </c>
+      <c r="F15" s="120" t="s">
+        <v>522</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>525</v>
+      </c>
+      <c r="I15" s="120" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="120" t="s">
-        <v>865</v>
-      </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="214" t="s">
-        <v>539</v>
-      </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-    </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="123" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="123" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="120"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="214" t="s">
-        <v>790</v>
-      </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>521</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" s="120" t="s">
-        <v>523</v>
-      </c>
-      <c r="F15" s="120" t="s">
-        <v>524</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>525</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>526</v>
-      </c>
-      <c r="I15" s="120" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
-        <v>527</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>528</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>529</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" s="120" t="s">
-        <v>531</v>
-      </c>
-      <c r="F16" s="120" t="s">
-        <v>532</v>
-      </c>
-      <c r="G16" s="120" t="s">
-        <v>533</v>
-      </c>
-      <c r="H16" s="120" t="s">
-        <v>535</v>
-      </c>
-      <c r="I16" s="120" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="214" t="s">
-        <v>791</v>
-      </c>
-      <c r="B17" s="214"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="214" t="s">
+        <v>781</v>
+      </c>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="209" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="209" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B18" s="209" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D18" s="209" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E18" s="209" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F18" s="209" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G18" s="209" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="210" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="I18" s="211" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="209" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B19" s="209" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C19" s="209" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D19" s="209" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E19" s="209" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F19" s="209" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G19" s="209" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H19" s="209" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="211" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I19" s="212"/>
+    </row>
+    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="209" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B20" s="209" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D20" s="209" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E20" s="209" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F20" s="209" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G20" s="209" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H20" s="209" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I20" s="212"/>
     </row>
-    <row r="21" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="209" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B21" s="209" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="209" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="209" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="209" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="209" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="209" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
       <c r="I21" s="212"/>
     </row>
-    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="209" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="212"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="214"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="209" t="s">
-        <v>866</v>
-      </c>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="214"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="209" t="s">
+        <v>856</v>
+      </c>
+      <c r="B23" s="209" t="s">
+        <v>861</v>
+      </c>
+      <c r="C23" s="209" t="s">
+        <v>860</v>
+      </c>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
+    <hyperlink ref="D2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
     <hyperlink ref="F1" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Jobs" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
     <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
-    <hyperlink ref="H2" r:id="rId2" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
-    <hyperlink ref="C2" r:id="rId4" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
-    <hyperlink ref="F2" r:id="rId7" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
     <hyperlink ref="B1:D1" location="'$$'!A1" display="'$$'!A1" xr:uid="{36CA0706-DD86-4B1D-A60E-4D98853504F5}"/>
-    <hyperlink ref="C1" r:id="rId8" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
-    <hyperlink ref="A1" r:id="rId9" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
+    <hyperlink ref="C1" r:id="rId6" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
+    <hyperlink ref="A1" r:id="rId7" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="I3" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
-    <hyperlink ref="B19" r:id="rId12" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
-    <hyperlink ref="C19" r:id="rId13" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
-    <hyperlink ref="C20" r:id="rId14" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
-    <hyperlink ref="F19" r:id="rId15" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
-    <hyperlink ref="G19" r:id="rId16" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
-    <hyperlink ref="E19" r:id="rId18" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
-    <hyperlink ref="I19" r:id="rId20" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
-    <hyperlink ref="F20" r:id="rId21" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
-    <hyperlink ref="G20" r:id="rId22" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
-    <hyperlink ref="A21" r:id="rId23" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
-    <hyperlink ref="B21" r:id="rId24" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
-    <hyperlink ref="E20" r:id="rId25" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
-    <hyperlink ref="E21" r:id="rId26" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
-    <hyperlink ref="F21" r:id="rId27" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
-    <hyperlink ref="C21" r:id="rId28" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
-    <hyperlink ref="D21" r:id="rId29" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
-    <hyperlink ref="H20" r:id="rId30" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
-    <hyperlink ref="H19" r:id="rId31" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
-    <hyperlink ref="B22" r:id="rId32" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
-    <hyperlink ref="D20" r:id="rId33" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
-    <hyperlink ref="C22" r:id="rId34" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
-    <hyperlink ref="B20" r:id="rId35" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
-    <hyperlink ref="A22" r:id="rId36" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
-    <hyperlink ref="H21" r:id="rId37" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
-    <hyperlink ref="G21" r:id="rId38" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
+    <hyperlink ref="B18" r:id="rId9" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
+    <hyperlink ref="C18" r:id="rId10" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
+    <hyperlink ref="C19" r:id="rId11" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
+    <hyperlink ref="F18" r:id="rId12" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
+    <hyperlink ref="G18" r:id="rId13" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
+    <hyperlink ref="D18" r:id="rId14" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
+    <hyperlink ref="I18" r:id="rId17" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
+    <hyperlink ref="F19" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
+    <hyperlink ref="G19" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
+    <hyperlink ref="B20" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
+    <hyperlink ref="E19" r:id="rId22" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
+    <hyperlink ref="E20" r:id="rId23" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
+    <hyperlink ref="F20" r:id="rId24" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
+    <hyperlink ref="C20" r:id="rId25" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
+    <hyperlink ref="D20" r:id="rId26" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
+    <hyperlink ref="H19" r:id="rId27" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
+    <hyperlink ref="H18" r:id="rId28" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
+    <hyperlink ref="B21" r:id="rId29" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
+    <hyperlink ref="D19" r:id="rId30" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
+    <hyperlink ref="C21" r:id="rId31" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
+    <hyperlink ref="B19" r:id="rId32" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
+    <hyperlink ref="A21" r:id="rId33" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
+    <hyperlink ref="H20" r:id="rId34" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
+    <hyperlink ref="G20" r:id="rId35" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
     <hyperlink ref="I4" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
-    <hyperlink ref="H18" r:id="rId39" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
-    <hyperlink ref="I18" r:id="rId40" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
-    <hyperlink ref="E18" r:id="rId41" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
-    <hyperlink ref="F18" r:id="rId42" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
-    <hyperlink ref="G18" r:id="rId43" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
-    <hyperlink ref="B18" r:id="rId44" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
-    <hyperlink ref="A18" r:id="rId45" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
-    <hyperlink ref="H16" r:id="rId46" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
-    <hyperlink ref="I15" r:id="rId47" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
-    <hyperlink ref="G16" r:id="rId48" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
-    <hyperlink ref="F16" r:id="rId49" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
-    <hyperlink ref="E16" r:id="rId50" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
-    <hyperlink ref="D16" r:id="rId51" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
-    <hyperlink ref="C16" r:id="rId52" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
-    <hyperlink ref="B16" r:id="rId53" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
-    <hyperlink ref="A16" r:id="rId54" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
-    <hyperlink ref="H15" r:id="rId55" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
-    <hyperlink ref="G15" r:id="rId56" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
-    <hyperlink ref="F15" r:id="rId57" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
-    <hyperlink ref="E15" r:id="rId58" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
-    <hyperlink ref="D15" r:id="rId59" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
-    <hyperlink ref="C15" r:id="rId60" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
-    <hyperlink ref="B15" r:id="rId61" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
-    <hyperlink ref="A15" r:id="rId62" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
-    <hyperlink ref="H13" r:id="rId63" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="G13" r:id="rId64" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="I12" r:id="rId65" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="F13" r:id="rId66" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="C13" r:id="rId67" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="E13" r:id="rId68" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="D13" r:id="rId69" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="B13" r:id="rId70" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="A13" r:id="rId71" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="H17" r:id="rId36" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
+    <hyperlink ref="I17" r:id="rId37" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
+    <hyperlink ref="E17" r:id="rId38" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
+    <hyperlink ref="F17" r:id="rId39" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
+    <hyperlink ref="G17" r:id="rId40" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
+    <hyperlink ref="B17" r:id="rId41" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
+    <hyperlink ref="A17" r:id="rId42" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
+    <hyperlink ref="H15" r:id="rId43" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
+    <hyperlink ref="I14" r:id="rId44" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
+    <hyperlink ref="G15" r:id="rId45" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
+    <hyperlink ref="F15" r:id="rId46" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
+    <hyperlink ref="E15" r:id="rId47" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
+    <hyperlink ref="D15" r:id="rId48" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
+    <hyperlink ref="C15" r:id="rId49" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
+    <hyperlink ref="B15" r:id="rId50" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
+    <hyperlink ref="A15" r:id="rId51" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
+    <hyperlink ref="H14" r:id="rId52" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
+    <hyperlink ref="G14" r:id="rId53" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
+    <hyperlink ref="F14" r:id="rId54" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
+    <hyperlink ref="E14" r:id="rId55" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
+    <hyperlink ref="D14" r:id="rId56" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
+    <hyperlink ref="C14" r:id="rId57" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
+    <hyperlink ref="B14" r:id="rId58" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
+    <hyperlink ref="A14" r:id="rId59" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
+    <hyperlink ref="H12" r:id="rId60" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="G12" r:id="rId61" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="I11" r:id="rId62" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="F12" r:id="rId63" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C12" r:id="rId64" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="E12" r:id="rId65" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="D12" r:id="rId66" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="B12" r:id="rId67" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="A12" r:id="rId68" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
     <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
-    <hyperlink ref="F12" r:id="rId72" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="D12" r:id="rId73" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="E12" r:id="rId74" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="G12" r:id="rId75" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="H12" r:id="rId76" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="A12" r:id="rId77" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="B12" r:id="rId78" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="C12" r:id="rId79" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C10" r:id="rId80" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="I11" r:id="rId81" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="G10" r:id="rId82" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="F11" r:id="rId83" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="E11" r:id="rId84" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="D11" r:id="rId85" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="G11" r:id="rId86" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="C11" r:id="rId87" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="A11" r:id="rId88" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="B11" r:id="rId89" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="E10" r:id="rId90" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="I10" r:id="rId91" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="H11" r:id="rId92" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="B10" r:id="rId93" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H10" r:id="rId94" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="D10" r:id="rId95" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="F10" r:id="rId96" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="A10" r:id="rId97" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="B8" r:id="rId98" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
-    <hyperlink ref="A8" r:id="rId99" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
-    <hyperlink ref="C8" r:id="rId100" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
-    <hyperlink ref="H7" r:id="rId101" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
-    <hyperlink ref="G7" r:id="rId102" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
-    <hyperlink ref="F7" r:id="rId103" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
-    <hyperlink ref="E7" r:id="rId104" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
-    <hyperlink ref="D7" r:id="rId105" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
-    <hyperlink ref="C7" r:id="rId106" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="B7" r:id="rId107" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
-    <hyperlink ref="A7" r:id="rId108" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
-    <hyperlink ref="C3" r:id="rId109" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
-    <hyperlink ref="D4" r:id="rId110" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
-    <hyperlink ref="F4" r:id="rId111" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="B3" r:id="rId112" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="D3" r:id="rId113" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="H3" r:id="rId114" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
-    <hyperlink ref="H4" r:id="rId115" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="C4" r:id="rId116" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="A3" r:id="rId117" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
-    <hyperlink ref="A4" r:id="rId118" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
-    <hyperlink ref="G3" r:id="rId119" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="B4" r:id="rId120" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="E3" r:id="rId121" xr:uid="{51240EFF-57BD-4C89-A82E-C98B47706D9D}"/>
-    <hyperlink ref="F3" r:id="rId122" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
-    <hyperlink ref="E4" r:id="rId123" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
-    <hyperlink ref="B5" r:id="rId124" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
-    <hyperlink ref="C5" r:id="rId125" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
-    <hyperlink ref="D5" r:id="rId126" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
-    <hyperlink ref="E5" r:id="rId127" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="F11" r:id="rId69" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="D11" r:id="rId70" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="E11" r:id="rId71" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="G11" r:id="rId72" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="H11" r:id="rId73" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="A11" r:id="rId74" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="B11" r:id="rId75" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="C11" r:id="rId76" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C9" r:id="rId77" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="I10" r:id="rId78" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="G9" r:id="rId79" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="F10" r:id="rId80" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="E10" r:id="rId81" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="D10" r:id="rId82" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="G10" r:id="rId83" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="C10" r:id="rId84" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="A10" r:id="rId85" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="B10" r:id="rId86" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="E9" r:id="rId87" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="I9" r:id="rId88" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="H10" r:id="rId89" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="B9" r:id="rId90" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H9" r:id="rId91" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="D9" r:id="rId92" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="F9" r:id="rId93" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="A9" r:id="rId94" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="E7" r:id="rId95" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
+    <hyperlink ref="D7" r:id="rId96" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
+    <hyperlink ref="C7" r:id="rId97" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
+    <hyperlink ref="A7" r:id="rId98" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
+    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
+    <hyperlink ref="H3" r:id="rId100" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
+    <hyperlink ref="F4" r:id="rId101" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="F2" r:id="rId102" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="H2" r:id="rId103" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="D3" r:id="rId104" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
+    <hyperlink ref="H4" r:id="rId105" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="G3" r:id="rId106" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="E3" r:id="rId107" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
+    <hyperlink ref="C3" r:id="rId108" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="F3" r:id="rId109" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="A3" r:id="rId110" xr:uid="{51240EFF-57BD-4C89-A82E-C98B47706D9D}"/>
+    <hyperlink ref="B3" r:id="rId111" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
+    <hyperlink ref="E4" r:id="rId112" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
+    <hyperlink ref="A4" r:id="rId113" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="A5" r:id="rId114" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="B5" r:id="rId115" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="C4" r:id="rId116" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
     <hyperlink ref="I7" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
-    <hyperlink ref="F5" r:id="rId128" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
-    <hyperlink ref="D8" r:id="rId129" xr:uid="{D3DF5142-51DD-4A58-8E71-4E214B905677}"/>
-    <hyperlink ref="A24" r:id="rId130" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
-    <hyperlink ref="I16" r:id="rId131" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
+    <hyperlink ref="D4" r:id="rId117" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
+    <hyperlink ref="B7" r:id="rId118" xr:uid="{D3DF5142-51DD-4A58-8E71-4E214B905677}"/>
+    <hyperlink ref="A23" r:id="rId119" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
+    <hyperlink ref="I15" r:id="rId120" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
+    <hyperlink ref="D5" r:id="rId121" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
+    <hyperlink ref="C5" r:id="rId122" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
+    <hyperlink ref="B23" r:id="rId123" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
+    <hyperlink ref="C23" r:id="rId124" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId132"/>
+  <pageSetup orientation="portrait" r:id="rId125"/>
 </worksheet>
 </file>
 
@@ -6421,28 +6378,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K1" s="237" t="s">
         <v>70</v>
@@ -6450,25 +6407,25 @@
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="244" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E2" s="258" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="I2" s="83"/>
       <c r="K2" s="238"/>
@@ -6477,14 +6434,14 @@
       <c r="A3" s="244"/>
       <c r="B3" s="73"/>
       <c r="C3" s="53" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E3" s="259"/>
       <c r="F3" s="82" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="80"/>
@@ -6495,19 +6452,19 @@
       <c r="C4" s="53"/>
       <c r="E4" s="260"/>
       <c r="F4" s="79" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G4" s="78">
         <v>44</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="K4" s="246" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6515,17 +6472,17 @@
       <c r="B5" s="73"/>
       <c r="C5" s="53"/>
       <c r="E5" s="249" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="74" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K5" s="247"/>
     </row>
@@ -6535,7 +6492,7 @@
       <c r="C6" s="53"/>
       <c r="E6" s="250"/>
       <c r="F6" s="72" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
@@ -6543,17 +6500,17 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="244" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E7" s="251"/>
       <c r="F7" s="69" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
@@ -6562,16 +6519,16 @@
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="244"/>
       <c r="B8" s="255" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E8" s="252" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G8" s="256">
         <v>1.8229166666666667</v>
@@ -6583,11 +6540,11 @@
       <c r="A9" s="244"/>
       <c r="B9" s="255"/>
       <c r="C9" s="53" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E9" s="253"/>
       <c r="F9" s="63" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G9" s="257"/>
       <c r="H9" s="62"/>
@@ -6596,26 +6553,26 @@
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="244"/>
       <c r="B10" s="43" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="244" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C11" s="53"/>
       <c r="E11" s="254" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="I11" s="245" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,7 +6581,7 @@
       <c r="C12" s="53"/>
       <c r="E12" s="244"/>
       <c r="F12" s="58" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I12" s="245"/>
     </row>
@@ -6643,7 +6600,7 @@
       <c r="E14" s="244"/>
       <c r="F14" s="57"/>
       <c r="I14" s="55" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6653,7 +6610,7 @@
       <c r="E15" s="248"/>
       <c r="F15" s="56"/>
       <c r="I15" s="55" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6663,10 +6620,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="244" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C17" s="53"/>
     </row>
@@ -6689,31 +6646,31 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="241" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B22" s="242"/>
       <c r="C22" s="243"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6768,22 +6725,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H1" s="237" t="s">
         <v>70</v>
@@ -6791,34 +6748,34 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E2" s="43">
         <v>2</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H2" s="238"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D3" s="43">
         <v>15</v>
@@ -6827,18 +6784,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D4" s="43">
         <v>15</v>
@@ -6847,38 +6804,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D6" s="43">
         <v>15</v>
@@ -6887,18 +6844,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D7" s="43">
         <v>15</v>
@@ -6907,18 +6864,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D8" s="43">
         <v>50</v>
@@ -6927,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7012,27 +6969,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="95" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="95" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="95" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7073,43 +7030,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D2" s="101"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -7118,28 +7075,28 @@
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="100" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
@@ -7148,38 +7105,38 @@
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="100" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D10" s="99"/>
     </row>
@@ -7191,21 +7148,21 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
@@ -7213,7 +7170,7 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -7221,7 +7178,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
@@ -7229,7 +7186,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="105" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
@@ -7237,7 +7194,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
@@ -7245,7 +7202,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="105" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105"/>
@@ -7253,7 +7210,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105"/>
@@ -7261,27 +7218,27 @@
     </row>
     <row r="27" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E27" s="112" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C28" s="110">
         <v>1227504373</v>
@@ -7295,10 +7252,10 @@
     </row>
     <row r="29" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C29" s="110">
         <v>1028358685</v>
@@ -7310,10 +7267,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C30" s="108">
         <v>1125519116</v>
@@ -7330,62 +7287,62 @@
     </row>
     <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="115" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="115" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="115" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="115" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -7393,7 +7350,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7445,46 +7402,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7587,25 +7544,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C1" s="165" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E1" s="166" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H1" s="167"/>
       <c r="I1" s="168" t="s">
@@ -7614,125 +7571,125 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="H2" s="167"/>
       <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="H3" s="167"/>
       <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G4" s="166" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="H4" s="167"/>
       <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E5" s="166" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="G5" s="167" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="H5" s="167"/>
       <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E6" s="169" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F6" s="169" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G6" s="169" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H6" s="167"/>
       <c r="I6" s="167"/>
@@ -7740,33 +7697,33 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C9" s="184" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D9" s="184" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F9" s="185" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G9" s="184" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="H9" s="183" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="261" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B10" s="262"/>
       <c r="C10" s="262"/>
@@ -7778,22 +7735,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="182" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E11" s="178" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F11" s="178" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="181"/>
@@ -7870,7 +7827,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="261" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B19" s="262"/>
       <c r="C19" s="262"/>
@@ -7882,90 +7839,90 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="180" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E20" s="178" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F20" s="177">
         <v>25898039</v>
       </c>
       <c r="G20" s="264" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="179" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E21" s="178"/>
       <c r="F21" s="177"/>
       <c r="G21" s="264"/>
       <c r="H21" s="176" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="179" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E22" s="178"/>
       <c r="F22" s="177"/>
       <c r="G22" s="43" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E23" s="178" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8000,44 +7957,44 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E27" s="178" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="F27" s="177" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="176"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="180" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E28" s="178" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F28" s="178" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="176"/>
@@ -8054,56 +8011,56 @@
     </row>
     <row r="32" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B33" s="187" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -8113,35 +8070,35 @@
     </row>
     <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F36" s="188" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="192" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B38" s="192" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C38" s="192" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E38" s="192" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="191" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D39" s="189">
         <v>1153332210</v>
@@ -8150,10 +8107,10 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="191" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B40" s="189" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C40" s="189"/>
       <c r="D40" s="189"/>
@@ -8161,7 +8118,7 @@
     </row>
     <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="191" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B41" s="189"/>
       <c r="C41" s="189"/>
@@ -8170,10 +8127,10 @@
     </row>
     <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="191" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B42" s="189" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C42" s="189"/>
       <c r="D42" s="189"/>
@@ -8181,57 +8138,57 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="191" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B43" s="189"/>
       <c r="C43" s="189"/>
       <c r="D43" s="189"/>
       <c r="E43" s="189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="191" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B44" s="189"/>
       <c r="C44" s="189"/>
       <c r="D44" s="189"/>
       <c r="E44" s="189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="191" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B45" s="189"/>
       <c r="C45" s="189"/>
       <c r="D45" s="189"/>
       <c r="E45" s="189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="191" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B46" s="189"/>
       <c r="C46" s="189"/>
       <c r="D46" s="189"/>
       <c r="E46" s="189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="191" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B47" s="189"/>
       <c r="C47" s="189"/>
       <c r="D47" s="189"/>
       <c r="E47" s="189" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8264,13 +8221,13 @@
     </row>
     <row r="52" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="191" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="B52" s="189"/>
       <c r="C52" s="189"/>
       <c r="D52" s="189"/>
       <c r="E52" s="189" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8282,7 +8239,7 @@
     </row>
     <row r="54" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="190" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B54" s="189"/>
       <c r="C54" s="189"/>
@@ -8291,7 +8248,7 @@
     </row>
     <row r="55" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="189" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B55" s="189"/>
       <c r="C55" s="189"/>
@@ -8300,7 +8257,7 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="189" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="B56" s="189"/>
       <c r="C56" s="189"/>
@@ -8309,7 +8266,7 @@
     </row>
     <row r="57" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="189" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B57" s="189"/>
       <c r="C57" s="189"/>
@@ -8318,13 +8275,13 @@
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B60" s="193" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D60" s="193"/>
       <c r="E60" s="193"/>
@@ -8335,10 +8292,10 @@
     </row>
     <row r="61" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C61" s="193"/>
       <c r="D61" s="193"/>
@@ -8354,7 +8311,7 @@
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="G62" s="195" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8368,26 +8325,26 @@
     </row>
     <row r="64" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A64" s="194" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B64" s="193" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D64" s="100" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E64" s="100" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="F64" s="193"/>
       <c r="G64" s="193"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
@@ -8416,26 +8373,26 @@
     </row>
     <row r="68" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="194" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B68" s="193" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C68" s="193" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D68" s="193" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="E68" s="193" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F68" s="193"/>
       <c r="G68" s="193"/>
     </row>
     <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="193" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B69" s="193"/>
       <c r="C69" s="193"/>
@@ -8446,49 +8403,49 @@
     </row>
     <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="198" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B73" s="199" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="C73" s="199" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="D73" s="198" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="E73" s="199" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G73" s="197"/>
     </row>
     <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="198" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B74" s="198" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C74" s="199" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D74" s="198" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E74" s="198" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F74" s="198" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G74" s="197"/>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="198" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B75" s="197"/>
       <c r="C75" s="197"/>
@@ -8622,78 +8579,78 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B1" s="175" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C2" s="171"/>
     </row>
     <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B7" s="172" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="265" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B8" s="266"/>
       <c r="C8" s="171"/>
@@ -8732,19 +8689,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="201" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="201" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1" s="201" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1" s="201" t="s">
         <v>805</v>
       </c>
-      <c r="B1" s="201" t="s">
-        <v>807</v>
-      </c>
-      <c r="C1" s="201" t="s">
-        <v>804</v>
-      </c>
-      <c r="D1" s="201" t="s">
-        <v>815</v>
-      </c>
       <c r="E1" s="201" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="F1" s="206" t="s">
         <v>70</v>
@@ -8752,51 +8709,51 @@
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B2" s="203" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C2" s="203" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D2" s="204"/>
       <c r="E2" s="120" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204"/>
       <c r="B3" s="203" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C3" s="203" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D3" s="204"/>
       <c r="E3" s="120" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="204"/>
       <c r="B4" s="203" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C4" s="204"/>
       <c r="D4" s="204"/>
       <c r="E4" s="120" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="204"/>
       <c r="B5" s="203" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="120" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8811,51 +8768,51 @@
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B8" s="267"/>
       <c r="C8" s="201" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="204" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" s="204"/>
       <c r="D12" s="204"/>
       <c r="E12" s="204" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,7 +8821,7 @@
       <c r="C13" s="120"/>
       <c r="D13" s="204"/>
       <c r="E13" s="204" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,7 +8829,7 @@
       <c r="B14" s="204"/>
       <c r="D14" s="204"/>
       <c r="E14" s="204" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9131,25 +9088,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="207" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C1" s="207" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="207" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C2" s="207" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
@@ -9157,137 +9114,137 @@
     </row>
     <row r="3" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="208" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B3" s="207" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C3" s="207" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="207" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B4" s="207" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="C4" s="208" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="207" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B5" s="207" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="207" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B6" s="207" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C6" s="207" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="207" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B7" s="207" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C7" s="207" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="208" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B8" s="207" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C8" s="207" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="207" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B9" s="207" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C9" s="207" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="207" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B10" s="207" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C10" s="207" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="208" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B11" s="207" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C11" s="207" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="207" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B12" s="207" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C12" s="207" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="207" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B13" s="207" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="207" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9313,22 +9270,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -9587,22 +9544,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -9614,22 +9571,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9743,10 +9700,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9758,7 +9715,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9772,7 +9729,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9781,10 +9738,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9793,10 +9750,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9805,10 +9762,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9865,10 +9822,10 @@
     </row>
     <row r="29" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -10032,22 +9989,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>159</v>
-      </c>
       <c r="D1" s="120" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="120" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F1" s="120" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G1" s="122" t="s">
         <v>70</v>
@@ -10055,42 +10012,42 @@
     </row>
     <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10152,25 +10109,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>70</v>
@@ -10178,80 +10135,80 @@
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10267,48 +10224,48 @@
     </row>
     <row r="6" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10324,42 +10281,42 @@
     </row>
     <row r="9" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10375,56 +10332,56 @@
     </row>
     <row r="12" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10432,16 +10389,16 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -10623,23 +10580,23 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D1" s="232" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E1" s="233"/>
       <c r="F1" s="220"/>
       <c r="G1" s="224" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="H1" s="225"/>
       <c r="I1" s="220"/>
       <c r="J1" s="228" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K1" s="229"/>
       <c r="M1" s="226" t="s">
@@ -10648,240 +10605,240 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B2" s="127">
         <v>77.5</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F2" s="220"/>
       <c r="G2" s="144" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
       <c r="I2" s="220"/>
       <c r="J2" s="139" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M2" s="227"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B3" s="127">
         <v>98</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E3" s="14">
         <v>132</v>
       </c>
       <c r="F3" s="220"/>
       <c r="G3" s="144" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
       <c r="I3" s="220"/>
       <c r="J3" s="139" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B4" s="127">
         <v>76</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E4" s="14">
         <v>120</v>
       </c>
       <c r="F4" s="220"/>
       <c r="G4" s="144" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
       <c r="I4" s="220"/>
       <c r="J4" s="139" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K4" s="140" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B5" s="127">
         <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E5" s="15">
         <v>128</v>
       </c>
       <c r="F5" s="220"/>
       <c r="G5" s="144" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
       <c r="I5" s="220"/>
       <c r="J5" s="139" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B6" s="127"/>
       <c r="D6" s="16" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E6" s="15">
         <v>100</v>
       </c>
       <c r="F6" s="220"/>
       <c r="G6" s="144" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I6" s="220"/>
       <c r="J6" s="141" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B7" s="127"/>
       <c r="D7" s="16" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="220"/>
       <c r="G7" s="144" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="I7" s="220"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="220"/>
       <c r="G8" s="144" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="220"/>
       <c r="J8" s="221" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="220"/>
       <c r="G9" s="144" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="I9" s="220"/>
       <c r="J9" s="131" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K9" s="131" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="126" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F10" s="220"/>
       <c r="G10" s="144" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="I10" s="220"/>
       <c r="J10" s="131" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K10" s="131" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E11" s="14">
         <v>143</v>
@@ -10893,14 +10850,14 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="220"/>
       <c r="G12" s="230" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H12" s="231"/>
       <c r="I12" s="220"/>
@@ -10909,85 +10866,85 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B13" s="151">
         <v>69</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F13" s="220"/>
       <c r="G13" s="136" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H13" s="136" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I13" s="220"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B14" s="152">
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E14" s="14">
         <v>120</v>
       </c>
       <c r="F14" s="220"/>
       <c r="G14" s="136" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="I14" s="220"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="220"/>
       <c r="G15" s="136" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H15" s="137" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="I15" s="220"/>
       <c r="J15" s="107" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K15" s="107" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F16" s="220"/>
       <c r="G16" s="136" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="H16" s="136" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="I16" s="220"/>
       <c r="J16" s="107"/>
@@ -10995,23 +10952,23 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F17" s="220"/>
       <c r="G17" s="138" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="I17" s="220"/>
       <c r="J17" s="107"/>
@@ -11019,80 +10976,80 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F18" s="220"/>
       <c r="I18" s="220"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F19" s="220"/>
       <c r="G19" s="222" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="H19" s="223"/>
       <c r="I19" s="220"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="21" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F20" s="220"/>
       <c r="G20" s="124" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I20" s="220"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="21" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="220"/>
       <c r="G21" s="124" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I21" s="220"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="21" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="220"/>
@@ -11102,11 +11059,11 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="21" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="220"/>
@@ -11116,31 +11073,31 @@
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="28" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F24" s="220"/>
       <c r="G24" s="143" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="220"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B25" s="80"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B26" s="80"/>
     </row>
@@ -11155,31 +11112,31 @@
     <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="133"/>
       <c r="D29" s="132" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F29" s="133"/>
       <c r="G29" s="32" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H29" s="132" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="234" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B30" s="235"/>
       <c r="G30" s="135" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B31" s="22">
         <v>1.5</v>
@@ -11187,7 +11144,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B32" s="22">
         <v>1.5</v>
@@ -11195,15 +11152,15 @@
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B34" s="22">
         <v>4.7</v>
@@ -11211,7 +11168,7 @@
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B35" s="22">
         <v>2</v>
@@ -11219,7 +11176,7 @@
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B36" s="22">
         <v>0.4</v>
@@ -11227,19 +11184,19 @@
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="218" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B39" s="219"/>
     </row>
@@ -11282,25 +11239,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E1" s="156" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F1" s="156" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G1" s="156" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>70</v>
@@ -11308,35 +11265,35 @@
     </row>
     <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D2" s="157"/>
       <c r="E2" s="156" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F2" s="158"/>
       <c r="G2" s="159" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="156" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
@@ -11344,7 +11301,7 @@
     </row>
     <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="236" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B4" s="236"/>
       <c r="C4" s="236"/>
@@ -11356,16 +11313,16 @@
     </row>
     <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="163"/>
       <c r="F5" s="158"/>
@@ -11374,15 +11331,15 @@
     </row>
     <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="161" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F6" s="158"/>
       <c r="G6" s="158"/>
@@ -11448,10 +11405,10 @@
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F1" s="237" t="s">
         <v>70</v>
@@ -11472,10 +11429,10 @@
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I3" s="13"/>
       <c r="L3" s="13"/>
@@ -11483,37 +11440,37 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -11523,12 +11480,12 @@
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="34" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="240" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C15" s="240"/>
       <c r="D15" s="240"/>
@@ -11537,97 +11494,97 @@
     </row>
     <row r="16" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E16" s="239" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F16" s="239"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="52.5" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -11636,7 +11593,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -11645,7 +11602,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F23" s="40"/>
     </row>

--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8758C8-24EA-4AAC-B454-B37DDA1A7927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90FD6E-2C0C-4059-8CD3-2A903CD3235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="854">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -453,18 +453,12 @@
     <t>محمد الشريف</t>
   </si>
   <si>
-    <t>طارق الرفاعي</t>
-  </si>
-  <si>
     <t>م/ محمد سيد</t>
   </si>
   <si>
     <t>محمود خالد</t>
   </si>
   <si>
-    <t>عبدالله الوهيبي</t>
-  </si>
-  <si>
     <t>محمود علام</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>bassem elgarhi</t>
   </si>
   <si>
-    <t>هشام هارون</t>
-  </si>
-  <si>
     <t>محمد صبري</t>
   </si>
   <si>
@@ -562,12 +553,6 @@
   </si>
   <si>
     <t>احمد رجب</t>
-  </si>
-  <si>
-    <t>فارماكولوجي</t>
-  </si>
-  <si>
-    <t>فارماستان</t>
   </si>
   <si>
     <t>الدكتور</t>
@@ -2893,12 +2878,6 @@
     <t xml:space="preserve">محمد محي ( اقتصاد ) </t>
   </si>
   <si>
-    <t>محمد عاطف</t>
-  </si>
-  <si>
-    <t>mfetto</t>
-  </si>
-  <si>
     <t>Mohamed Yehia</t>
   </si>
   <si>
@@ -2936,9 +2915,6 @@
   </si>
   <si>
     <t>ML .NET</t>
-  </si>
-  <si>
-    <t>هيئة الدواء المصرية</t>
   </si>
   <si>
     <t>onlinesim</t>
@@ -5644,10 +5620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5671,25 +5647,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D1" s="200" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F1" s="200" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H1" s="200" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I1" s="119" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5703,105 +5679,107 @@
         <v>115</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E2" s="120" t="s">
         <v>130</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G2" s="120" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H2" s="120" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I2" s="200" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>840</v>
+        <v>131</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>841</v>
+        <v>141</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>132</v>
+        <v>525</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>133</v>
+        <v>836</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>144</v>
+        <v>839</v>
       </c>
       <c r="H3" s="120" t="s">
-        <v>530</v>
+        <v>850</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>139</v>
+        <v>838</v>
       </c>
       <c r="C4" s="120" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G4" s="120" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="120" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I4" s="200" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
-        <v>844</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>845</v>
-      </c>
-      <c r="C5" s="120" t="s">
-        <v>859</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>858</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B5" s="209" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" s="209" t="s">
+        <v>852</v>
+      </c>
+      <c r="D5" s="120"/>
       <c r="E5" s="120"/>
       <c r="F5" s="120"/>
       <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="H5" s="200" t="s">
+        <v>840</v>
+      </c>
       <c r="I5" s="119" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="214"/>
+      <c r="A6" s="214" t="s">
+        <v>524</v>
+      </c>
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
       <c r="D6" s="214"/>
@@ -5811,403 +5789,363 @@
       <c r="H6" s="214"/>
       <c r="I6" s="214"/>
     </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>855</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="200" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
-        <v>529</v>
-      </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-    </row>
-    <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F9" s="123" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G9" s="123" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H9" s="123" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="123" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C10" s="123" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E10" s="123" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F10" s="123" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H10" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="123" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="120"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="214" t="s">
-        <v>780</v>
-      </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="I10" s="120"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="214" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+      <c r="H11" s="214"/>
+      <c r="I11" s="214"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>507</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>508</v>
+      </c>
+      <c r="F12" s="120" t="s">
         <v>509</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="G12" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="H12" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="I12" s="120" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="B13" s="120" t="s">
         <v>513</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="C13" s="120" t="s">
         <v>514</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="D13" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="E13" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="I14" s="120" t="s">
-        <v>524</v>
-      </c>
+      <c r="F13" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="120" t="s">
+        <v>520</v>
+      </c>
+      <c r="I13" s="120" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="214" t="s">
+        <v>776</v>
+      </c>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
-        <v>517</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="E15" s="120" t="s">
-        <v>521</v>
-      </c>
-      <c r="F15" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>523</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>525</v>
-      </c>
-      <c r="I15" s="120" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="214" t="s">
-        <v>781</v>
-      </c>
-      <c r="B16" s="214"/>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="209" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="209" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="209" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="210" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="209" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="209" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="211" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="209" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B17" s="209" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C17" s="209" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D17" s="209" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E17" s="209" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F17" s="209" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G17" s="209" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H17" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="210" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I17" s="212"/>
+    </row>
+    <row r="18" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="209" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B18" s="209" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D18" s="209" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E18" s="209" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F18" s="209" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G18" s="209" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H18" s="209" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="211" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="I18" s="212"/>
+    </row>
+    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="209" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B19" s="209" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C19" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="209" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="209" t="s">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
       <c r="I19" s="212"/>
     </row>
-    <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="209" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="209" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="209" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="209" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="209" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="209" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="209" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="212"/>
-    </row>
-    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="214"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+    </row>
+    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="209" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="209" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="212"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
-      <c r="B22" s="214"/>
-      <c r="C22" s="214"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-    </row>
-    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="209" t="s">
-        <v>856</v>
-      </c>
-      <c r="B23" s="209" t="s">
-        <v>861</v>
-      </c>
-      <c r="C23" s="209" t="s">
-        <v>860</v>
-      </c>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
+        <v>848</v>
+      </c>
+      <c r="B21" s="209"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A22:I22"/>
+  <mergeCells count="4">
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
@@ -6226,129 +6164,121 @@
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="I3" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
-    <hyperlink ref="B18" r:id="rId9" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
-    <hyperlink ref="C18" r:id="rId10" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
-    <hyperlink ref="C19" r:id="rId11" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
-    <hyperlink ref="F18" r:id="rId12" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
-    <hyperlink ref="G18" r:id="rId13" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
-    <hyperlink ref="D18" r:id="rId14" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
-    <hyperlink ref="E18" r:id="rId15" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
-    <hyperlink ref="I18" r:id="rId17" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
-    <hyperlink ref="G19" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
-    <hyperlink ref="B20" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
-    <hyperlink ref="E19" r:id="rId22" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
-    <hyperlink ref="E20" r:id="rId23" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
-    <hyperlink ref="F20" r:id="rId24" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
-    <hyperlink ref="C20" r:id="rId25" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
-    <hyperlink ref="D20" r:id="rId26" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
-    <hyperlink ref="H19" r:id="rId27" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
-    <hyperlink ref="H18" r:id="rId28" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
-    <hyperlink ref="B21" r:id="rId29" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
-    <hyperlink ref="D19" r:id="rId30" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
-    <hyperlink ref="C21" r:id="rId31" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
-    <hyperlink ref="B19" r:id="rId32" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
-    <hyperlink ref="A21" r:id="rId33" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
-    <hyperlink ref="H20" r:id="rId34" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
-    <hyperlink ref="G20" r:id="rId35" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
+    <hyperlink ref="B16" r:id="rId9" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
+    <hyperlink ref="C16" r:id="rId10" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
+    <hyperlink ref="C17" r:id="rId11" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
+    <hyperlink ref="F16" r:id="rId12" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
+    <hyperlink ref="G16" r:id="rId13" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
+    <hyperlink ref="E16" r:id="rId15" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
+    <hyperlink ref="I16" r:id="rId17" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
+    <hyperlink ref="F17" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
+    <hyperlink ref="G17" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
+    <hyperlink ref="A18" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
+    <hyperlink ref="B18" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
+    <hyperlink ref="E17" r:id="rId22" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
+    <hyperlink ref="E18" r:id="rId23" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
+    <hyperlink ref="F18" r:id="rId24" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
+    <hyperlink ref="C18" r:id="rId25" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
+    <hyperlink ref="D18" r:id="rId26" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
+    <hyperlink ref="H17" r:id="rId27" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
+    <hyperlink ref="H16" r:id="rId28" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
+    <hyperlink ref="B19" r:id="rId29" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
+    <hyperlink ref="C19" r:id="rId31" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
+    <hyperlink ref="A19" r:id="rId33" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
+    <hyperlink ref="H18" r:id="rId34" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
+    <hyperlink ref="G18" r:id="rId35" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
     <hyperlink ref="I4" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
-    <hyperlink ref="H17" r:id="rId36" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
-    <hyperlink ref="I17" r:id="rId37" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
-    <hyperlink ref="E17" r:id="rId38" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
-    <hyperlink ref="F17" r:id="rId39" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
-    <hyperlink ref="G17" r:id="rId40" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
-    <hyperlink ref="B17" r:id="rId41" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
-    <hyperlink ref="A17" r:id="rId42" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
-    <hyperlink ref="H15" r:id="rId43" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
-    <hyperlink ref="I14" r:id="rId44" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
-    <hyperlink ref="G15" r:id="rId45" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
-    <hyperlink ref="F15" r:id="rId46" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
-    <hyperlink ref="E15" r:id="rId47" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
-    <hyperlink ref="D15" r:id="rId48" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
-    <hyperlink ref="C15" r:id="rId49" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
-    <hyperlink ref="B15" r:id="rId50" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
-    <hyperlink ref="A15" r:id="rId51" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
-    <hyperlink ref="H14" r:id="rId52" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
-    <hyperlink ref="G14" r:id="rId53" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
-    <hyperlink ref="F14" r:id="rId54" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
-    <hyperlink ref="E14" r:id="rId55" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
-    <hyperlink ref="D14" r:id="rId56" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
-    <hyperlink ref="C14" r:id="rId57" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
-    <hyperlink ref="B14" r:id="rId58" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
-    <hyperlink ref="A14" r:id="rId59" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
-    <hyperlink ref="H12" r:id="rId60" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="G12" r:id="rId61" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="I11" r:id="rId62" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="F12" r:id="rId63" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="C12" r:id="rId64" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="E12" r:id="rId65" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="D12" r:id="rId66" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="B12" r:id="rId67" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="A12" r:id="rId68" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="H15" r:id="rId36" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
+    <hyperlink ref="I15" r:id="rId37" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
+    <hyperlink ref="E15" r:id="rId38" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
+    <hyperlink ref="F15" r:id="rId39" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
+    <hyperlink ref="G15" r:id="rId40" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
+    <hyperlink ref="B15" r:id="rId41" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
+    <hyperlink ref="A15" r:id="rId42" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
+    <hyperlink ref="H13" r:id="rId43" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
+    <hyperlink ref="I12" r:id="rId44" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
+    <hyperlink ref="G13" r:id="rId45" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
+    <hyperlink ref="F13" r:id="rId46" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
+    <hyperlink ref="E13" r:id="rId47" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
+    <hyperlink ref="D13" r:id="rId48" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
+    <hyperlink ref="C13" r:id="rId49" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
+    <hyperlink ref="B13" r:id="rId50" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
+    <hyperlink ref="A13" r:id="rId51" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
+    <hyperlink ref="H12" r:id="rId52" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
+    <hyperlink ref="G12" r:id="rId53" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
+    <hyperlink ref="F12" r:id="rId54" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
+    <hyperlink ref="E12" r:id="rId55" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
+    <hyperlink ref="D12" r:id="rId56" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
+    <hyperlink ref="C12" r:id="rId57" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
+    <hyperlink ref="B12" r:id="rId58" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
+    <hyperlink ref="A12" r:id="rId59" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
+    <hyperlink ref="H10" r:id="rId60" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="G10" r:id="rId61" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="I9" r:id="rId62" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="F10" r:id="rId63" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C10" r:id="rId64" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="E10" r:id="rId65" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="D10" r:id="rId66" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="B10" r:id="rId67" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="A10" r:id="rId68" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
     <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
-    <hyperlink ref="F11" r:id="rId69" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="D11" r:id="rId70" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="E11" r:id="rId71" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="G11" r:id="rId72" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="H11" r:id="rId73" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="A11" r:id="rId74" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="B11" r:id="rId75" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="C11" r:id="rId76" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C9" r:id="rId77" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="I10" r:id="rId78" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="G9" r:id="rId79" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="F10" r:id="rId80" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="E10" r:id="rId81" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="D10" r:id="rId82" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="G10" r:id="rId83" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="C10" r:id="rId84" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="A10" r:id="rId85" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="B10" r:id="rId86" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="E9" r:id="rId87" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="I9" r:id="rId88" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="H10" r:id="rId89" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="B9" r:id="rId90" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H9" r:id="rId91" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="D9" r:id="rId92" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="F9" r:id="rId93" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="A9" r:id="rId94" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="E7" r:id="rId95" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
-    <hyperlink ref="D7" r:id="rId96" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
-    <hyperlink ref="C7" r:id="rId97" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
-    <hyperlink ref="A7" r:id="rId98" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
-    <hyperlink ref="H3" r:id="rId100" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
-    <hyperlink ref="F4" r:id="rId101" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="F2" r:id="rId102" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="H2" r:id="rId103" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="D3" r:id="rId104" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
-    <hyperlink ref="H4" r:id="rId105" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="G3" r:id="rId106" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="E3" r:id="rId107" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
-    <hyperlink ref="C3" r:id="rId108" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="F3" r:id="rId109" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="A3" r:id="rId110" xr:uid="{51240EFF-57BD-4C89-A82E-C98B47706D9D}"/>
-    <hyperlink ref="B3" r:id="rId111" xr:uid="{FE6BCFBC-0210-4522-858A-70E9E778A39E}"/>
-    <hyperlink ref="E4" r:id="rId112" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
-    <hyperlink ref="A4" r:id="rId113" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
-    <hyperlink ref="A5" r:id="rId114" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
-    <hyperlink ref="B5" r:id="rId115" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
-    <hyperlink ref="C4" r:id="rId116" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
-    <hyperlink ref="I7" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
-    <hyperlink ref="D4" r:id="rId117" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
-    <hyperlink ref="B7" r:id="rId118" xr:uid="{D3DF5142-51DD-4A58-8E71-4E214B905677}"/>
-    <hyperlink ref="A23" r:id="rId119" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
-    <hyperlink ref="I15" r:id="rId120" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
-    <hyperlink ref="D5" r:id="rId121" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
-    <hyperlink ref="C5" r:id="rId122" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
-    <hyperlink ref="B23" r:id="rId123" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
-    <hyperlink ref="C23" r:id="rId124" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
+    <hyperlink ref="F9" r:id="rId69" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="D9" r:id="rId70" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="E9" r:id="rId71" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="G9" r:id="rId72" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="H9" r:id="rId73" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="A9" r:id="rId74" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="B9" r:id="rId75" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="C9" r:id="rId76" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C7" r:id="rId77" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="I8" r:id="rId78" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="G7" r:id="rId79" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="F8" r:id="rId80" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="E8" r:id="rId81" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="D8" r:id="rId82" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="G8" r:id="rId83" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="C8" r:id="rId84" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="A8" r:id="rId85" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="B8" r:id="rId86" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="E7" r:id="rId87" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="I7" r:id="rId88" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="H8" r:id="rId89" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="B7" r:id="rId90" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H7" r:id="rId91" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="D7" r:id="rId92" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="F7" r:id="rId93" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="A7" r:id="rId94" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="H4" r:id="rId95" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
+    <hyperlink ref="C3" r:id="rId96" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
+    <hyperlink ref="F4" r:id="rId97" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="F2" r:id="rId98" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="D3" r:id="rId100" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="B3" r:id="rId101" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="H2" r:id="rId102" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="A3" r:id="rId103" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="E4" r:id="rId104" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
+    <hyperlink ref="E3" r:id="rId105" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="A4" r:id="rId106" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="B4" r:id="rId107" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="G3" r:id="rId108" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="H5" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
+    <hyperlink ref="D4" r:id="rId109" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
+    <hyperlink ref="A21" r:id="rId110" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
+    <hyperlink ref="I13" r:id="rId111" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
+    <hyperlink ref="H3" r:id="rId112" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
+    <hyperlink ref="C4" r:id="rId113" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
+    <hyperlink ref="B5" r:id="rId114" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
+    <hyperlink ref="C5" r:id="rId115" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
+    <hyperlink ref="A5" r:id="rId116" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId125"/>
+  <pageSetup orientation="portrait" r:id="rId117"/>
 </worksheet>
 </file>
 
@@ -6378,28 +6308,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K1" s="237" t="s">
         <v>70</v>
@@ -6407,25 +6337,25 @@
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="244" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E2" s="258" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I2" s="83"/>
       <c r="K2" s="238"/>
@@ -6434,14 +6364,14 @@
       <c r="A3" s="244"/>
       <c r="B3" s="73"/>
       <c r="C3" s="53" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E3" s="259"/>
       <c r="F3" s="82" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="80"/>
@@ -6452,19 +6382,19 @@
       <c r="C4" s="53"/>
       <c r="E4" s="260"/>
       <c r="F4" s="79" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G4" s="78">
         <v>44</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K4" s="246" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6472,17 +6402,17 @@
       <c r="B5" s="73"/>
       <c r="C5" s="53"/>
       <c r="E5" s="249" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="74" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K5" s="247"/>
     </row>
@@ -6492,7 +6422,7 @@
       <c r="C6" s="53"/>
       <c r="E6" s="250"/>
       <c r="F6" s="72" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
@@ -6500,17 +6430,17 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="244" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E7" s="251"/>
       <c r="F7" s="69" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
@@ -6519,16 +6449,16 @@
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="244"/>
       <c r="B8" s="255" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E8" s="252" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G8" s="256">
         <v>1.8229166666666667</v>
@@ -6540,11 +6470,11 @@
       <c r="A9" s="244"/>
       <c r="B9" s="255"/>
       <c r="C9" s="53" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E9" s="253"/>
       <c r="F9" s="63" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G9" s="257"/>
       <c r="H9" s="62"/>
@@ -6553,26 +6483,26 @@
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="244"/>
       <c r="B10" s="43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="244" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C11" s="53"/>
       <c r="E11" s="254" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I11" s="245" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6581,7 +6511,7 @@
       <c r="C12" s="53"/>
       <c r="E12" s="244"/>
       <c r="F12" s="58" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I12" s="245"/>
     </row>
@@ -6600,7 +6530,7 @@
       <c r="E14" s="244"/>
       <c r="F14" s="57"/>
       <c r="I14" s="55" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6610,7 +6540,7 @@
       <c r="E15" s="248"/>
       <c r="F15" s="56"/>
       <c r="I15" s="55" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6620,10 +6550,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="244" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C17" s="53"/>
     </row>
@@ -6646,31 +6576,31 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="241" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B22" s="242"/>
       <c r="C22" s="243"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6725,22 +6655,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H1" s="237" t="s">
         <v>70</v>
@@ -6748,34 +6678,34 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E2" s="43">
         <v>2</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H2" s="238"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D3" s="43">
         <v>15</v>
@@ -6784,18 +6714,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D4" s="43">
         <v>15</v>
@@ -6804,38 +6734,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D6" s="43">
         <v>15</v>
@@ -6844,18 +6774,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D7" s="43">
         <v>15</v>
@@ -6864,18 +6794,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D8" s="43">
         <v>50</v>
@@ -6884,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6969,27 +6899,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="95" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="95" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="95" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7030,43 +6960,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D2" s="101"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -7075,28 +7005,28 @@
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="100" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
@@ -7105,38 +7035,38 @@
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="100" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D10" s="99"/>
     </row>
@@ -7148,21 +7078,21 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
@@ -7170,7 +7100,7 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -7178,7 +7108,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
@@ -7186,7 +7116,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="105" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
@@ -7194,7 +7124,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
@@ -7202,7 +7132,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="105" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105"/>
@@ -7210,7 +7140,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105"/>
@@ -7218,27 +7148,27 @@
     </row>
     <row r="27" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E27" s="112" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C28" s="110">
         <v>1227504373</v>
@@ -7252,10 +7182,10 @@
     </row>
     <row r="29" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C29" s="110">
         <v>1028358685</v>
@@ -7267,10 +7197,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C30" s="108">
         <v>1125519116</v>
@@ -7287,62 +7217,62 @@
     </row>
     <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="115" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="115" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="115" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="115" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -7350,7 +7280,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7402,46 +7332,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7544,25 +7474,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1" s="165" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="165" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="166" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="G1" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="C1" s="165" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="E1" s="166" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="H1" s="167"/>
       <c r="I1" s="168" t="s">
@@ -7571,125 +7501,125 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="166" t="s">
+        <v>608</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C2" s="166" t="s">
-        <v>613</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="H2" s="167"/>
       <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="H3" s="167"/>
       <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="G4" s="166" t="s">
         <v>626</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="G4" s="166" t="s">
-        <v>631</v>
       </c>
       <c r="H4" s="167"/>
       <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="167" t="s">
         <v>633</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E5" s="166" t="s">
-        <v>636</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="G5" s="167" t="s">
-        <v>638</v>
       </c>
       <c r="H5" s="167"/>
       <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" s="169" t="s">
+        <v>638</v>
+      </c>
+      <c r="F6" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="G6" s="169" t="s">
         <v>640</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D6" s="169" t="s">
-        <v>642</v>
-      </c>
-      <c r="E6" s="169" t="s">
-        <v>643</v>
-      </c>
-      <c r="F6" s="169" t="s">
-        <v>644</v>
-      </c>
-      <c r="G6" s="169" t="s">
-        <v>645</v>
       </c>
       <c r="H6" s="167"/>
       <c r="I6" s="167"/>
@@ -7697,33 +7627,33 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C9" s="184" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D9" s="184" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F9" s="185" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G9" s="184" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="H9" s="183" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="261" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B10" s="262"/>
       <c r="C10" s="262"/>
@@ -7735,22 +7665,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="182" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E11" s="178" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F11" s="178" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="181"/>
@@ -7827,7 +7757,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="261" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B19" s="262"/>
       <c r="C19" s="262"/>
@@ -7839,90 +7769,90 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="180" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E20" s="178" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F20" s="177">
         <v>25898039</v>
       </c>
       <c r="G20" s="264" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="179" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E21" s="178"/>
       <c r="F21" s="177"/>
       <c r="G21" s="264"/>
       <c r="H21" s="176" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="179" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E22" s="178"/>
       <c r="F22" s="177"/>
       <c r="G22" s="43" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E23" s="178" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7957,44 +7887,44 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D27" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="E27" s="178" t="s">
         <v>671</v>
       </c>
-      <c r="E27" s="178" t="s">
-        <v>676</v>
-      </c>
       <c r="F27" s="177" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="176"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="180" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E28" s="178" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F28" s="178" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="176"/>
@@ -8011,56 +7941,56 @@
     </row>
     <row r="32" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B33" s="187" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -8070,35 +8000,35 @@
     </row>
     <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F36" s="188" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="192" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B38" s="192" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C38" s="192" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E38" s="192" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="191" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D39" s="189">
         <v>1153332210</v>
@@ -8107,10 +8037,10 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="191" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B40" s="189" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C40" s="189"/>
       <c r="D40" s="189"/>
@@ -8118,7 +8048,7 @@
     </row>
     <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="191" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B41" s="189"/>
       <c r="C41" s="189"/>
@@ -8127,10 +8057,10 @@
     </row>
     <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="191" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B42" s="189" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C42" s="189"/>
       <c r="D42" s="189"/>
@@ -8138,57 +8068,57 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="191" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B43" s="189"/>
       <c r="C43" s="189"/>
       <c r="D43" s="189"/>
       <c r="E43" s="189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="191" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B44" s="189"/>
       <c r="C44" s="189"/>
       <c r="D44" s="189"/>
       <c r="E44" s="189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="191" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B45" s="189"/>
       <c r="C45" s="189"/>
       <c r="D45" s="189"/>
       <c r="E45" s="189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="191" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B46" s="189"/>
       <c r="C46" s="189"/>
       <c r="D46" s="189"/>
       <c r="E46" s="189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="191" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B47" s="189"/>
       <c r="C47" s="189"/>
       <c r="D47" s="189"/>
       <c r="E47" s="189" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8221,13 +8151,13 @@
     </row>
     <row r="52" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="191" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B52" s="189"/>
       <c r="C52" s="189"/>
       <c r="D52" s="189"/>
       <c r="E52" s="189" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8239,7 +8169,7 @@
     </row>
     <row r="54" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="190" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B54" s="189"/>
       <c r="C54" s="189"/>
@@ -8248,7 +8178,7 @@
     </row>
     <row r="55" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="189" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B55" s="189"/>
       <c r="C55" s="189"/>
@@ -8257,7 +8187,7 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="189" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B56" s="189"/>
       <c r="C56" s="189"/>
@@ -8266,7 +8196,7 @@
     </row>
     <row r="57" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="189" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B57" s="189"/>
       <c r="C57" s="189"/>
@@ -8275,13 +8205,13 @@
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B60" s="193" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D60" s="193"/>
       <c r="E60" s="193"/>
@@ -8292,10 +8222,10 @@
     </row>
     <row r="61" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C61" s="193"/>
       <c r="D61" s="193"/>
@@ -8311,7 +8241,7 @@
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="G62" s="195" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8325,26 +8255,26 @@
     </row>
     <row r="64" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A64" s="194" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B64" s="193" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D64" s="100" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E64" s="100" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F64" s="193"/>
       <c r="G64" s="193"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
@@ -8373,26 +8303,26 @@
     </row>
     <row r="68" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="194" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B68" s="193" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C68" s="193" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D68" s="193" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E68" s="193" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F68" s="193"/>
       <c r="G68" s="193"/>
     </row>
     <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="193" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B69" s="193"/>
       <c r="C69" s="193"/>
@@ -8403,49 +8333,49 @@
     </row>
     <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="198" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B73" s="199" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C73" s="199" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D73" s="198" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E73" s="199" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G73" s="197"/>
     </row>
     <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="198" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B74" s="198" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C74" s="199" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D74" s="198" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E74" s="198" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F74" s="198" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G74" s="197"/>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="198" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B75" s="197"/>
       <c r="C75" s="197"/>
@@ -8579,78 +8509,78 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B1" s="175" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C2" s="171"/>
     </row>
     <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B7" s="172" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="265" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B8" s="266"/>
       <c r="C8" s="171"/>
@@ -8689,19 +8619,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="201" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B1" s="201" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C1" s="201" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D1" s="201" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E1" s="201" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F1" s="206" t="s">
         <v>70</v>
@@ -8709,51 +8639,51 @@
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B2" s="203" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C2" s="203" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D2" s="204"/>
       <c r="E2" s="120" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204"/>
       <c r="B3" s="203" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C3" s="203" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D3" s="204"/>
       <c r="E3" s="120" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="204"/>
       <c r="B4" s="203" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C4" s="204"/>
       <c r="D4" s="204"/>
       <c r="E4" s="120" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="204"/>
       <c r="B5" s="203" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="120" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,51 +8698,51 @@
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B8" s="267"/>
       <c r="C8" s="201" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D10" s="204"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="204" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" s="204"/>
       <c r="D12" s="204"/>
       <c r="E12" s="204" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8821,7 +8751,7 @@
       <c r="C13" s="120"/>
       <c r="D13" s="204"/>
       <c r="E13" s="204" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,7 +8759,7 @@
       <c r="B14" s="204"/>
       <c r="D14" s="204"/>
       <c r="E14" s="204" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,25 +9018,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="207" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C1" s="207" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="207" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C2" s="207" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
@@ -9114,137 +9044,137 @@
     </row>
     <row r="3" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="208" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B3" s="207" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C3" s="207" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="207" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B4" s="207" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C4" s="208" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="207" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B5" s="207" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="207" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B6" s="207" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C6" s="207" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="207" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B7" s="207" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C7" s="207" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="208" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B8" s="207" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C8" s="207" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="207" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B9" s="207" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C9" s="207" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="207" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B10" s="207" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C10" s="207" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="208" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B11" s="207" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C11" s="207" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="207" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B12" s="207" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C12" s="207" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="207" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B13" s="207" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="207" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9270,22 +9200,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -9700,10 +9630,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9715,7 +9645,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9729,7 +9659,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9738,10 +9668,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9750,10 +9680,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9762,10 +9692,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9822,10 +9752,10 @@
     </row>
     <row r="29" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9989,22 +9919,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1" s="120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C1" s="120" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D1" s="120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E1" s="120" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F1" s="120" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G1" s="122" t="s">
         <v>70</v>
@@ -10012,42 +9942,42 @@
     </row>
     <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="F2" s="120" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="120" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>157</v>
-      </c>
       <c r="F3" s="120" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10109,25 +10039,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>70</v>
@@ -10135,80 +10065,80 @@
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,48 +10154,48 @@
     </row>
     <row r="6" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10281,42 +10211,42 @@
     </row>
     <row r="9" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10332,56 +10262,56 @@
     </row>
     <row r="12" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10389,16 +10319,16 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -10580,23 +10510,23 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D1" s="232" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E1" s="233"/>
       <c r="F1" s="220"/>
       <c r="G1" s="224" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H1" s="225"/>
       <c r="I1" s="220"/>
       <c r="J1" s="228" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K1" s="229"/>
       <c r="M1" s="226" t="s">
@@ -10605,240 +10535,240 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B2" s="127">
         <v>77.5</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F2" s="220"/>
       <c r="G2" s="144" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
       <c r="I2" s="220"/>
       <c r="J2" s="139" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M2" s="227"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B3" s="127">
         <v>98</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E3" s="14">
         <v>132</v>
       </c>
       <c r="F3" s="220"/>
       <c r="G3" s="144" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
       <c r="I3" s="220"/>
       <c r="J3" s="139" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B4" s="127">
         <v>76</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E4" s="14">
         <v>120</v>
       </c>
       <c r="F4" s="220"/>
       <c r="G4" s="144" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
       <c r="I4" s="220"/>
       <c r="J4" s="139" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K4" s="140" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B5" s="127">
         <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E5" s="15">
         <v>128</v>
       </c>
       <c r="F5" s="220"/>
       <c r="G5" s="144" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
       <c r="I5" s="220"/>
       <c r="J5" s="139" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B6" s="127"/>
       <c r="D6" s="16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E6" s="15">
         <v>100</v>
       </c>
       <c r="F6" s="220"/>
       <c r="G6" s="144" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I6" s="220"/>
       <c r="J6" s="141" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B7" s="127"/>
       <c r="D7" s="16" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="220"/>
       <c r="G7" s="144" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I7" s="220"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="220"/>
       <c r="G8" s="144" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="220"/>
       <c r="J8" s="221" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="220"/>
       <c r="G9" s="144" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="I9" s="220"/>
       <c r="J9" s="131" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K9" s="131" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="126" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F10" s="220"/>
       <c r="G10" s="144" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I10" s="220"/>
       <c r="J10" s="131" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K10" s="131" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E11" s="14">
         <v>143</v>
@@ -10850,14 +10780,14 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="220"/>
       <c r="G12" s="230" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H12" s="231"/>
       <c r="I12" s="220"/>
@@ -10866,85 +10796,85 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B13" s="151">
         <v>69</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F13" s="220"/>
       <c r="G13" s="136" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H13" s="136" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I13" s="220"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B14" s="152">
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E14" s="14">
         <v>120</v>
       </c>
       <c r="F14" s="220"/>
       <c r="G14" s="136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I14" s="220"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="220"/>
       <c r="G15" s="136" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H15" s="137" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I15" s="220"/>
       <c r="J15" s="107" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K15" s="107" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F16" s="220"/>
       <c r="G16" s="136" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H16" s="136" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I16" s="220"/>
       <c r="J16" s="107"/>
@@ -10952,23 +10882,23 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F17" s="220"/>
       <c r="G17" s="138" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I17" s="220"/>
       <c r="J17" s="107"/>
@@ -10976,80 +10906,80 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F18" s="220"/>
       <c r="I18" s="220"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F19" s="220"/>
       <c r="G19" s="222" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H19" s="223"/>
       <c r="I19" s="220"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F20" s="220"/>
       <c r="G20" s="124" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I20" s="220"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="21" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="220"/>
       <c r="G21" s="124" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I21" s="220"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="21" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="220"/>
@@ -11059,11 +10989,11 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="21" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="220"/>
@@ -11073,31 +11003,31 @@
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F24" s="220"/>
       <c r="G24" s="143" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="220"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B25" s="80"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B26" s="80"/>
     </row>
@@ -11112,31 +11042,31 @@
     <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="133"/>
       <c r="D29" s="132" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F29" s="133"/>
       <c r="G29" s="32" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H29" s="132" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="234" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B30" s="235"/>
       <c r="G30" s="135" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B31" s="22">
         <v>1.5</v>
@@ -11144,7 +11074,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B32" s="22">
         <v>1.5</v>
@@ -11152,15 +11082,15 @@
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B34" s="22">
         <v>4.7</v>
@@ -11168,7 +11098,7 @@
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B35" s="22">
         <v>2</v>
@@ -11176,7 +11106,7 @@
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B36" s="22">
         <v>0.4</v>
@@ -11184,19 +11114,19 @@
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="218" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B39" s="219"/>
     </row>
@@ -11239,25 +11169,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1" s="156" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="156" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="G1" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="C1" s="156" t="s">
-        <v>562</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>563</v>
-      </c>
-      <c r="E1" s="156" t="s">
-        <v>564</v>
-      </c>
-      <c r="F1" s="156" t="s">
-        <v>565</v>
-      </c>
-      <c r="G1" s="156" t="s">
-        <v>566</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>70</v>
@@ -11265,35 +11195,35 @@
     </row>
     <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D2" s="157"/>
       <c r="E2" s="156" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F2" s="158"/>
       <c r="G2" s="159" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="156" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
@@ -11301,7 +11231,7 @@
     </row>
     <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="236" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B4" s="236"/>
       <c r="C4" s="236"/>
@@ -11313,16 +11243,16 @@
     </row>
     <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="163"/>
       <c r="F5" s="158"/>
@@ -11331,15 +11261,15 @@
     </row>
     <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="161" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F6" s="158"/>
       <c r="G6" s="158"/>
@@ -11405,10 +11335,10 @@
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F1" s="237" t="s">
         <v>70</v>
@@ -11429,10 +11359,10 @@
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I3" s="13"/>
       <c r="L3" s="13"/>
@@ -11440,37 +11370,37 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -11480,12 +11410,12 @@
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="240" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C15" s="240"/>
       <c r="D15" s="240"/>
@@ -11494,97 +11424,97 @@
     </row>
     <row r="16" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E16" s="239" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F16" s="239"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="52.5" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -11593,7 +11523,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -11602,7 +11532,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F23" s="40"/>
     </row>

--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90FD6E-2C0C-4059-8CD3-2A903CD3235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACA1DB-02DB-410B-9FE4-3AFFC9AC00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="855">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -550,12 +550,6 @@
   </si>
   <si>
     <t>وزارة الداخلية F</t>
-  </si>
-  <si>
-    <t>احمد رجب</t>
-  </si>
-  <si>
-    <t>الدكتور</t>
   </si>
   <si>
     <t>Body</t>
@@ -1542,9 +1536,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>Prob Solving Sarcasm</t>
-  </si>
-  <si>
     <t>Egy Official</t>
   </si>
   <si>
@@ -1687,9 +1678,6 @@
   </si>
   <si>
     <t>Soul Health</t>
-  </si>
-  <si>
-    <t>احمد متولي</t>
   </si>
   <si>
     <t>Elgalla Gold</t>
@@ -2933,6 +2921,21 @@
   </si>
   <si>
     <t>Personal Finance EG</t>
+  </si>
+  <si>
+    <t>Printige</t>
+  </si>
+  <si>
+    <t>Technolobiaa</t>
+  </si>
+  <si>
+    <t>Hailuoai</t>
+  </si>
+  <si>
+    <t>InnovEgypt</t>
+  </si>
+  <si>
+    <t>TIECEgypt</t>
   </si>
 </sst>
 </file>
@@ -4769,6 +4772,36 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4791,36 +4824,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5622,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5647,25 +5650,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D1" s="200" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="200" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1" s="200" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1" s="119" t="s">
         <v>474</v>
-      </c>
-      <c r="E1" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="200" t="s">
-        <v>522</v>
-      </c>
-      <c r="G1" s="119" t="s">
-        <v>501</v>
-      </c>
-      <c r="H1" s="200" t="s">
-        <v>523</v>
-      </c>
-      <c r="I1" s="119" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,22 +5682,22 @@
         <v>115</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>476</v>
+        <v>130</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" s="120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="120" t="s">
-        <v>132</v>
+        <v>846</v>
       </c>
       <c r="I2" s="200" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,80 +5708,76 @@
         <v>141</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>133</v>
+        <v>832</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>137</v>
+        <v>847</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>839</v>
+        <v>140</v>
       </c>
       <c r="H3" s="120" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>838</v>
-      </c>
-      <c r="C4" s="120" t="s">
+        <v>834</v>
+      </c>
+      <c r="C4" s="209" t="s">
         <v>851</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>845</v>
-      </c>
-      <c r="E4" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="120" t="s">
-        <v>835</v>
-      </c>
-      <c r="G4" s="120" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="120" t="s">
-        <v>166</v>
-      </c>
+      <c r="D4" s="209" t="s">
+        <v>849</v>
+      </c>
+      <c r="E4" s="209" t="s">
+        <v>853</v>
+      </c>
+      <c r="F4" s="209" t="s">
+        <v>854</v>
+      </c>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="200" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="209" t="s">
-        <v>853</v>
-      </c>
-      <c r="C5" s="209" t="s">
-        <v>852</v>
-      </c>
+      <c r="A5" s="209" t="s">
+        <v>848</v>
+      </c>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="120"/>
       <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="F5" s="209" t="s">
+        <v>852</v>
+      </c>
+      <c r="G5" s="120" t="s">
+        <v>850</v>
+      </c>
       <c r="H5" s="200" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I5" s="119" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="214" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B6" s="214"/>
       <c r="C6" s="214"/>
@@ -5905,7 +5904,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="214" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B11" s="214"/>
       <c r="C11" s="214"/>
@@ -5918,65 +5917,65 @@
     </row>
     <row r="12" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="120" t="s">
         <v>504</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="E12" s="120" t="s">
         <v>505</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="F12" s="120" t="s">
         <v>506</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="G12" s="120" t="s">
         <v>507</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="H12" s="120" t="s">
         <v>508</v>
       </c>
-      <c r="F12" s="120" t="s">
-        <v>509</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="120" t="s">
-        <v>511</v>
-      </c>
       <c r="I12" s="120" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="E13" s="120" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="F13" s="120" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="G13" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="E13" s="120" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="120" t="s">
+      <c r="H13" s="120" t="s">
         <v>517</v>
       </c>
-      <c r="G13" s="120" t="s">
-        <v>518</v>
-      </c>
-      <c r="H13" s="120" t="s">
-        <v>520</v>
-      </c>
       <c r="I13" s="120" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="214" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B14" s="214"/>
       <c r="C14" s="214"/>
@@ -6129,11 +6128,17 @@
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="209" t="s">
-        <v>848</v>
-      </c>
-      <c r="B21" s="209"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
+        <v>844</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>841</v>
+      </c>
       <c r="E21" s="209"/>
       <c r="F21" s="209"/>
       <c r="G21" s="209"/>
@@ -6148,137 +6153,138 @@
     <mergeCell ref="A11:I11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Problem Solving Sarcasm" xr:uid="{33C27C30-7AAF-49FB-8B81-811C0DDFF241}"/>
     <hyperlink ref="F1" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Jobs" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
     <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
     <hyperlink ref="B1:D1" location="'$$'!A1" display="'$$'!A1" xr:uid="{36CA0706-DD86-4B1D-A60E-4D98853504F5}"/>
-    <hyperlink ref="C1" r:id="rId6" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
-    <hyperlink ref="A1" r:id="rId7" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
+    <hyperlink ref="C1" r:id="rId5" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
+    <hyperlink ref="A1" r:id="rId6" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="I3" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
-    <hyperlink ref="B16" r:id="rId9" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
-    <hyperlink ref="C16" r:id="rId10" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
-    <hyperlink ref="C17" r:id="rId11" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
-    <hyperlink ref="F16" r:id="rId12" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
-    <hyperlink ref="G16" r:id="rId13" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
-    <hyperlink ref="E16" r:id="rId15" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
-    <hyperlink ref="I16" r:id="rId17" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
-    <hyperlink ref="F17" r:id="rId18" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
-    <hyperlink ref="G17" r:id="rId19" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
-    <hyperlink ref="A18" r:id="rId20" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
-    <hyperlink ref="B18" r:id="rId21" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
-    <hyperlink ref="E17" r:id="rId22" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
-    <hyperlink ref="E18" r:id="rId23" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
-    <hyperlink ref="F18" r:id="rId24" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
-    <hyperlink ref="C18" r:id="rId25" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
-    <hyperlink ref="D18" r:id="rId26" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
-    <hyperlink ref="H17" r:id="rId27" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
-    <hyperlink ref="H16" r:id="rId28" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
-    <hyperlink ref="B19" r:id="rId29" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
-    <hyperlink ref="D17" r:id="rId30" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
-    <hyperlink ref="C19" r:id="rId31" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
-    <hyperlink ref="B17" r:id="rId32" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
-    <hyperlink ref="A19" r:id="rId33" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
-    <hyperlink ref="H18" r:id="rId34" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
-    <hyperlink ref="G18" r:id="rId35" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
+    <hyperlink ref="B16" r:id="rId8" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
+    <hyperlink ref="C16" r:id="rId9" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
+    <hyperlink ref="C17" r:id="rId10" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
+    <hyperlink ref="F16" r:id="rId11" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
+    <hyperlink ref="G16" r:id="rId12" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
+    <hyperlink ref="D16" r:id="rId13" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
+    <hyperlink ref="E16" r:id="rId14" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
+    <hyperlink ref="I16" r:id="rId16" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
+    <hyperlink ref="F17" r:id="rId17" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
+    <hyperlink ref="G17" r:id="rId18" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
+    <hyperlink ref="A18" r:id="rId19" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
+    <hyperlink ref="B18" r:id="rId20" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
+    <hyperlink ref="E17" r:id="rId21" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
+    <hyperlink ref="E18" r:id="rId22" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
+    <hyperlink ref="F18" r:id="rId23" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
+    <hyperlink ref="C18" r:id="rId24" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
+    <hyperlink ref="D18" r:id="rId25" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
+    <hyperlink ref="H17" r:id="rId26" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
+    <hyperlink ref="H16" r:id="rId27" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
+    <hyperlink ref="B19" r:id="rId28" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
+    <hyperlink ref="C19" r:id="rId30" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
+    <hyperlink ref="A19" r:id="rId32" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
+    <hyperlink ref="H18" r:id="rId33" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
+    <hyperlink ref="G18" r:id="rId34" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="H15" r:id="rId35" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
+    <hyperlink ref="I15" r:id="rId36" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
+    <hyperlink ref="E15" r:id="rId37" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
+    <hyperlink ref="F15" r:id="rId38" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
+    <hyperlink ref="G15" r:id="rId39" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
+    <hyperlink ref="B15" r:id="rId40" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
+    <hyperlink ref="A15" r:id="rId41" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
+    <hyperlink ref="H13" r:id="rId42" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
+    <hyperlink ref="I12" r:id="rId43" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
+    <hyperlink ref="G13" r:id="rId44" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
+    <hyperlink ref="F13" r:id="rId45" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
+    <hyperlink ref="E13" r:id="rId46" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
+    <hyperlink ref="D13" r:id="rId47" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
+    <hyperlink ref="C13" r:id="rId48" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
+    <hyperlink ref="B13" r:id="rId49" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
+    <hyperlink ref="A13" r:id="rId50" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
+    <hyperlink ref="H12" r:id="rId51" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
+    <hyperlink ref="G12" r:id="rId52" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
+    <hyperlink ref="F12" r:id="rId53" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
+    <hyperlink ref="E12" r:id="rId54" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
+    <hyperlink ref="D12" r:id="rId55" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
+    <hyperlink ref="C12" r:id="rId56" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
+    <hyperlink ref="B12" r:id="rId57" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
+    <hyperlink ref="A12" r:id="rId58" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
+    <hyperlink ref="H10" r:id="rId59" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="G10" r:id="rId60" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="I9" r:id="rId61" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="F10" r:id="rId62" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C10" r:id="rId63" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="E10" r:id="rId64" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="D10" r:id="rId65" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="B10" r:id="rId66" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="A10" r:id="rId67" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
+    <hyperlink ref="F9" r:id="rId68" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="D9" r:id="rId69" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="E9" r:id="rId70" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="G9" r:id="rId71" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="H9" r:id="rId72" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="A9" r:id="rId73" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="B9" r:id="rId74" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="C9" r:id="rId75" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C7" r:id="rId76" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="I8" r:id="rId77" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="G7" r:id="rId78" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="F8" r:id="rId79" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="E8" r:id="rId80" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="D8" r:id="rId81" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="G8" r:id="rId82" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="C8" r:id="rId83" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="A8" r:id="rId84" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="B8" r:id="rId85" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="E7" r:id="rId86" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="I7" r:id="rId87" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="H8" r:id="rId88" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="B7" r:id="rId89" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H7" r:id="rId90" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="D7" r:id="rId91" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="F7" r:id="rId92" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="A7" r:id="rId93" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="H3" r:id="rId94" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="E2" r:id="rId95" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="F2" r:id="rId96" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="C3" r:id="rId97" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="B3" r:id="rId98" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="G3" r:id="rId100" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
+    <hyperlink ref="D3" r:id="rId101" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="A4" r:id="rId102" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="B4" r:id="rId103" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="E3" r:id="rId104" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="H5" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
+    <hyperlink ref="D21" r:id="rId105" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
+    <hyperlink ref="A21" r:id="rId106" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
+    <hyperlink ref="I13" r:id="rId107" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
+    <hyperlink ref="H2" r:id="rId108" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
+    <hyperlink ref="F3" r:id="rId109" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
+    <hyperlink ref="D4" r:id="rId110" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
+    <hyperlink ref="A5" r:id="rId111" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
+    <hyperlink ref="G5" r:id="rId112" xr:uid="{45C16977-7BCA-47B9-ADD3-84D73D43F510}"/>
+    <hyperlink ref="C4" r:id="rId113" xr:uid="{1C0CD253-878C-4D31-9251-F104BC1A7A94}"/>
+    <hyperlink ref="F5" r:id="rId114" xr:uid="{3300B61F-C9A8-4E0B-AC4A-26EC93A72999}"/>
+    <hyperlink ref="A3" r:id="rId115" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
     <hyperlink ref="I4" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
-    <hyperlink ref="H15" r:id="rId36" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
-    <hyperlink ref="I15" r:id="rId37" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
-    <hyperlink ref="E15" r:id="rId38" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
-    <hyperlink ref="F15" r:id="rId39" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
-    <hyperlink ref="G15" r:id="rId40" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
-    <hyperlink ref="B15" r:id="rId41" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
-    <hyperlink ref="A15" r:id="rId42" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
-    <hyperlink ref="H13" r:id="rId43" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
-    <hyperlink ref="I12" r:id="rId44" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
-    <hyperlink ref="G13" r:id="rId45" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
-    <hyperlink ref="F13" r:id="rId46" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
-    <hyperlink ref="E13" r:id="rId47" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
-    <hyperlink ref="D13" r:id="rId48" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
-    <hyperlink ref="C13" r:id="rId49" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
-    <hyperlink ref="B13" r:id="rId50" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
-    <hyperlink ref="A13" r:id="rId51" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
-    <hyperlink ref="H12" r:id="rId52" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
-    <hyperlink ref="G12" r:id="rId53" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
-    <hyperlink ref="F12" r:id="rId54" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
-    <hyperlink ref="E12" r:id="rId55" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
-    <hyperlink ref="D12" r:id="rId56" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
-    <hyperlink ref="C12" r:id="rId57" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
-    <hyperlink ref="B12" r:id="rId58" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
-    <hyperlink ref="A12" r:id="rId59" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
-    <hyperlink ref="H10" r:id="rId60" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="G10" r:id="rId61" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="I9" r:id="rId62" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="F10" r:id="rId63" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="C10" r:id="rId64" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="E10" r:id="rId65" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="D10" r:id="rId66" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="B10" r:id="rId67" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="A10" r:id="rId68" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
-    <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
-    <hyperlink ref="F9" r:id="rId69" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="D9" r:id="rId70" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="E9" r:id="rId71" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="G9" r:id="rId72" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="H9" r:id="rId73" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="A9" r:id="rId74" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="B9" r:id="rId75" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="C9" r:id="rId76" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C7" r:id="rId77" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="I8" r:id="rId78" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="G7" r:id="rId79" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="F8" r:id="rId80" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="E8" r:id="rId81" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="D8" r:id="rId82" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="G8" r:id="rId83" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="C8" r:id="rId84" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="A8" r:id="rId85" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="B8" r:id="rId86" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="E7" r:id="rId87" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="I7" r:id="rId88" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="H8" r:id="rId89" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="B7" r:id="rId90" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H7" r:id="rId91" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="D7" r:id="rId92" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="F7" r:id="rId93" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="A7" r:id="rId94" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="H4" r:id="rId95" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="C3" r:id="rId96" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
-    <hyperlink ref="F4" r:id="rId97" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="F2" r:id="rId98" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="D3" r:id="rId100" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="B3" r:id="rId101" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="H2" r:id="rId102" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="A3" r:id="rId103" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="E4" r:id="rId104" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
-    <hyperlink ref="E3" r:id="rId105" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
-    <hyperlink ref="A4" r:id="rId106" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
-    <hyperlink ref="B4" r:id="rId107" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
-    <hyperlink ref="G3" r:id="rId108" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
-    <hyperlink ref="H5" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
-    <hyperlink ref="D4" r:id="rId109" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
-    <hyperlink ref="A21" r:id="rId110" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
-    <hyperlink ref="I13" r:id="rId111" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
-    <hyperlink ref="H3" r:id="rId112" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
-    <hyperlink ref="C4" r:id="rId113" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
-    <hyperlink ref="B5" r:id="rId114" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
-    <hyperlink ref="C5" r:id="rId115" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
-    <hyperlink ref="A5" r:id="rId116" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
+    <hyperlink ref="E4" r:id="rId116" xr:uid="{277FBAA6-1E44-4092-B37E-11C8208136A6}"/>
+    <hyperlink ref="F4" r:id="rId117" xr:uid="{969AC396-5B59-481C-A83A-7CF2FB12E437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId117"/>
+  <pageSetup orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
 
@@ -6308,28 +6314,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K1" s="237" t="s">
         <v>70</v>
@@ -6337,25 +6343,25 @@
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="244" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E2" s="258" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I2" s="83"/>
       <c r="K2" s="238"/>
@@ -6364,14 +6370,14 @@
       <c r="A3" s="244"/>
       <c r="B3" s="73"/>
       <c r="C3" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E3" s="259"/>
       <c r="F3" s="82" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="80"/>
@@ -6382,19 +6388,19 @@
       <c r="C4" s="53"/>
       <c r="E4" s="260"/>
       <c r="F4" s="79" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G4" s="78">
         <v>44</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K4" s="246" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6402,17 +6408,17 @@
       <c r="B5" s="73"/>
       <c r="C5" s="53"/>
       <c r="E5" s="249" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K5" s="247"/>
     </row>
@@ -6422,7 +6428,7 @@
       <c r="C6" s="53"/>
       <c r="E6" s="250"/>
       <c r="F6" s="72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
@@ -6430,17 +6436,17 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="244" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="251"/>
       <c r="F7" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
@@ -6449,16 +6455,16 @@
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="244"/>
       <c r="B8" s="255" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E8" s="252" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G8" s="256">
         <v>1.8229166666666667</v>
@@ -6470,11 +6476,11 @@
       <c r="A9" s="244"/>
       <c r="B9" s="255"/>
       <c r="C9" s="53" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="253"/>
       <c r="F9" s="63" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G9" s="257"/>
       <c r="H9" s="62"/>
@@ -6483,26 +6489,26 @@
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="244"/>
       <c r="B10" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="244" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C11" s="53"/>
       <c r="E11" s="254" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I11" s="245" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6511,7 +6517,7 @@
       <c r="C12" s="53"/>
       <c r="E12" s="244"/>
       <c r="F12" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I12" s="245"/>
     </row>
@@ -6530,7 +6536,7 @@
       <c r="E14" s="244"/>
       <c r="F14" s="57"/>
       <c r="I14" s="55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6546,7 @@
       <c r="E15" s="248"/>
       <c r="F15" s="56"/>
       <c r="I15" s="55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6550,10 +6556,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="244" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" s="53"/>
     </row>
@@ -6576,31 +6582,31 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="241" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B22" s="242"/>
       <c r="C22" s="243"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6655,22 +6661,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H1" s="237" t="s">
         <v>70</v>
@@ -6678,34 +6684,34 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E2" s="43">
         <v>2</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H2" s="238"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D3" s="43">
         <v>15</v>
@@ -6714,18 +6720,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D4" s="43">
         <v>15</v>
@@ -6734,38 +6740,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D6" s="43">
         <v>15</v>
@@ -6774,18 +6780,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D7" s="43">
         <v>15</v>
@@ -6794,18 +6800,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" s="43">
         <v>50</v>
@@ -6814,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6899,27 +6905,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="95" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="95" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6960,43 +6966,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D2" s="101"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -7005,28 +7011,28 @@
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="100" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
@@ -7035,38 +7041,38 @@
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="100" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D10" s="99"/>
     </row>
@@ -7078,21 +7084,21 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
@@ -7100,7 +7106,7 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -7108,7 +7114,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
@@ -7116,7 +7122,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="105" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
@@ -7124,7 +7130,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
@@ -7132,7 +7138,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="105" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105"/>
@@ -7140,7 +7146,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105"/>
@@ -7148,27 +7154,27 @@
     </row>
     <row r="27" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E27" s="112" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C28" s="110">
         <v>1227504373</v>
@@ -7182,10 +7188,10 @@
     </row>
     <row r="29" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C29" s="110">
         <v>1028358685</v>
@@ -7197,10 +7203,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C30" s="108">
         <v>1125519116</v>
@@ -7217,62 +7223,62 @@
     </row>
     <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="115" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="115" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="115" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -7280,7 +7286,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7332,46 +7338,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7474,25 +7480,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="165" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1" s="165" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="166" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="F1" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="G1" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" s="166" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="H1" s="167"/>
       <c r="I1" s="168" t="s">
@@ -7501,125 +7507,125 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="166" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="G2" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="H2" s="167"/>
       <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="H3" s="167"/>
       <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="166" t="s">
         <v>622</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G4" s="166" t="s">
-        <v>626</v>
       </c>
       <c r="H4" s="167"/>
       <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="166" t="s">
         <v>627</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="167" t="s">
         <v>629</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E5" s="166" t="s">
-        <v>631</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="G5" s="167" t="s">
-        <v>633</v>
       </c>
       <c r="H5" s="167"/>
       <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>633</v>
+      </c>
+      <c r="E6" s="169" t="s">
         <v>634</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="169" t="s">
         <v>635</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="169" t="s">
         <v>636</v>
-      </c>
-      <c r="D6" s="169" t="s">
-        <v>637</v>
-      </c>
-      <c r="E6" s="169" t="s">
-        <v>638</v>
-      </c>
-      <c r="F6" s="169" t="s">
-        <v>639</v>
-      </c>
-      <c r="G6" s="169" t="s">
-        <v>640</v>
       </c>
       <c r="H6" s="167"/>
       <c r="I6" s="167"/>
@@ -7627,33 +7633,33 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C9" s="184" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D9" s="184" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F9" s="185" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G9" s="184" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H9" s="183" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="261" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B10" s="262"/>
       <c r="C10" s="262"/>
@@ -7665,22 +7671,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="182" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E11" s="178" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F11" s="178" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="181"/>
@@ -7757,7 +7763,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="261" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B19" s="262"/>
       <c r="C19" s="262"/>
@@ -7769,90 +7775,90 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="180" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E20" s="178" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F20" s="177">
         <v>25898039</v>
       </c>
       <c r="G20" s="264" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="179" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E21" s="178"/>
       <c r="F21" s="177"/>
       <c r="G21" s="264"/>
       <c r="H21" s="176" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="179" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E22" s="178"/>
       <c r="F22" s="177"/>
       <c r="G22" s="43" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E23" s="178" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7887,44 +7893,44 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D27" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="E27" s="178" t="s">
+        <v>667</v>
+      </c>
+      <c r="F27" s="177" t="s">
         <v>666</v>
-      </c>
-      <c r="E27" s="178" t="s">
-        <v>671</v>
-      </c>
-      <c r="F27" s="177" t="s">
-        <v>670</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="176"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="180" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E28" s="178" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F28" s="178" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="176"/>
@@ -7941,56 +7947,56 @@
     </row>
     <row r="32" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B33" s="187" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -8000,35 +8006,35 @@
     </row>
     <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F36" s="188" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="192" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B38" s="192" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C38" s="192" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E38" s="192" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="191" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D39" s="189">
         <v>1153332210</v>
@@ -8037,10 +8043,10 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="191" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B40" s="189" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C40" s="189"/>
       <c r="D40" s="189"/>
@@ -8048,7 +8054,7 @@
     </row>
     <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="191" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B41" s="189"/>
       <c r="C41" s="189"/>
@@ -8057,10 +8063,10 @@
     </row>
     <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="191" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B42" s="189" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C42" s="189"/>
       <c r="D42" s="189"/>
@@ -8068,57 +8074,57 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="191" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B43" s="189"/>
       <c r="C43" s="189"/>
       <c r="D43" s="189"/>
       <c r="E43" s="189" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="191" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B44" s="189"/>
       <c r="C44" s="189"/>
       <c r="D44" s="189"/>
       <c r="E44" s="189" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="191" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B45" s="189"/>
       <c r="C45" s="189"/>
       <c r="D45" s="189"/>
       <c r="E45" s="189" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="191" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B46" s="189"/>
       <c r="C46" s="189"/>
       <c r="D46" s="189"/>
       <c r="E46" s="189" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="191" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B47" s="189"/>
       <c r="C47" s="189"/>
       <c r="D47" s="189"/>
       <c r="E47" s="189" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8151,13 +8157,13 @@
     </row>
     <row r="52" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="191" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B52" s="189"/>
       <c r="C52" s="189"/>
       <c r="D52" s="189"/>
       <c r="E52" s="189" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8169,7 +8175,7 @@
     </row>
     <row r="54" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="190" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B54" s="189"/>
       <c r="C54" s="189"/>
@@ -8178,7 +8184,7 @@
     </row>
     <row r="55" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="189" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B55" s="189"/>
       <c r="C55" s="189"/>
@@ -8187,7 +8193,7 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="189" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B56" s="189"/>
       <c r="C56" s="189"/>
@@ -8196,7 +8202,7 @@
     </row>
     <row r="57" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="189" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B57" s="189"/>
       <c r="C57" s="189"/>
@@ -8205,13 +8211,13 @@
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B60" s="193" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D60" s="193"/>
       <c r="E60" s="193"/>
@@ -8222,10 +8228,10 @@
     </row>
     <row r="61" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C61" s="193"/>
       <c r="D61" s="193"/>
@@ -8241,7 +8247,7 @@
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="G62" s="195" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8255,26 +8261,26 @@
     </row>
     <row r="64" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A64" s="194" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B64" s="193" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D64" s="100" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E64" s="100" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F64" s="193"/>
       <c r="G64" s="193"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
@@ -8303,26 +8309,26 @@
     </row>
     <row r="68" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="194" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B68" s="193" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C68" s="193" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D68" s="193" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E68" s="193" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F68" s="193"/>
       <c r="G68" s="193"/>
     </row>
     <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="193" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B69" s="193"/>
       <c r="C69" s="193"/>
@@ -8333,49 +8339,49 @@
     </row>
     <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="198" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B73" s="199" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C73" s="199" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D73" s="198" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E73" s="199" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G73" s="197"/>
     </row>
     <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="198" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B74" s="198" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C74" s="199" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D74" s="198" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E74" s="198" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F74" s="198" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G74" s="197"/>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="198" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B75" s="197"/>
       <c r="C75" s="197"/>
@@ -8509,78 +8515,78 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B1" s="175" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C2" s="171"/>
     </row>
     <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B7" s="172" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="265" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B8" s="266"/>
       <c r="C8" s="171"/>
@@ -8619,19 +8625,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="201" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B1" s="201" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C1" s="201" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1" s="201" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="201" t="s">
         <v>789</v>
-      </c>
-      <c r="D1" s="201" t="s">
-        <v>800</v>
-      </c>
-      <c r="E1" s="201" t="s">
-        <v>793</v>
       </c>
       <c r="F1" s="206" t="s">
         <v>70</v>
@@ -8639,51 +8645,51 @@
     </row>
     <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B2" s="203" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C2" s="203" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D2" s="204"/>
       <c r="E2" s="120" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204"/>
       <c r="B3" s="203" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C3" s="203" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D3" s="204"/>
       <c r="E3" s="120" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="204"/>
       <c r="B4" s="203" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C4" s="204"/>
       <c r="D4" s="204"/>
       <c r="E4" s="120" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="204"/>
       <c r="B5" s="203" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="120" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8698,11 +8704,11 @@
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B8" s="267"/>
       <c r="C8" s="201" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D8" s="204"/>
     </row>
@@ -8728,11 +8734,11 @@
         <v>146</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D11" s="204"/>
       <c r="E11" s="204" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,7 +8748,7 @@
       <c r="B12" s="204"/>
       <c r="D12" s="204"/>
       <c r="E12" s="204" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8751,7 +8757,7 @@
       <c r="C13" s="120"/>
       <c r="D13" s="204"/>
       <c r="E13" s="204" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8759,7 +8765,7 @@
       <c r="B14" s="204"/>
       <c r="D14" s="204"/>
       <c r="E14" s="204" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9018,25 +9024,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="207" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B1" s="207" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C1" s="207" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="207" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B2" s="207" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C2" s="207" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
@@ -9044,137 +9050,137 @@
     </row>
     <row r="3" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="208" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B3" s="207" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C3" s="207" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="207" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" s="207" t="s">
+        <v>806</v>
+      </c>
+      <c r="C4" s="208" t="s">
         <v>809</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>810</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>813</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="207" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B5" s="207" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C5" s="207" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="207" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B6" s="207" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C6" s="207" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="207" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B7" s="207" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C7" s="207" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="208" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B8" s="207" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C8" s="207" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="207" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B9" s="207" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C9" s="207" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="207" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B10" s="207" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C10" s="207" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="208" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B11" s="207" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C11" s="207" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="207" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B12" s="207" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C12" s="207" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="207" t="s">
+        <v>822</v>
+      </c>
+      <c r="B13" s="207" t="s">
         <v>826</v>
-      </c>
-      <c r="B13" s="207" t="s">
-        <v>830</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="207" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9200,22 +9206,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -9630,10 +9636,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9645,7 +9651,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9659,7 +9665,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9668,10 +9674,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B20" s="117" t="s">
         <v>489</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>492</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9680,10 +9686,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9692,10 +9698,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9755,7 +9761,7 @@
         <v>139</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -10039,25 +10045,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>70</v>
@@ -10065,80 +10071,80 @@
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,48 +10160,48 @@
     </row>
     <row r="6" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10211,42 +10217,42 @@
     </row>
     <row r="9" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10262,56 +10268,56 @@
     </row>
     <row r="12" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10319,16 +10325,16 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -10510,524 +10516,524 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="224" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="147" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="232" t="s">
+      <c r="E1" s="225"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="234" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" s="235"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="233"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="224" t="s">
-        <v>530</v>
-      </c>
-      <c r="H1" s="225"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="228" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="229"/>
-      <c r="M1" s="226" t="s">
+      <c r="K1" s="221"/>
+      <c r="M1" s="218" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B2" s="127">
         <v>77.5</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="220"/>
+        <v>239</v>
+      </c>
+      <c r="F2" s="230"/>
       <c r="G2" s="144" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
-      <c r="I2" s="220"/>
+      <c r="I2" s="230"/>
       <c r="J2" s="139" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="227"/>
+        <v>248</v>
+      </c>
+      <c r="M2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B3" s="127">
         <v>98</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E3" s="14">
         <v>132</v>
       </c>
-      <c r="F3" s="220"/>
+      <c r="F3" s="230"/>
       <c r="G3" s="144" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
-      <c r="I3" s="220"/>
+      <c r="I3" s="230"/>
       <c r="J3" s="139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B4" s="127">
         <v>76</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4" s="14">
         <v>120</v>
       </c>
-      <c r="F4" s="220"/>
+      <c r="F4" s="230"/>
       <c r="G4" s="144" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
-      <c r="I4" s="220"/>
+      <c r="I4" s="230"/>
       <c r="J4" s="139" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K4" s="140" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" s="127">
         <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="15">
         <v>128</v>
       </c>
-      <c r="F5" s="220"/>
+      <c r="F5" s="230"/>
       <c r="G5" s="144" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
-      <c r="I5" s="220"/>
+      <c r="I5" s="230"/>
       <c r="J5" s="139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B6" s="127"/>
       <c r="D6" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="220"/>
+      <c r="F6" s="230"/>
       <c r="G6" s="144" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="220"/>
+        <v>260</v>
+      </c>
+      <c r="I6" s="230"/>
       <c r="J6" s="141" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B7" s="127"/>
       <c r="D7" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="144" t="s">
         <v>535</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="144" t="s">
-        <v>539</v>
-      </c>
       <c r="H7" s="145" t="s">
-        <v>596</v>
-      </c>
-      <c r="I7" s="220"/>
+        <v>592</v>
+      </c>
+      <c r="I7" s="230"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B8" s="111" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>536</v>
-      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="220"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="144" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H8" s="145"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="221" t="s">
-        <v>554</v>
-      </c>
-      <c r="K8" s="221"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="231" t="s">
+        <v>550</v>
+      </c>
+      <c r="K8" s="231"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="220"/>
+      <c r="F9" s="230"/>
       <c r="G9" s="144" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>595</v>
-      </c>
-      <c r="I9" s="220"/>
+        <v>591</v>
+      </c>
+      <c r="I9" s="230"/>
       <c r="J9" s="131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K9" s="131" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="220"/>
+        <v>239</v>
+      </c>
+      <c r="F10" s="230"/>
       <c r="G10" s="144" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>598</v>
-      </c>
-      <c r="I10" s="220"/>
+        <v>594</v>
+      </c>
+      <c r="I10" s="230"/>
       <c r="J10" s="131" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K10" s="131" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="14">
         <v>143</v>
       </c>
-      <c r="F11" s="220"/>
-      <c r="I11" s="220"/>
+      <c r="F11" s="230"/>
+      <c r="I11" s="230"/>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="230" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" s="231"/>
-      <c r="I12" s="220"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="222" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="223"/>
+      <c r="I12" s="230"/>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B13" s="151">
         <v>69</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="220"/>
+        <v>239</v>
+      </c>
+      <c r="F13" s="230"/>
       <c r="G13" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="H13" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="I13" s="220"/>
+      <c r="I13" s="230"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" s="152">
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E14" s="14">
         <v>120</v>
       </c>
-      <c r="F14" s="220"/>
+      <c r="F14" s="230"/>
       <c r="G14" s="136" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>543</v>
-      </c>
-      <c r="I14" s="220"/>
+        <v>539</v>
+      </c>
+      <c r="I14" s="230"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="220"/>
+      <c r="F15" s="230"/>
       <c r="G15" s="136" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H15" s="137" t="s">
-        <v>550</v>
-      </c>
-      <c r="I15" s="220"/>
+        <v>546</v>
+      </c>
+      <c r="I15" s="230"/>
       <c r="J15" s="107" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K15" s="107" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="220"/>
+        <v>266</v>
+      </c>
+      <c r="F16" s="230"/>
       <c r="G16" s="136" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H16" s="136" t="s">
-        <v>578</v>
-      </c>
-      <c r="I16" s="220"/>
+        <v>574</v>
+      </c>
+      <c r="I16" s="230"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="220"/>
+        <v>239</v>
+      </c>
+      <c r="F17" s="230"/>
       <c r="G17" s="138" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>579</v>
-      </c>
-      <c r="I17" s="220"/>
+        <v>575</v>
+      </c>
+      <c r="I17" s="230"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="220"/>
-      <c r="I18" s="220"/>
+        <v>288</v>
+      </c>
+      <c r="F18" s="230"/>
+      <c r="I18" s="230"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="220"/>
-      <c r="G19" s="222" t="s">
-        <v>529</v>
-      </c>
-      <c r="H19" s="223"/>
-      <c r="I19" s="220"/>
+        <v>291</v>
+      </c>
+      <c r="F19" s="230"/>
+      <c r="G19" s="232" t="s">
+        <v>525</v>
+      </c>
+      <c r="H19" s="233"/>
+      <c r="I19" s="230"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="220"/>
+        <v>294</v>
+      </c>
+      <c r="F20" s="230"/>
       <c r="G20" s="124" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="I20" s="220"/>
+        <v>269</v>
+      </c>
+      <c r="I20" s="230"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="21" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="220"/>
+      <c r="F21" s="230"/>
       <c r="G21" s="124" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="I21" s="220"/>
+        <v>269</v>
+      </c>
+      <c r="I21" s="230"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="21" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="220"/>
+      <c r="F22" s="230"/>
       <c r="G22" s="124"/>
       <c r="H22" s="70"/>
-      <c r="I22" s="220"/>
+      <c r="I22" s="230"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" s="30"/>
-      <c r="F23" s="220"/>
+      <c r="F23" s="230"/>
       <c r="G23" s="124"/>
       <c r="H23" s="70"/>
-      <c r="I23" s="220"/>
+      <c r="I23" s="230"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="220"/>
+        <v>295</v>
+      </c>
+      <c r="F24" s="230"/>
       <c r="G24" s="143" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H24" s="67"/>
-      <c r="I24" s="220"/>
+      <c r="I24" s="230"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B25" s="80"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B26" s="80"/>
     </row>
@@ -11042,31 +11048,31 @@
     <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="133"/>
       <c r="D29" s="132" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F29" s="133"/>
       <c r="G29" s="32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H29" s="132" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="234" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="235"/>
+      <c r="A30" s="226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="227"/>
       <c r="G30" s="135" t="s">
+        <v>297</v>
+      </c>
+      <c r="H30" s="134" t="s">
         <v>299</v>
-      </c>
-      <c r="H30" s="134" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B31" s="22">
         <v>1.5</v>
@@ -11074,7 +11080,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B32" s="22">
         <v>1.5</v>
@@ -11082,15 +11088,15 @@
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" s="22">
         <v>4.7</v>
@@ -11098,7 +11104,7 @@
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B35" s="22">
         <v>2</v>
@@ -11106,7 +11112,7 @@
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" s="22">
         <v>0.4</v>
@@ -11114,35 +11120,35 @@
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="218" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="219"/>
+      <c r="A39" s="228" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="I1:I24"/>
     <mergeCell ref="F1:F24"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H30" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
@@ -11169,25 +11175,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="156" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="F1" s="156" t="s">
         <v>556</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="G1" s="156" t="s">
         <v>557</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>558</v>
-      </c>
-      <c r="E1" s="156" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1" s="156" t="s">
-        <v>560</v>
-      </c>
-      <c r="G1" s="156" t="s">
-        <v>561</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>70</v>
@@ -11195,35 +11201,35 @@
     </row>
     <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D2" s="157"/>
       <c r="E2" s="156" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F2" s="158"/>
       <c r="G2" s="159" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="156" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
@@ -11231,7 +11237,7 @@
     </row>
     <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="236" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B4" s="236"/>
       <c r="C4" s="236"/>
@@ -11243,13 +11249,13 @@
     </row>
     <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D5" s="162" t="s">
         <v>134</v>
@@ -11261,15 +11267,15 @@
     </row>
     <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="161" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F6" s="158"/>
       <c r="G6" s="158"/>
@@ -11335,10 +11341,10 @@
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F1" s="237" t="s">
         <v>70</v>
@@ -11359,10 +11365,10 @@
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I3" s="13"/>
       <c r="L3" s="13"/>
@@ -11370,37 +11376,37 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -11410,12 +11416,12 @@
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="240" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C15" s="240"/>
       <c r="D15" s="240"/>
@@ -11424,97 +11430,97 @@
     </row>
     <row r="16" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E16" s="239" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F16" s="239"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="52.5" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -11523,7 +11529,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -11532,7 +11538,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F23" s="40"/>
     </row>

--- a/HTML/0 Excel SRC Files/Other E.xlsx
+++ b/HTML/0 Excel SRC Files/Other E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Me\QuickAccessv2\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACA1DB-02DB-410B-9FE4-3AFFC9AC00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F555F1-D9D4-422E-8930-F5258D9237B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,7 @@
     <sheet name="Law" sheetId="30" r:id="rId13"/>
     <sheet name="Jobs" sheetId="33" r:id="rId14"/>
     <sheet name="Post" sheetId="34" r:id="rId15"/>
-    <sheet name="Compaines" sheetId="35" r:id="rId16"/>
-    <sheet name="Search" sheetId="36" r:id="rId17"/>
+    <sheet name="Search" sheetId="36" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="824">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -399,12 +398,6 @@
     <t>7ESL Learning English</t>
   </si>
   <si>
-    <t>الجزيرة الوثائقية</t>
-  </si>
-  <si>
-    <t>DW عربية</t>
-  </si>
-  <si>
     <t>DW وثائقية</t>
   </si>
   <si>
@@ -447,9 +440,6 @@
     <t>IT Ministry</t>
   </si>
   <si>
-    <t>احمد مختار</t>
-  </si>
-  <si>
     <t>محمد الشريف</t>
   </si>
   <si>
@@ -459,27 +449,15 @@
     <t>محمود خالد</t>
   </si>
   <si>
-    <t>محمود علام</t>
-  </si>
-  <si>
     <t>ميسم مجدي</t>
   </si>
   <si>
     <t>أشجان يحيى</t>
   </si>
   <si>
-    <t>حسان عابد</t>
-  </si>
-  <si>
     <t>bassem elgarhi</t>
   </si>
   <si>
-    <t>محمد صبري</t>
-  </si>
-  <si>
-    <t>تامر احمد</t>
-  </si>
-  <si>
     <t>Marketplace</t>
   </si>
   <si>
@@ -507,18 +485,12 @@
     <t>المشروعات الصغيرة</t>
   </si>
   <si>
-    <t>الحكومة المصرية</t>
-  </si>
-  <si>
     <t>مصر الرقمية</t>
   </si>
   <si>
     <t>حماية المستهلك</t>
   </si>
   <si>
-    <t>الداخلية</t>
-  </si>
-  <si>
     <t>الاتصالات و تكنولوجيا المعلومات</t>
   </si>
   <si>
@@ -540,16 +512,10 @@
     <t>شركة المياه</t>
   </si>
   <si>
-    <t>القاهرة للتامين الصحي</t>
-  </si>
-  <si>
     <t>الشهر العقاري</t>
   </si>
   <si>
     <t>القومية للتأمين</t>
-  </si>
-  <si>
-    <t>وزارة الداخلية F</t>
   </si>
   <si>
     <t>Body</t>
@@ -2692,78 +2658,15 @@
     <t>English تعلم اللغة الانجليزية</t>
   </si>
   <si>
-    <t>https://masafaapp.com</t>
-  </si>
-  <si>
-    <t>Compaines</t>
-  </si>
-  <si>
-    <t>ORA | Home (ora-egypt.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مش هدخل في : </t>
-  </si>
-  <si>
-    <t>Food || dessert  industry</t>
-  </si>
-  <si>
     <t>Amazon EG</t>
   </si>
   <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>Aramex</t>
-  </si>
-  <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>Smart</t>
-  </si>
-  <si>
-    <t>Loans Industry</t>
-  </si>
-  <si>
-    <t>Health Care Industry || Skin Care</t>
-  </si>
-  <si>
-    <t>Recruitment Industry</t>
-  </si>
-  <si>
-    <t>Real Estate ( Plan A )</t>
-  </si>
-  <si>
-    <t>Retail || Market ( Plan B )</t>
-  </si>
-  <si>
-    <t>Ideas || Services ( Plan C )</t>
-  </si>
-  <si>
-    <t>Logistics ( XYZ )</t>
-  </si>
-  <si>
     <t>https://www.momkenforher.com</t>
   </si>
   <si>
-    <t>https://rawmartapp.com</t>
-  </si>
-  <si>
-    <t>https://superfny.com</t>
-  </si>
-  <si>
-    <t>https://www.sal7lyy.net</t>
-  </si>
-  <si>
     <t>www.shaghalni.com</t>
   </si>
   <si>
-    <t>Educational Industry</t>
-  </si>
-  <si>
-    <t>Finance Industry</t>
-  </si>
-  <si>
     <t>Online Courses</t>
   </si>
   <si>
@@ -2866,9 +2769,6 @@
     <t xml:space="preserve">محمد محي ( اقتصاد ) </t>
   </si>
   <si>
-    <t>Mohamed Yehia</t>
-  </si>
-  <si>
     <t>بن سامي</t>
   </si>
   <si>
@@ -2914,9 +2814,6 @@
     <t>GlassDoor</t>
   </si>
   <si>
-    <t>AdpList</t>
-  </si>
-  <si>
     <t>SRI Hash Generator</t>
   </si>
   <si>
@@ -2926,9 +2823,6 @@
     <t>Printige</t>
   </si>
   <si>
-    <t>Technolobiaa</t>
-  </si>
-  <si>
     <t>Hailuoai</t>
   </si>
   <si>
@@ -2936,13 +2830,30 @@
   </si>
   <si>
     <t>TIECEgypt</t>
+  </si>
+  <si>
+    <t>Ketab</t>
+  </si>
+  <si>
+    <t>إنت هتبقي مديري المباشر ؟</t>
+  </si>
+  <si>
+    <t>هل بتحطلي roadmap او planing أل next step</t>
+  </si>
+  <si>
+    <t>إنت أي رأيك عامة في الخطوة دي ؟ إني اجي اتوس ؟
+هل الشغل هيبرد و لا رموتلي او احتمال قدام يبقي رموتلي
+اي التحديات اللي هواجها او اتعلمها
+اي ال main rules بتاعتي
+اي الحاجات إللي تنصحني أركز عليها
+هل ف احتمال يبقي فيه تعامل مع ال. Cloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3330,22 +3241,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -4129,7 +4024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4721,28 +4616,16 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4751,7 +4634,7 @@
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4759,6 +4642,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4772,6 +4658,30 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4800,30 +4710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4919,8 +4805,8 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5623,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5650,143 +5536,117 @@
         <v>2</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D1" s="200" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F1" s="200" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G1" s="119" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="H1" s="200" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="I1" s="119" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>115</v>
+        <v>799</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="120" t="s">
-        <v>132</v>
+        <v>802</v>
+      </c>
+      <c r="F2" s="205" t="s">
+        <v>815</v>
+      </c>
+      <c r="G2" s="205" t="s">
+        <v>814</v>
       </c>
       <c r="H2" s="120" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="I2" s="200" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B3" s="205" t="s">
+        <v>818</v>
+      </c>
+      <c r="C3" s="205" t="s">
+        <v>819</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>832</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>835</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>847</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>831</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="119" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
-        <v>833</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>834</v>
-      </c>
-      <c r="C4" s="209" t="s">
-        <v>851</v>
-      </c>
-      <c r="D4" s="209" t="s">
-        <v>849</v>
-      </c>
-      <c r="E4" s="209" t="s">
-        <v>853</v>
-      </c>
-      <c r="F4" s="209" t="s">
-        <v>854</v>
-      </c>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="120"/>
       <c r="H4" s="120"/>
       <c r="I4" s="200" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
-        <v>848</v>
-      </c>
+      <c r="A5" s="120"/>
       <c r="B5" s="120"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
       <c r="E5" s="120"/>
-      <c r="F5" s="209" t="s">
-        <v>852</v>
-      </c>
-      <c r="G5" s="120" t="s">
-        <v>850</v>
-      </c>
-      <c r="H5" s="200" t="s">
-        <v>836</v>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120" t="s">
+        <v>820</v>
       </c>
       <c r="I5" s="119" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="214" t="s">
-        <v>521</v>
-      </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
+      <c r="A6" s="211" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
@@ -5900,250 +5760,267 @@
       <c r="H10" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="120"/>
+      <c r="I10" s="120" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="214" t="s">
-        <v>771</v>
-      </c>
-      <c r="B11" s="214"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
-      <c r="H11" s="214"/>
-      <c r="I11" s="214"/>
+      <c r="A11" s="211" t="s">
+        <v>760</v>
+      </c>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
     </row>
     <row r="12" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="120" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="E12" s="120" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="120" t="s">
+        <v>495</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>496</v>
+      </c>
+      <c r="H12" s="120" t="s">
+        <v>497</v>
+      </c>
+      <c r="I12" s="120" t="s">
         <v>505</v>
-      </c>
-      <c r="F12" s="120" t="s">
-        <v>506</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="120" t="s">
-        <v>508</v>
-      </c>
-      <c r="I12" s="120" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E13" s="120" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F13" s="120" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="I13" s="120" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="214" t="s">
-        <v>772</v>
-      </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
+      <c r="A14" s="211" t="s">
+        <v>761</v>
+      </c>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="209" t="s">
+      <c r="D15" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="209" t="s">
+      <c r="E15" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="209" t="s">
+      <c r="F15" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="209" t="s">
+      <c r="G15" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="209" t="s">
+      <c r="H15" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="210" t="s">
+      <c r="I15" s="206" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="209" t="s">
+      <c r="A16" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="205" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="209" t="s">
+      <c r="D16" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="209" t="s">
+      <c r="E16" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="209" t="s">
+      <c r="F16" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="209" t="s">
+      <c r="G16" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="209" t="s">
+      <c r="H16" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="211" t="s">
+      <c r="I16" s="207" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="209" t="s">
+      <c r="D17" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="209" t="s">
+      <c r="E17" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="209" t="s">
+      <c r="F17" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="209" t="s">
+      <c r="G17" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="209" t="s">
+      <c r="H17" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="212"/>
+      <c r="I17" s="208"/>
     </row>
     <row r="18" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="205" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="209" t="s">
+      <c r="D18" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="209" t="s">
+      <c r="E18" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="209" t="s">
+      <c r="F18" s="205" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="209" t="s">
+      <c r="G18" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="209" t="s">
+      <c r="H18" s="205" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="212"/>
+      <c r="I18" s="208"/>
     </row>
     <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="209" t="s">
+      <c r="A19" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="205" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="212"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="208"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="214"/>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="214"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="209" t="s">
-        <v>844</v>
+      <c r="A21" s="205" t="s">
+        <v>811</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="120" t="s">
-        <v>841</v>
-      </c>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209"/>
+        <v>808</v>
+      </c>
+      <c r="E21" s="120" t="s">
+        <v>800</v>
+      </c>
+      <c r="F21" s="210"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="264" t="s">
+        <v>822</v>
+      </c>
+      <c r="B24" s="264" t="s">
+        <v>823</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6156,135 +6033,124 @@
     <hyperlink ref="F1" location="Repair!A1" display="[صيانة]" xr:uid="{CB7C93AC-CAE0-4257-8918-2B9D24101A69}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Jobs" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
     <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
     <hyperlink ref="B1:D1" location="'$$'!A1" display="'$$'!A1" xr:uid="{36CA0706-DD86-4B1D-A60E-4D98853504F5}"/>
-    <hyperlink ref="C1" r:id="rId5" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
-    <hyperlink ref="A1" r:id="rId6" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
+    <hyperlink ref="A1" r:id="rId4" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
     <hyperlink ref="I3" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
-    <hyperlink ref="B16" r:id="rId8" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
-    <hyperlink ref="C16" r:id="rId9" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
-    <hyperlink ref="C17" r:id="rId10" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
-    <hyperlink ref="F16" r:id="rId11" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
-    <hyperlink ref="G16" r:id="rId12" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
-    <hyperlink ref="E16" r:id="rId14" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
-    <hyperlink ref="I16" r:id="rId16" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
-    <hyperlink ref="F17" r:id="rId17" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
-    <hyperlink ref="G17" r:id="rId18" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
-    <hyperlink ref="A18" r:id="rId19" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
-    <hyperlink ref="B18" r:id="rId20" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
-    <hyperlink ref="E17" r:id="rId21" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
-    <hyperlink ref="E18" r:id="rId22" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
-    <hyperlink ref="F18" r:id="rId23" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
-    <hyperlink ref="C18" r:id="rId24" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
-    <hyperlink ref="D18" r:id="rId25" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
-    <hyperlink ref="H17" r:id="rId26" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
-    <hyperlink ref="H16" r:id="rId27" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
-    <hyperlink ref="B19" r:id="rId28" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
-    <hyperlink ref="D17" r:id="rId29" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
-    <hyperlink ref="C19" r:id="rId30" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
-    <hyperlink ref="A19" r:id="rId32" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
-    <hyperlink ref="H18" r:id="rId33" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
-    <hyperlink ref="G18" r:id="rId34" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
-    <hyperlink ref="H15" r:id="rId35" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
-    <hyperlink ref="I15" r:id="rId36" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
-    <hyperlink ref="E15" r:id="rId37" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
-    <hyperlink ref="F15" r:id="rId38" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
-    <hyperlink ref="G15" r:id="rId39" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
-    <hyperlink ref="B15" r:id="rId40" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
-    <hyperlink ref="A15" r:id="rId41" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
-    <hyperlink ref="H13" r:id="rId42" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
-    <hyperlink ref="I12" r:id="rId43" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
-    <hyperlink ref="G13" r:id="rId44" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
-    <hyperlink ref="F13" r:id="rId45" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
-    <hyperlink ref="E13" r:id="rId46" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
-    <hyperlink ref="D13" r:id="rId47" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
-    <hyperlink ref="C13" r:id="rId48" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
-    <hyperlink ref="B13" r:id="rId49" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
-    <hyperlink ref="A13" r:id="rId50" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
-    <hyperlink ref="H12" r:id="rId51" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
-    <hyperlink ref="G12" r:id="rId52" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
-    <hyperlink ref="F12" r:id="rId53" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
-    <hyperlink ref="E12" r:id="rId54" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
-    <hyperlink ref="D12" r:id="rId55" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
-    <hyperlink ref="C12" r:id="rId56" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
-    <hyperlink ref="B12" r:id="rId57" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
-    <hyperlink ref="A12" r:id="rId58" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
-    <hyperlink ref="H10" r:id="rId59" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="G10" r:id="rId60" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="I9" r:id="rId61" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="F10" r:id="rId62" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="C10" r:id="rId63" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="E10" r:id="rId64" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="D10" r:id="rId65" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="B10" r:id="rId66" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="A10" r:id="rId67" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://learnenglish.britishcouncil.org/online-english-level-test" xr:uid="{490249CD-69D6-4F5C-B5D9-F9B22E5531F8}"/>
+    <hyperlink ref="B16" r:id="rId6" display="https://www.abaenglish.com/en/english-level-test" xr:uid="{C522A13A-66DB-489D-900A-6B52CE61F427}"/>
+    <hyperlink ref="C16" r:id="rId7" display="https://www.facebook.com/BerlitzEgypt" xr:uid="{9A5C3573-1496-4F3A-AC2E-401DDF1DE2CE}"/>
+    <hyperlink ref="C17" r:id="rId8" display="https://www.e2english.com/Home/PlacementTest?gclid=Cj0KCQjwhqaVBhCxARIsAHK1tiMYX2k6u4GzYTpUkafFVpF4BUV_bgOumu6I4thoubdtYzqd9k5NKwoaApt3EALw_wcB" xr:uid="{2E842923-A1CC-4A5D-B40B-DFD523EB31B4}"/>
+    <hyperlink ref="F16" r:id="rId9" display="https://www.languagelevel.com/english/index.php" xr:uid="{6EFB8D37-425E-4F6F-AD3C-219F60B70DFA}"/>
+    <hyperlink ref="G16" r:id="rId10" display="https://www.busuu.com/" xr:uid="{3765DD28-651E-4ABF-98DA-8A09FEBA3C9E}"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://www.bbc.co.uk/learningenglish" xr:uid="{54EB8998-62E4-41FC-84CA-28D8E96E427E}"/>
+    <hyperlink ref="E16" r:id="rId12" display="https://www.espressoenglish.net/english-tips-blog" xr:uid="{3FA836B7-1028-48AE-8951-8C2766989504}"/>
+    <hyperlink ref="A17" r:id="rId13" display="https://www.espressoenglish.net/how-to-learn-english-for-free-50-websites-for-free-english-lessons" xr:uid="{57197D10-C848-4C02-AC29-7E1C3E3E53C8}"/>
+    <hyperlink ref="I16" r:id="rId14" display="https://www.duolingo.com/learn" xr:uid="{FFC13E6E-BCC9-4E40-8811-7AB8A2F09ECB}"/>
+    <hyperlink ref="F17" r:id="rId15" display="https://www.youtube.com/c/ZAmericanEnglish/videos" xr:uid="{7643E7D0-9780-4DA5-AFF2-9ABFC505990B}"/>
+    <hyperlink ref="G17" r:id="rId16" display="https://www.youtube.com/c/VeronikaMark" xr:uid="{482FECE1-83C4-45FC-B270-D2DE2E503994}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.youtube.com/c/LearnEnglishwithBobtheCanadian/videos" xr:uid="{320FB9C0-08FD-49D8-9BA6-49D2314F64B6}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://www.youtube.com/c/MasterEnglish/videos" xr:uid="{10FCE5BE-82DA-4E1C-9BB1-542F1309E879}"/>
+    <hyperlink ref="E17" r:id="rId19" display="https://www.youtube.com/c/GoNaturalEnglish/videos" xr:uid="{DBE65AC5-86BA-480A-9D64-15A49991CECD}"/>
+    <hyperlink ref="E18" r:id="rId20" display="https://www.youtube.com/c/englishforyoutv" xr:uid="{6FFC4B5D-0D78-4AC1-9CA7-CC90A8AB6CB4}"/>
+    <hyperlink ref="F18" r:id="rId21" display="https://www.youtube.com/user/EnglishAnyone" xr:uid="{29DAA25A-6ABD-403A-A90D-654AED8B66B5}"/>
+    <hyperlink ref="C18" r:id="rId22" display="https://www.youtube.com/c/rachelsenglish" xr:uid="{850BA37C-D43A-47C1-8F0B-3950FCC6A227}"/>
+    <hyperlink ref="D18" r:id="rId23" display="https://www.youtube.com/c/mmmEnglish_Emma" xr:uid="{97CA62D5-C3C6-4137-9685-0968A587D3CD}"/>
+    <hyperlink ref="H17" r:id="rId24" display="https://www.youtube.com/c/AmigosIngleses/videos" xr:uid="{9BD15DB6-75AF-444E-BB8F-4E80131B7199}"/>
+    <hyperlink ref="H16" r:id="rId25" display="Single Step English" xr:uid="{89EC801F-7A89-4271-9961-FEE438084B14}"/>
+    <hyperlink ref="B19" r:id="rId26" display="https://www.youtube.com/c/OneMinuteEnglish/videos" xr:uid="{39A0FD1C-A0F1-493D-BCA4-66D8345DB928}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{C144C009-46AA-423D-ADDB-A8B36273830F}"/>
+    <hyperlink ref="C19" r:id="rId28" xr:uid="{ACE42FCC-AAD7-4632-B2D8-8EFFCA4B5BA1}"/>
+    <hyperlink ref="B17" r:id="rId29" xr:uid="{13D5419E-228F-4DA1-A26A-3BC212A3A7A9}"/>
+    <hyperlink ref="A19" r:id="rId30" display="EdMo Tests and Quizzes " xr:uid="{5AE54B23-DDD8-4A58-9D7D-459206AB2EEB}"/>
+    <hyperlink ref="H18" r:id="rId31" display="Culips " xr:uid="{3784E8EE-E16C-459E-9B59-47B6ED00BCAA}"/>
+    <hyperlink ref="G18" r:id="rId32" display="https://www.youtube.com/c/EnglishwithLucy/videos" xr:uid="{E6ECFE11-8A70-4700-A357-B0B1516B8954}"/>
+    <hyperlink ref="H15" r:id="rId33" display="https://www.youtube.com/c/EnglishClass101/videos" xr:uid="{677F7135-2D2E-4D83-B9A9-CF5C49A9FC41}"/>
+    <hyperlink ref="I15" r:id="rId34" xr:uid="{BFF4F3ED-2E98-4610-8C03-5273DF52C8DC}"/>
+    <hyperlink ref="E15" r:id="rId35" display="https://learningenglish.voanews.com/" xr:uid="{2B47E0B5-3EB5-443C-8F99-08E3DEDAB1D4}"/>
+    <hyperlink ref="F15" r:id="rId36" display="https://www.cambly.com/english?lang=en" xr:uid="{DC5DBA3B-121D-4C50-A347-1E99DB4C82A0}"/>
+    <hyperlink ref="G15" r:id="rId37" display="https://www.aucegypt.edu/ar" xr:uid="{D09BB70C-8FD6-4368-94E0-9285BC36CC71}"/>
+    <hyperlink ref="B15" r:id="rId38" display="https://www.cambridgeenglish.org/" xr:uid="{80219548-CF0A-464B-B939-323B5009D1F6}"/>
+    <hyperlink ref="A15" r:id="rId39" display="https://englishteststore.net/" xr:uid="{C2EFF72A-A901-4792-833C-7B67D27C9B84}"/>
+    <hyperlink ref="H13" r:id="rId40" display="https://www.youtube.com/channel/UCyQw44YqPM0kDCHYQmGPVeQ/videos" xr:uid="{B70DB9EB-D354-4021-BB8A-DF8D540DA65D}"/>
+    <hyperlink ref="I12" r:id="rId41" display="https://www.youtube.com/c/SamiAlbatati/videos" xr:uid="{E2E2A3F4-4E0F-4CAE-BFC5-FF02DDB056FB}"/>
+    <hyperlink ref="G13" r:id="rId42" display="https://www.youtube.com/c/AliMuhammadAli/videos" xr:uid="{C90F45A7-B0CA-4D80-9F3E-15047C7DD643}"/>
+    <hyperlink ref="F13" r:id="rId43" display="https://www.youtube.com/@a5drcom/videos" xr:uid="{4F602CCB-E90B-41A8-8D77-92CEC2E4FA50}"/>
+    <hyperlink ref="E13" r:id="rId44" display="https://www.youtube.com/channel/UCPnXSD5IUw3YdhUy5emn_qg/videos" xr:uid="{684A01B0-CBF4-4D19-938B-289CADA6AFD2}"/>
+    <hyperlink ref="D13" r:id="rId45" display="http://dar.bibalex.org/webpages/dar.jsf" xr:uid="{8FBD0710-CF66-4060-8DB8-8733691038D6}"/>
+    <hyperlink ref="C13" r:id="rId46" display="https://link.springer.com/" xr:uid="{50BDCAE8-282A-4606-A900-6AA33C0FB243}"/>
+    <hyperlink ref="B13" r:id="rId47" display="https://www.pdfdrive.com/" xr:uid="{6E568A8D-934C-4016-A2AF-C73752C5F9BF}"/>
+    <hyperlink ref="A13" r:id="rId48" display="https://zlibrary.to/" xr:uid="{A3A84337-0CFD-46C1-A9E8-9D3116513A81}"/>
+    <hyperlink ref="H12" r:id="rId49" display="https://www.aseeralkotb.com/" xr:uid="{B48D1149-2882-4796-9423-0319D4C56B36}"/>
+    <hyperlink ref="G12" r:id="rId50" display="https://www.ktaab.com/sections" xr:uid="{DBFE8FA3-FBD0-414D-BAAD-75DFEF8F9981}"/>
+    <hyperlink ref="F12" r:id="rId51" display="https://www.hindawi.org/" xr:uid="{FEC92C61-F3C9-4001-A92F-C51CB4C2B64B}"/>
+    <hyperlink ref="E12" r:id="rId52" display="https://waqfeya.net/index.php" xr:uid="{6A730B5F-A499-4FCB-BA2B-73B5E028B1E2}"/>
+    <hyperlink ref="D12" r:id="rId53" display="https://www.noor-book.com/" xr:uid="{F21F0608-62CE-482D-A266-9F09A9CB6D51}"/>
+    <hyperlink ref="C12" r:id="rId54" display="https://arxiv.org/archive/cs" xr:uid="{A24A4C94-E6C2-4674-8489-71746340F2F1}"/>
+    <hyperlink ref="B12" r:id="rId55" display="https://arxiv.org/archive/math" xr:uid="{DB281A6E-38B9-4C3E-8CA0-E59CBFA03DD2}"/>
+    <hyperlink ref="A12" r:id="rId56" display="https://openstax.org/" xr:uid="{A991F212-3D3E-41B2-A50F-17DBA15BB561}"/>
+    <hyperlink ref="H10" r:id="rId57" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="G10" r:id="rId58" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="I9" r:id="rId59" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="F10" r:id="rId60" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="C10" r:id="rId61" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="E10" r:id="rId62" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="D10" r:id="rId63" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="B10" r:id="rId64" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="A10" r:id="rId65" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
     <hyperlink ref="I5" location="Post!A1" display="Posts" xr:uid="{E2990330-7D2A-4854-A8B7-29BD2711693F}"/>
-    <hyperlink ref="F9" r:id="rId68" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="D9" r:id="rId69" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="E9" r:id="rId70" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="G9" r:id="rId71" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="H9" r:id="rId72" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="A9" r:id="rId73" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="B9" r:id="rId74" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="C9" r:id="rId75" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C7" r:id="rId76" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
-    <hyperlink ref="I8" r:id="rId77" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="G7" r:id="rId78" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="F8" r:id="rId79" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="E8" r:id="rId80" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="D8" r:id="rId81" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="G8" r:id="rId82" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="C8" r:id="rId83" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="A8" r:id="rId84" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="B8" r:id="rId85" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="E7" r:id="rId86" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="I7" r:id="rId87" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="H8" r:id="rId88" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="B7" r:id="rId89" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H7" r:id="rId90" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="D7" r:id="rId91" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="F7" r:id="rId92" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="A7" r:id="rId93" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="H3" r:id="rId94" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="E2" r:id="rId95" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="F2" r:id="rId96" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="C3" r:id="rId97" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="B3" r:id="rId98" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="G2" r:id="rId99" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="G3" r:id="rId100" xr:uid="{D381AB8B-54AC-4E2F-B426-62E4ADB6AA3E}"/>
-    <hyperlink ref="D3" r:id="rId101" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
-    <hyperlink ref="A4" r:id="rId102" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
-    <hyperlink ref="B4" r:id="rId103" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
-    <hyperlink ref="E3" r:id="rId104" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
-    <hyperlink ref="H5" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
-    <hyperlink ref="D21" r:id="rId105" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
-    <hyperlink ref="A21" r:id="rId106" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
-    <hyperlink ref="I13" r:id="rId107" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
-    <hyperlink ref="H2" r:id="rId108" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
-    <hyperlink ref="F3" r:id="rId109" xr:uid="{59C5FBAC-33E2-453E-A5A0-460CCAC88DF9}"/>
-    <hyperlink ref="D4" r:id="rId110" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
-    <hyperlink ref="A5" r:id="rId111" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
-    <hyperlink ref="G5" r:id="rId112" xr:uid="{45C16977-7BCA-47B9-ADD3-84D73D43F510}"/>
-    <hyperlink ref="C4" r:id="rId113" xr:uid="{1C0CD253-878C-4D31-9251-F104BC1A7A94}"/>
-    <hyperlink ref="F5" r:id="rId114" xr:uid="{3300B61F-C9A8-4E0B-AC4A-26EC93A72999}"/>
-    <hyperlink ref="A3" r:id="rId115" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="I4" location="Compaines!A1" display="Compaines" xr:uid="{C3D40A6A-9386-4100-97C0-20B345E32330}"/>
-    <hyperlink ref="E4" r:id="rId116" xr:uid="{277FBAA6-1E44-4092-B37E-11C8208136A6}"/>
-    <hyperlink ref="F4" r:id="rId117" xr:uid="{969AC396-5B59-481C-A83A-7CF2FB12E437}"/>
+    <hyperlink ref="F9" r:id="rId66" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="D9" r:id="rId67" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="E9" r:id="rId68" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="G9" r:id="rId69" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="H9" r:id="rId70" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="A9" r:id="rId71" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="B9" r:id="rId72" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="C9" r:id="rId73" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C7" r:id="rId74" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="I8" r:id="rId75" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="G7" r:id="rId76" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="F8" r:id="rId77" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="E8" r:id="rId78" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="D8" r:id="rId79" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="G8" r:id="rId80" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="C8" r:id="rId81" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="A8" r:id="rId82" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="B8" r:id="rId83" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="E7" r:id="rId84" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="I7" r:id="rId85" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="H8" r:id="rId86" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="B7" r:id="rId87" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H7" r:id="rId88" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="D7" r:id="rId89" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="F7" r:id="rId90" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="A7" r:id="rId91" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="A3" r:id="rId92" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="B2" r:id="rId93" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="C2" r:id="rId94" xr:uid="{6300804B-651F-43E0-81FA-1D218C607A69}"/>
+    <hyperlink ref="E21" r:id="rId95" xr:uid="{EA9B63C3-6488-439A-A13C-5838A1D00CA7}"/>
+    <hyperlink ref="I10" r:id="rId96" xr:uid="{F77C77EF-E846-4340-AB3B-35AF20F0D120}"/>
+    <hyperlink ref="E2" r:id="rId97" xr:uid="{F89CF9A0-874B-43BD-BF08-97B343DAC9CD}"/>
+    <hyperlink ref="I4" location="AI!A1" display="AI" xr:uid="{CDA5366C-C760-44C5-ABC5-3700B9EE8122}"/>
+    <hyperlink ref="D21" r:id="rId98" xr:uid="{EBAF2699-8967-4F26-BFA1-A3AEFB61D7E6}"/>
+    <hyperlink ref="A21" r:id="rId99" xr:uid="{E0395C6C-FD09-4709-87D7-67AAC26B3C64}"/>
+    <hyperlink ref="I13" r:id="rId100" xr:uid="{32FBE17A-58AA-43A6-95F3-413C1CF07B71}"/>
+    <hyperlink ref="H2" r:id="rId101" xr:uid="{50514D8B-AA71-45AE-BE0A-C906FCD3CA5F}"/>
+    <hyperlink ref="F2" r:id="rId102" display="PersonalFinanceEgypt" xr:uid="{24D8FE4B-0847-4064-92BD-2597098598FC}"/>
+    <hyperlink ref="G2" r:id="rId103" display="sri_hash_generator" xr:uid="{6B783BD2-2E9F-4F5A-9EF0-557DE66841FC}"/>
+    <hyperlink ref="D3" r:id="rId104" xr:uid="{45C16977-7BCA-47B9-ADD3-84D73D43F510}"/>
+    <hyperlink ref="B3" r:id="rId105" xr:uid="{277FBAA6-1E44-4092-B37E-11C8208136A6}"/>
+    <hyperlink ref="C3" r:id="rId106" xr:uid="{969AC396-5B59-481C-A83A-7CF2FB12E437}"/>
+    <hyperlink ref="H5" r:id="rId107" display="Quran" xr:uid="{1A09DF84-C826-4E70-AF94-16C57942C718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId118"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
 
@@ -6292,7 +6158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC2E5-A839-4CFE-81CB-B3D389005C51}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -6314,299 +6180,299 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>384</v>
-      </c>
-      <c r="K1" s="237" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="234" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="244" t="s">
-        <v>383</v>
+      <c r="A2" s="241" t="s">
+        <v>372</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="258" t="s">
-        <v>380</v>
+        <v>370</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>369</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I2" s="83"/>
-      <c r="K2" s="238"/>
+      <c r="K2" s="235"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="244"/>
+      <c r="A3" s="241"/>
       <c r="B3" s="73"/>
       <c r="C3" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="259"/>
+        <v>365</v>
+      </c>
+      <c r="E3" s="256"/>
       <c r="F3" s="82" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="244"/>
+      <c r="A4" s="241"/>
       <c r="B4" s="73"/>
       <c r="C4" s="53"/>
-      <c r="E4" s="260"/>
+      <c r="E4" s="257"/>
       <c r="F4" s="79" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G4" s="78">
         <v>44</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="246" t="s">
-        <v>371</v>
+        <v>330</v>
+      </c>
+      <c r="K4" s="243" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="244"/>
+      <c r="A5" s="241"/>
       <c r="B5" s="73"/>
       <c r="C5" s="53"/>
-      <c r="E5" s="249" t="s">
-        <v>370</v>
+      <c r="E5" s="246" t="s">
+        <v>359</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="74" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="247"/>
+        <v>357</v>
+      </c>
+      <c r="K5" s="244"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="244"/>
+      <c r="A6" s="241"/>
       <c r="B6" s="73"/>
       <c r="C6" s="53"/>
-      <c r="E6" s="250"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="72" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
       <c r="I6" s="70"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="244" t="s">
-        <v>366</v>
+      <c r="A7" s="241" t="s">
+        <v>355</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="251"/>
+        <v>353</v>
+      </c>
+      <c r="E7" s="248"/>
       <c r="F7" s="69" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G7" s="68"/>
       <c r="H7" s="68"/>
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="244"/>
-      <c r="B8" s="255" t="s">
-        <v>362</v>
+      <c r="A8" s="241"/>
+      <c r="B8" s="252" t="s">
+        <v>351</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="252" t="s">
-        <v>360</v>
+        <v>350</v>
+      </c>
+      <c r="E8" s="249" t="s">
+        <v>349</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="256">
+        <v>348</v>
+      </c>
+      <c r="G8" s="253">
         <v>1.8229166666666667</v>
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="255"/>
+      <c r="A9" s="241"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="E9" s="253"/>
+        <v>347</v>
+      </c>
+      <c r="E9" s="250"/>
       <c r="F9" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="257"/>
+        <v>346</v>
+      </c>
+      <c r="G9" s="254"/>
       <c r="H9" s="62"/>
       <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="244"/>
+      <c r="A10" s="241"/>
       <c r="B10" s="43" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
-        <v>355</v>
+      <c r="A11" s="241" t="s">
+        <v>344</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="E11" s="254" t="s">
-        <v>353</v>
+      <c r="E11" s="251" t="s">
+        <v>342</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="I11" s="245" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="I11" s="242" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="244"/>
+      <c r="A12" s="241"/>
       <c r="B12" s="43"/>
       <c r="C12" s="53"/>
-      <c r="E12" s="244"/>
+      <c r="E12" s="241"/>
       <c r="F12" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="I12" s="245"/>
+        <v>339</v>
+      </c>
+      <c r="I12" s="242"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="244"/>
+      <c r="A13" s="241"/>
       <c r="B13" s="43"/>
       <c r="C13" s="53"/>
-      <c r="E13" s="244"/>
+      <c r="E13" s="241"/>
       <c r="F13" s="57"/>
-      <c r="I13" s="245"/>
+      <c r="I13" s="242"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="244"/>
+      <c r="A14" s="241"/>
       <c r="B14" s="43"/>
       <c r="C14" s="53"/>
-      <c r="E14" s="244"/>
+      <c r="E14" s="241"/>
       <c r="F14" s="57"/>
       <c r="I14" s="55" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
+      <c r="A15" s="241"/>
       <c r="B15" s="43"/>
       <c r="C15" s="53"/>
-      <c r="E15" s="248"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="56"/>
       <c r="I15" s="55" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="244"/>
+      <c r="A16" s="241"/>
       <c r="B16" s="43"/>
       <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="244" t="s">
-        <v>347</v>
+      <c r="A17" s="241" t="s">
+        <v>336</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C17" s="53"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="244"/>
+      <c r="A18" s="241"/>
       <c r="B18" s="43"/>
       <c r="C18" s="53"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="244"/>
+      <c r="A19" s="241"/>
       <c r="B19" s="43"/>
       <c r="C19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="248"/>
+      <c r="A20" s="245"/>
       <c r="B20" s="52"/>
       <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="241" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="242"/>
-      <c r="C22" s="243"/>
+      <c r="A22" s="238" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="239"/>
+      <c r="C22" s="240"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6618AA-AE09-4C49-A204-1817CC12D7FC}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -6661,57 +6527,57 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F1" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="237" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="234" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E2" s="43">
         <v>2</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="H2" s="238"/>
+        <v>386</v>
+      </c>
+      <c r="H2" s="235"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D3" s="43">
         <v>15</v>
@@ -6720,18 +6586,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D4" s="43">
         <v>15</v>
@@ -6740,38 +6606,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D6" s="43">
         <v>15</v>
@@ -6780,18 +6646,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D7" s="43">
         <v>15</v>
@@ -6800,18 +6666,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D8" s="43">
         <v>50</v>
@@ -6820,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6905,27 +6771,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="95" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="95" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="95" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,9 +6818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938CE309-CBD9-4E7B-AEF7-6480C043974A}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6966,43 +6830,43 @@
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B1" s="100" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C1" s="102" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D2" s="101"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D3" s="104"/>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -7011,28 +6875,28 @@
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="100" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D5" s="103"/>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
@@ -7041,38 +6905,38 @@
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="100" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D10" s="99"/>
     </row>
@@ -7084,21 +6948,21 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C13" s="106" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="105" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
@@ -7106,7 +6970,7 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="105" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="105"/>
@@ -7114,7 +6978,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
@@ -7122,7 +6986,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="105" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105"/>
@@ -7130,7 +6994,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
@@ -7138,7 +7002,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="105" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105"/>
@@ -7146,7 +7010,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="105" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105"/>
@@ -7154,27 +7018,27 @@
     </row>
     <row r="27" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="112" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C27" s="112" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E27" s="112" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="108" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C28" s="110">
         <v>1227504373</v>
@@ -7188,10 +7052,10 @@
     </row>
     <row r="29" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C29" s="110">
         <v>1028358685</v>
@@ -7203,10 +7067,10 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="109" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C30" s="108">
         <v>1125519116</v>
@@ -7223,62 +7087,62 @@
     </row>
     <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="115" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="115" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="115" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="115" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="115" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -7286,7 +7150,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7338,46 +7202,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7463,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B540495-B4AD-4CA9-A206-F86AB5A39250}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7480,25 +7344,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B1" s="165" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C1" s="165" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E1" s="166" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="H1" s="167"/>
       <c r="I1" s="168" t="s">
@@ -7507,125 +7371,129 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="I2" s="201" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
+      <c r="I3" s="201" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G4" s="166" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H4" s="167"/>
       <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E5" s="166" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="G5" s="167" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="H5" s="167"/>
       <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E6" s="169" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F6" s="169" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G6" s="169" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="H6" s="167"/>
       <c r="I6" s="167"/>
@@ -7633,60 +7501,60 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="C9" s="184" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D9" s="184" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="F9" s="185" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="G9" s="184" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="H9" s="183" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="261" t="s">
-        <v>692</v>
-      </c>
-      <c r="B10" s="262"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="263"/>
+      <c r="A10" s="258" t="s">
+        <v>681</v>
+      </c>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="260"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="182" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E11" s="178" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F11" s="178" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="181"/>
@@ -7762,103 +7630,103 @@
       <c r="H18" s="181"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="261" t="s">
-        <v>686</v>
-      </c>
-      <c r="B19" s="262"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="263"/>
+      <c r="A19" s="258" t="s">
+        <v>675</v>
+      </c>
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="260"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="180" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E20" s="178" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F20" s="177">
         <v>25898039</v>
       </c>
-      <c r="G20" s="264" t="s">
-        <v>681</v>
+      <c r="G20" s="261" t="s">
+        <v>670</v>
       </c>
       <c r="H20" s="176" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="179" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E21" s="178"/>
       <c r="F21" s="177"/>
-      <c r="G21" s="264"/>
+      <c r="G21" s="261"/>
       <c r="H21" s="176" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="179" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="43" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E22" s="178"/>
       <c r="F22" s="177"/>
       <c r="G22" s="43" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H22" s="176" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E23" s="178" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="H23" s="176" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7893,44 +7761,44 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="179" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E27" s="178" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F27" s="177" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="176"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="180" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E28" s="178" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F28" s="178" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="176"/>
@@ -7947,56 +7815,56 @@
     </row>
     <row r="32" spans="1:8" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B33" s="187" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G33" s="100" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C34" s="100"/>
       <c r="D34" s="100"/>
@@ -8004,130 +7872,154 @@
       <c r="F34" s="100"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="36" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F36" s="188" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A38" s="192" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B38" s="192" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C38" s="192" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="E38" s="192" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A39" s="191" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B39" s="189" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D39" s="189">
         <v>1153332210</v>
       </c>
       <c r="E39" s="189"/>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G39" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="120" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A40" s="191" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B40" s="189" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C40" s="189"/>
       <c r="D40" s="189"/>
       <c r="E40" s="189"/>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G40" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="120" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A41" s="191" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="B41" s="189"/>
       <c r="C41" s="189"/>
       <c r="D41" s="189"/>
       <c r="E41" s="189"/>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G41" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="120" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A42" s="191" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B42" s="189" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="C42" s="189"/>
       <c r="D42" s="189"/>
       <c r="E42" s="189"/>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="G42" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="202"/>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A43" s="191" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B43" s="189"/>
       <c r="C43" s="189"/>
       <c r="D43" s="189"/>
       <c r="E43" s="189" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="191" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B44" s="189"/>
       <c r="C44" s="189"/>
       <c r="D44" s="189"/>
       <c r="E44" s="189" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A45" s="191" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B45" s="189"/>
       <c r="C45" s="189"/>
       <c r="D45" s="189"/>
       <c r="E45" s="189" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="191" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B46" s="189"/>
       <c r="C46" s="189"/>
       <c r="D46" s="189"/>
       <c r="E46" s="189" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="191" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B47" s="189"/>
       <c r="C47" s="189"/>
       <c r="D47" s="189"/>
       <c r="E47" s="189" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A48" s="189"/>
       <c r="B48" s="189"/>
       <c r="C48" s="189"/>
@@ -8157,13 +8049,13 @@
     </row>
     <row r="52" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="191" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B52" s="189"/>
       <c r="C52" s="189"/>
       <c r="D52" s="189"/>
       <c r="E52" s="189" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8175,7 +8067,7 @@
     </row>
     <row r="54" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A54" s="190" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B54" s="189"/>
       <c r="C54" s="189"/>
@@ -8184,7 +8076,7 @@
     </row>
     <row r="55" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A55" s="189" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B55" s="189"/>
       <c r="C55" s="189"/>
@@ -8193,7 +8085,7 @@
     </row>
     <row r="56" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A56" s="189" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B56" s="189"/>
       <c r="C56" s="189"/>
@@ -8202,7 +8094,7 @@
     </row>
     <row r="57" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A57" s="189" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B57" s="189"/>
       <c r="C57" s="189"/>
@@ -8211,13 +8103,13 @@
     </row>
     <row r="60" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="100" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B60" s="193" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C60" s="100" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="D60" s="193"/>
       <c r="E60" s="193"/>
@@ -8228,10 +8120,10 @@
     </row>
     <row r="61" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A61" s="100" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C61" s="193"/>
       <c r="D61" s="193"/>
@@ -8247,7 +8139,7 @@
       <c r="E62" s="193"/>
       <c r="F62" s="193"/>
       <c r="G62" s="195" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
@@ -8261,26 +8153,26 @@
     </row>
     <row r="64" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A64" s="194" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B64" s="193" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="D64" s="100" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E64" s="100" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F64" s="193"/>
       <c r="G64" s="193"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A65" s="100" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B65" s="193"/>
       <c r="C65" s="193"/>
@@ -8309,26 +8201,26 @@
     </row>
     <row r="68" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A68" s="194" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B68" s="193" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C68" s="193" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="D68" s="193" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="E68" s="193" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F68" s="193"/>
       <c r="G68" s="193"/>
     </row>
     <row r="69" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A69" s="193" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B69" s="193"/>
       <c r="C69" s="193"/>
@@ -8339,49 +8231,49 @@
     </row>
     <row r="73" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="198" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B73" s="199" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C73" s="199" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D73" s="198" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="E73" s="199" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="F73" s="199" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="G73" s="197"/>
     </row>
     <row r="74" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="198" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B74" s="198" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C74" s="199" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="D74" s="198" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E74" s="198" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F74" s="198" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="G74" s="197"/>
     </row>
     <row r="75" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="198" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B75" s="197"/>
       <c r="C75" s="197"/>
@@ -8494,9 +8386,18 @@
     <hyperlink ref="E74" r:id="rId90" display="https://lacasa-egy.com/" xr:uid="{6026C1E5-CD3E-4D67-A23C-B21BE1C342A6}"/>
     <hyperlink ref="F74" r:id="rId91" display="https://www.facebook.com/MilanStore4phones" xr:uid="{E5B00E6B-1831-4533-B473-B39346B00B9F}"/>
     <hyperlink ref="A75" r:id="rId92" display="https://www.elarabygroup.com/ar" xr:uid="{D10B500F-04F2-43C4-9C51-39507CB3B198}"/>
+    <hyperlink ref="I2" r:id="rId93" xr:uid="{20B081CA-F7B0-4F03-99E8-2067D713D17D}"/>
+    <hyperlink ref="I3" r:id="rId94" xr:uid="{0BC5FE96-E9E3-4CB1-A671-353401F191D5}"/>
+    <hyperlink ref="G42" r:id="rId95" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
+    <hyperlink ref="H41" r:id="rId96" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
+    <hyperlink ref="G41" r:id="rId97" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
+    <hyperlink ref="H40" r:id="rId98" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
+    <hyperlink ref="G40" r:id="rId99" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
+    <hyperlink ref="H39" r:id="rId100" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
+    <hyperlink ref="G39" r:id="rId101" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
 
@@ -8504,8 +8405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5549999C-E578-4234-8F52-C87BE36B46AE}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.7109375" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8515,80 +8416,80 @@
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B1" s="175" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B2" s="172" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C2" s="171"/>
     </row>
     <row r="3" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B3" s="172" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B5" s="172" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C5" s="171"/>
     </row>
     <row r="6" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B6" s="172" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B7" s="172" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C7" s="171"/>
     </row>
     <row r="8" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="265" t="s">
-        <v>638</v>
-      </c>
-      <c r="B8" s="266"/>
+      <c r="A8" s="262" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="263"/>
       <c r="C8" s="171"/>
     </row>
   </sheetData>
@@ -8604,416 +8505,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB7DE2B-0259-424A-B2BB-9A2C47A35DC5}">
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.42578125" style="205" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="205" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="205" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="205" customWidth="1"/>
-    <col min="7" max="9" width="0" style="205" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="205" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
-        <v>786</v>
-      </c>
-      <c r="B1" s="201" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1" s="201" t="s">
-        <v>785</v>
-      </c>
-      <c r="D1" s="201" t="s">
-        <v>796</v>
-      </c>
-      <c r="E1" s="201" t="s">
-        <v>789</v>
-      </c>
-      <c r="F1" s="206" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>775</v>
-      </c>
-      <c r="B2" s="203" t="s">
-        <v>773</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>790</v>
-      </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="120" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204"/>
-      <c r="B3" s="203" t="s">
-        <v>793</v>
-      </c>
-      <c r="C3" s="203" t="s">
-        <v>794</v>
-      </c>
-      <c r="D3" s="204"/>
-      <c r="E3" s="120" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="204"/>
-      <c r="B4" s="203" t="s">
-        <v>792</v>
-      </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="120" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="203" t="s">
-        <v>791</v>
-      </c>
-      <c r="D5" s="204"/>
-      <c r="E5" s="120" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204"/>
-      <c r="D6" s="204"/>
-    </row>
-    <row r="7" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-    </row>
-    <row r="8" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="267" t="s">
-        <v>787</v>
-      </c>
-      <c r="B8" s="267"/>
-      <c r="C8" s="201" t="s">
-        <v>795</v>
-      </c>
-      <c r="D8" s="204"/>
-    </row>
-    <row r="9" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="204"/>
-    </row>
-    <row r="11" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>778</v>
-      </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="204"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="204"/>
-      <c r="B14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="204"/>
-    </row>
-    <row r="16" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-    </row>
-    <row r="17" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-    </row>
-    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-    </row>
-    <row r="19" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-    </row>
-    <row r="20" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-    </row>
-    <row r="21" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-    </row>
-    <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-    </row>
-    <row r="23" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-    </row>
-    <row r="24" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="204"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-    </row>
-    <row r="25" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-    </row>
-    <row r="26" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-    </row>
-    <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="204"/>
-      <c r="B27" s="204"/>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-    </row>
-    <row r="28" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="204"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-    </row>
-    <row r="29" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="204"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-    </row>
-    <row r="30" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="204"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204"/>
-    </row>
-    <row r="31" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="204"/>
-      <c r="B31" s="204"/>
-      <c r="C31" s="204"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-    </row>
-    <row r="32" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="204"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-    </row>
-    <row r="33" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="204"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-    </row>
-    <row r="34" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="204"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-    </row>
-    <row r="35" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="204"/>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-    </row>
-    <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="204"/>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="204"/>
-    </row>
-    <row r="37" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="204"/>
-      <c r="B37" s="204"/>
-      <c r="C37" s="204"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="204"/>
-    </row>
-    <row r="38" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="204"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="204"/>
-      <c r="D38" s="204"/>
-      <c r="E38" s="204"/>
-    </row>
-    <row r="39" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="204"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-    </row>
-    <row r="40" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="204"/>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-    </row>
-    <row r="41" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-    </row>
-    <row r="42" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-    </row>
-    <row r="43" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="204"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-    </row>
-    <row r="44" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="204"/>
-      <c r="B44" s="204"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="204"/>
-    </row>
-    <row r="45" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="204"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{022B0F8C-453B-4029-8F6E-96E64A7B8958}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.ora-egypt.com/" xr:uid="{08E3BD84-92C1-4FA0-A782-81DA1EBABEA9}"/>
-    <hyperlink ref="F1" location="Jobs!A1" display="Back &lt;--" xr:uid="{7354C7A5-EB71-4914-B603-DE465041077B}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
-    <hyperlink ref="B11" r:id="rId4" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
-    <hyperlink ref="B10" r:id="rId6" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{20B081CA-F7B0-4F03-99E8-2067D713D17D}"/>
-    <hyperlink ref="B3" r:id="rId11" xr:uid="{113C5243-D605-4D13-9C89-F694EBE9966F}"/>
-    <hyperlink ref="B5" r:id="rId12" xr:uid="{06D184BD-D620-483C-AF45-A3D735784818}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{0BC5FE96-E9E3-4CB1-A671-353401F191D5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C25B2-BD25-4D56-89FD-7E7E1C826C18}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9023,164 +8518,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="207" t="s">
-        <v>797</v>
-      </c>
-      <c r="B1" s="207" t="s">
-        <v>798</v>
-      </c>
-      <c r="C1" s="207" t="s">
-        <v>799</v>
+      <c r="A1" s="203" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="203" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" s="203" t="s">
+        <v>767</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="207" t="s">
-        <v>800</v>
-      </c>
-      <c r="B2" s="207" t="s">
-        <v>801</v>
-      </c>
-      <c r="C2" s="207" t="s">
-        <v>802</v>
+      <c r="A2" s="203" t="s">
+        <v>768</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>770</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="208" t="s">
-        <v>803</v>
-      </c>
-      <c r="B3" s="207" t="s">
-        <v>804</v>
-      </c>
-      <c r="C3" s="207" t="s">
-        <v>799</v>
+      <c r="A3" s="204" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="203" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" s="203" t="s">
+        <v>767</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="207" t="s">
-        <v>805</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>806</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>809</v>
+      <c r="A4" s="203" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" s="203" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="204" t="s">
+        <v>777</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="207" t="s">
-        <v>807</v>
-      </c>
-      <c r="B5" s="207" t="s">
-        <v>808</v>
-      </c>
-      <c r="C5" s="207" t="s">
-        <v>810</v>
+      <c r="A5" s="203" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5" s="203" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="203" t="s">
+        <v>778</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="207" t="s">
-        <v>811</v>
-      </c>
-      <c r="B6" s="207" t="s">
-        <v>812</v>
-      </c>
-      <c r="C6" s="207" t="s">
-        <v>813</v>
+      <c r="A6" s="203" t="s">
+        <v>779</v>
+      </c>
+      <c r="B6" s="203" t="s">
+        <v>780</v>
+      </c>
+      <c r="C6" s="203" t="s">
+        <v>781</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="207" t="s">
-        <v>814</v>
-      </c>
-      <c r="B7" s="207" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="207" t="s">
-        <v>816</v>
+      <c r="A7" s="203" t="s">
+        <v>782</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>783</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>784</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="208" t="s">
-        <v>817</v>
-      </c>
-      <c r="B8" s="207" t="s">
-        <v>824</v>
-      </c>
-      <c r="C8" s="207" t="s">
-        <v>818</v>
+      <c r="A8" s="204" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" s="203" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>786</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="207" t="s">
-        <v>819</v>
-      </c>
-      <c r="B9" s="207" t="s">
-        <v>820</v>
-      </c>
-      <c r="C9" s="207" t="s">
-        <v>821</v>
+      <c r="A9" s="203" t="s">
+        <v>787</v>
+      </c>
+      <c r="B9" s="203" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>789</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="207" t="s">
-        <v>822</v>
-      </c>
-      <c r="B10" s="207" t="s">
-        <v>823</v>
-      </c>
-      <c r="C10" s="207" t="s">
-        <v>824</v>
+      <c r="A10" s="203" t="s">
+        <v>790</v>
+      </c>
+      <c r="B10" s="203" t="s">
+        <v>791</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>792</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="208" t="s">
-        <v>825</v>
-      </c>
-      <c r="B11" s="207" t="s">
-        <v>828</v>
-      </c>
-      <c r="C11" s="207" t="s">
-        <v>826</v>
+      <c r="A11" s="204" t="s">
+        <v>793</v>
+      </c>
+      <c r="B11" s="203" t="s">
+        <v>796</v>
+      </c>
+      <c r="C11" s="203" t="s">
+        <v>794</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="207" t="s">
-        <v>827</v>
-      </c>
-      <c r="B12" s="207" t="s">
-        <v>823</v>
-      </c>
-      <c r="C12" s="207" t="s">
-        <v>829</v>
+      <c r="A12" s="203" t="s">
+        <v>795</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>791</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>797</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="207" t="s">
-        <v>822</v>
-      </c>
-      <c r="B13" s="207" t="s">
-        <v>826</v>
+      <c r="A13" s="203" t="s">
+        <v>790</v>
+      </c>
+      <c r="B13" s="203" t="s">
+        <v>794</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="207" t="s">
-        <v>825</v>
+      <c r="A14" s="203" t="s">
+        <v>793</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -9199,29 +8694,29 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -9241,7 +8736,9 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="205" t="s">
+        <v>817</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9296,9 +8793,10 @@
     <hyperlink ref="B1" r:id="rId4" xr:uid="{04A596D0-C798-4281-A4B2-B0CC6351F864}"/>
     <hyperlink ref="E1" r:id="rId5" display="lumalabs" xr:uid="{6F636338-DC00-4072-8F05-938FC38DCE6D}"/>
     <hyperlink ref="F1" r:id="rId6" xr:uid="{A7DB4B4A-6F74-42AD-83F8-0AAB6C08A6D3}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{3300B61F-C9A8-4E0B-AC4A-26EC93A72999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -9480,22 +8978,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -9507,22 +9005,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -9636,10 +9134,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9651,7 +9149,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9665,7 +9163,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="117" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9674,10 +9172,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9686,10 +9184,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9698,10 +9196,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9758,10 +9256,10 @@
     </row>
     <row r="29" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -9911,7 +9409,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9925,22 +9423,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="120" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B1" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="E1" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="120" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>161</v>
       </c>
       <c r="G1" s="122" t="s">
         <v>70</v>
@@ -9948,43 +9446,35 @@
     </row>
     <row r="2" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C2" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="120" t="s">
-        <v>158</v>
-      </c>
       <c r="F2" s="120" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="121"/>
@@ -10000,22 +9490,18 @@
     <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/MOHESREGYPT" xr:uid="{98DD0BDC-C936-4B1A-901F-A18FE02B3461}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.capmas.gov.eg/" xr:uid="{5E7DD485-7A5D-4696-A798-45931B453776}"/>
     <hyperlink ref="B1" r:id="rId3" display="https://www.msme.eg/ar/Pages/default.aspx" xr:uid="{97A34A31-AE21-4D3E-A585-C86389EFEC91}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.egypt.gov.eg/arabic/home.aspx" xr:uid="{A9777825-72AF-4DC3-AA30-7367E3C4C7C1}"/>
-    <hyperlink ref="C1" r:id="rId5" display="https://digital.gov.eg/" xr:uid="{C526A501-C848-42E0-A2A3-78E0960E9764}"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://www.cpa.gov.eg/ar-eg" xr:uid="{9780D227-FE05-4F1C-9C01-531B8E2842C0}"/>
-    <hyperlink ref="E3" r:id="rId7" display="https://moi.gov.eg/home/index" xr:uid="{9ACE4D3A-10FB-4BEC-90FA-3E5046673F52}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://mcit.gov.eg/ar" xr:uid="{578854D3-9485-4EA4-AF62-298A1C0DB9CA}"/>
-    <hyperlink ref="A3" r:id="rId9" display="http://issr.cu.edu.eg/ar" xr:uid="{F29E3E4E-5207-44B0-882E-9989F2217982}"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://asa.gov.eg/page.aspx" xr:uid="{BBC57A1A-15C2-42C7-A716-D04F008A8950}"/>
-    <hyperlink ref="E2" r:id="rId11" display="https://www.customs.gov.eg/" xr:uid="{EAA0AE80-7E58-485F-930E-5BEFAF1FD711}"/>
-    <hyperlink ref="D1" r:id="rId12" display="https://www.shakwa.eg/GCP/Default.aspx" xr:uid="{D2D5AB12-9F65-4713-8F9B-4E3A4F0C2073}"/>
-    <hyperlink ref="F2" r:id="rId13" display="https://www.mof.gov.eg/ar" xr:uid="{3E2CC13A-E577-4E40-91AB-88D77411999B}"/>
-    <hyperlink ref="F1" r:id="rId14" display="http://www.gcwc.com.eg/Services/bill" xr:uid="{6524CEA9-BFD5-464A-963D-BB37C867099F}"/>
-    <hyperlink ref="F3" r:id="rId15" display="https://hiocairo.com/" xr:uid="{6517785F-B106-41BC-BEE1-BFB8C698CBBD}"/>
-    <hyperlink ref="D2" r:id="rId16" display="https://rern.gov.eg/" xr:uid="{2FFC4958-989B-40D7-9C31-123867917BA4}"/>
-    <hyperlink ref="E1" r:id="rId17" display="https://nosi.gov.eg/ar/Pages/HomePage/Home.aspx" xr:uid="{219AA9A2-EB3F-44C3-B470-19AA35F7C93A}"/>
-    <hyperlink ref="D3" r:id="rId18" display="https://www.facebook.com/MoiEgy" xr:uid="{400200C8-3CA4-4B1B-8D5B-EDF7172BD042}"/>
+    <hyperlink ref="C1" r:id="rId4" display="https://digital.gov.eg/" xr:uid="{C526A501-C848-42E0-A2A3-78E0960E9764}"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://www.cpa.gov.eg/ar-eg" xr:uid="{9780D227-FE05-4F1C-9C01-531B8E2842C0}"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://mcit.gov.eg/ar" xr:uid="{578854D3-9485-4EA4-AF62-298A1C0DB9CA}"/>
+    <hyperlink ref="A3" r:id="rId7" display="http://issr.cu.edu.eg/ar" xr:uid="{F29E3E4E-5207-44B0-882E-9989F2217982}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://asa.gov.eg/page.aspx" xr:uid="{BBC57A1A-15C2-42C7-A716-D04F008A8950}"/>
+    <hyperlink ref="D1" r:id="rId9" display="https://www.shakwa.eg/GCP/Default.aspx" xr:uid="{D2D5AB12-9F65-4713-8F9B-4E3A4F0C2073}"/>
+    <hyperlink ref="F2" r:id="rId10" display="https://www.mof.gov.eg/ar" xr:uid="{3E2CC13A-E577-4E40-91AB-88D77411999B}"/>
+    <hyperlink ref="F1" r:id="rId11" display="http://www.gcwc.com.eg/Services/bill" xr:uid="{6524CEA9-BFD5-464A-963D-BB37C867099F}"/>
+    <hyperlink ref="D2" r:id="rId12" display="https://rern.gov.eg/" xr:uid="{2FFC4958-989B-40D7-9C31-123867917BA4}"/>
+    <hyperlink ref="E1" r:id="rId13" display="https://nosi.gov.eg/ar/Pages/HomePage/Home.aspx" xr:uid="{219AA9A2-EB3F-44C3-B470-19AA35F7C93A}"/>
     <hyperlink ref="G1" location="'0'!A1" display="Back" xr:uid="{2B0FCC00-3444-4D83-8465-B618ADF38DC7}"/>
+    <hyperlink ref="E2" r:id="rId14" display="https://www.customs.gov.eg/" xr:uid="{EAA0AE80-7E58-485F-930E-5BEFAF1FD711}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10045,25 +9531,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>70</v>
@@ -10071,253 +9557,253 @@
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="217"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="214"/>
     </row>
     <row r="6" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="215"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="217"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
     </row>
     <row r="9" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="214"/>
     </row>
     <row r="12" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10325,16 +9811,16 @@
     </row>
     <row r="16" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -10492,9 +9978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A93-9C4A-4E25-9D64-A0FBE0508D58}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10516,524 +10000,524 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="224" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="225"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="234" t="s">
-        <v>526</v>
-      </c>
-      <c r="H1" s="235"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="220" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="221"/>
-      <c r="M1" s="218" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="229" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="230"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="221" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" s="222"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="225" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="226"/>
+      <c r="M1" s="223" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B2" s="127">
         <v>77.5</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="230"/>
+        <v>228</v>
+      </c>
+      <c r="F2" s="217"/>
       <c r="G2" s="144" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H2" s="145">
         <v>18</v>
       </c>
-      <c r="I2" s="230"/>
+      <c r="I2" s="217"/>
       <c r="J2" s="139" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K2" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="219"/>
+        <v>237</v>
+      </c>
+      <c r="M2" s="224"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B3" s="127">
         <v>98</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E3" s="14">
         <v>132</v>
       </c>
-      <c r="F3" s="230"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="144" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H3" s="145">
         <v>22</v>
       </c>
-      <c r="I3" s="230"/>
+      <c r="I3" s="217"/>
       <c r="J3" s="139" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B4" s="127">
         <v>76</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E4" s="14">
         <v>120</v>
       </c>
-      <c r="F4" s="230"/>
+      <c r="F4" s="217"/>
       <c r="G4" s="144" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H4" s="145">
         <v>22</v>
       </c>
-      <c r="I4" s="230"/>
+      <c r="I4" s="217"/>
       <c r="J4" s="139" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="K4" s="140" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B5" s="127">
         <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E5" s="15">
         <v>128</v>
       </c>
-      <c r="F5" s="230"/>
+      <c r="F5" s="217"/>
       <c r="G5" s="144" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H5" s="145">
         <v>40</v>
       </c>
-      <c r="I5" s="230"/>
+      <c r="I5" s="217"/>
       <c r="J5" s="139" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B6" s="127"/>
       <c r="D6" s="16" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="230"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="144" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H6" s="145" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" s="230"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="217"/>
       <c r="J6" s="141" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B7" s="127"/>
       <c r="D7" s="16" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="230"/>
+      <c r="F7" s="217"/>
       <c r="G7" s="144" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="H7" s="145" t="s">
-        <v>592</v>
-      </c>
-      <c r="I7" s="230"/>
+        <v>581</v>
+      </c>
+      <c r="I7" s="217"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="144" t="s">
         <v>532</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="144" t="s">
-        <v>543</v>
-      </c>
       <c r="H8" s="145"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231" t="s">
-        <v>550</v>
-      </c>
-      <c r="K8" s="231"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="218" t="s">
+        <v>539</v>
+      </c>
+      <c r="K8" s="218"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B9" s="148" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="230"/>
+      <c r="F9" s="217"/>
       <c r="G9" s="144" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H9" s="145" t="s">
-        <v>591</v>
-      </c>
-      <c r="I9" s="230"/>
+        <v>580</v>
+      </c>
+      <c r="I9" s="217"/>
       <c r="J9" s="131" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="K9" s="131" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="126" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="230"/>
+        <v>228</v>
+      </c>
+      <c r="F10" s="217"/>
       <c r="G10" s="144" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>594</v>
-      </c>
-      <c r="I10" s="230"/>
+        <v>583</v>
+      </c>
+      <c r="I10" s="217"/>
       <c r="J10" s="131" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="K10" s="131" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="149" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B11" s="150" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E11" s="14">
         <v>143</v>
       </c>
-      <c r="F11" s="230"/>
-      <c r="I11" s="230"/>
+      <c r="F11" s="217"/>
+      <c r="I11" s="217"/>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B12" s="151"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="222" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="223"/>
-      <c r="I12" s="230"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="228"/>
+      <c r="I12" s="217"/>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B13" s="151">
         <v>69</v>
       </c>
       <c r="D13" s="126" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="230"/>
+        <v>228</v>
+      </c>
+      <c r="F13" s="217"/>
       <c r="G13" s="136" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H13" s="136" t="s">
-        <v>247</v>
-      </c>
-      <c r="I13" s="230"/>
+        <v>236</v>
+      </c>
+      <c r="I13" s="217"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B14" s="152">
         <v>23</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E14" s="14">
         <v>120</v>
       </c>
-      <c r="F14" s="230"/>
+      <c r="F14" s="217"/>
       <c r="G14" s="136" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H14" s="136" t="s">
-        <v>539</v>
-      </c>
-      <c r="I14" s="230"/>
+        <v>528</v>
+      </c>
+      <c r="I14" s="217"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="154" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B15" s="155" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="230"/>
+      <c r="F15" s="217"/>
       <c r="G15" s="136" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="H15" s="137" t="s">
-        <v>546</v>
-      </c>
-      <c r="I15" s="230"/>
+        <v>535</v>
+      </c>
+      <c r="I15" s="217"/>
       <c r="J15" s="107" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="K15" s="107" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="230"/>
+        <v>255</v>
+      </c>
+      <c r="F16" s="217"/>
       <c r="G16" s="136" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="H16" s="136" t="s">
-        <v>574</v>
-      </c>
-      <c r="I16" s="230"/>
+        <v>563</v>
+      </c>
+      <c r="I16" s="217"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="230"/>
+        <v>228</v>
+      </c>
+      <c r="F17" s="217"/>
       <c r="G17" s="138" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="H17" s="138" t="s">
-        <v>575</v>
-      </c>
-      <c r="I17" s="230"/>
+        <v>564</v>
+      </c>
+      <c r="I17" s="217"/>
       <c r="J17" s="107"/>
       <c r="K17" s="107"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="F18" s="230"/>
-      <c r="I18" s="230"/>
+        <v>277</v>
+      </c>
+      <c r="F18" s="217"/>
+      <c r="I18" s="217"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="232" t="s">
-        <v>525</v>
-      </c>
-      <c r="H19" s="233"/>
-      <c r="I19" s="230"/>
+        <v>280</v>
+      </c>
+      <c r="F19" s="217"/>
+      <c r="G19" s="219" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" s="220"/>
+      <c r="I19" s="217"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="21" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="230"/>
+        <v>283</v>
+      </c>
+      <c r="F20" s="217"/>
       <c r="G20" s="124" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="230"/>
+        <v>258</v>
+      </c>
+      <c r="I20" s="217"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="21" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="230"/>
+      <c r="F21" s="217"/>
       <c r="G21" s="124" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="I21" s="230"/>
+        <v>258</v>
+      </c>
+      <c r="I21" s="217"/>
       <c r="J21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="21" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="E22" s="30"/>
-      <c r="F22" s="230"/>
+      <c r="F22" s="217"/>
       <c r="G22" s="124"/>
       <c r="H22" s="70"/>
-      <c r="I22" s="230"/>
+      <c r="I22" s="217"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="127" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="21" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E23" s="30"/>
-      <c r="F23" s="230"/>
+      <c r="F23" s="217"/>
       <c r="G23" s="124"/>
       <c r="H23" s="70"/>
-      <c r="I23" s="230"/>
+      <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="127" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="28" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="230"/>
+        <v>284</v>
+      </c>
+      <c r="F24" s="217"/>
       <c r="G24" s="143" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H24" s="67"/>
-      <c r="I24" s="230"/>
+      <c r="I24" s="217"/>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B25" s="80"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B26" s="80"/>
     </row>
@@ -11048,31 +10532,31 @@
     <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="133"/>
       <c r="D29" s="132" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F29" s="133"/>
       <c r="G29" s="32" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H29" s="132" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="226" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="227"/>
+      <c r="A30" s="231" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="232"/>
       <c r="G30" s="135" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H30" s="134" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B31" s="22">
         <v>1.5</v>
@@ -11080,7 +10564,7 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B32" s="22">
         <v>1.5</v>
@@ -11088,15 +10572,15 @@
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B34" s="22">
         <v>4.7</v>
@@ -11104,7 +10588,7 @@
     </row>
     <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B35" s="22">
         <v>2</v>
@@ -11112,7 +10596,7 @@
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B36" s="22">
         <v>0.4</v>
@@ -11120,35 +10604,35 @@
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="228" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="229"/>
+      <c r="A39" s="215" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="I1:I24"/>
     <mergeCell ref="F1:F24"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H30" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
@@ -11167,7 +10651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407928FC-3F3D-40A9-A482-DAE5DC3CE4C9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -11175,25 +10659,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E1" s="156" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F1" s="156" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G1" s="156" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>70</v>
@@ -11201,64 +10685,64 @@
     </row>
     <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B2" s="156" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D2" s="157"/>
       <c r="E2" s="156" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F2" s="158"/>
       <c r="G2" s="159" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="156" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="156" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F3" s="158"/>
       <c r="G3" s="158"/>
       <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="236" t="s">
-        <v>566</v>
-      </c>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
+      <c r="A4" s="233" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
       <c r="F4" s="158"/>
       <c r="G4" s="158"/>
       <c r="H4" s="160"/>
     </row>
     <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C5" s="161" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E5" s="163"/>
       <c r="F5" s="158"/>
@@ -11267,15 +10751,15 @@
     </row>
     <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="161" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B6" s="163" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C6" s="163"/>
       <c r="D6" s="163"/>
       <c r="E6" s="162" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F6" s="158"/>
       <c r="G6" s="158"/>
@@ -11318,8 +10802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B73DE-53F2-44B5-9617-ECC017AFCAD6}">
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11341,19 +10825,19 @@
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="237" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="234" t="s">
         <v>70</v>
       </c>
       <c r="I1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="238"/>
+      <c r="F2" s="235"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -11365,10 +10849,10 @@
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I3" s="13"/>
       <c r="L3" s="13"/>
@@ -11376,37 +10860,37 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="34" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -11416,111 +10900,111 @@
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="34" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="240" t="s">
-        <v>659</v>
-      </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
+      <c r="B15" s="237" t="s">
+        <v>648</v>
+      </c>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
     </row>
     <row r="16" spans="2:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="E16" s="239" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" s="239"/>
+        <v>329</v>
+      </c>
+      <c r="E16" s="236" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="236"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="52.5" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="41" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -11529,7 +11013,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -11538,7 +11022,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F23" s="40"/>
     </row>
